--- a/Carga_Total_N_Aero.xlsx
+++ b/Carga_Total_N_Aero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Aéreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2145B966-F757-45CD-AA84-153B70853693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB246803-7C4F-4ABB-A657-1C1FA35590CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_30.1" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
-  </si>
-  <si>
     <t>Internacional</t>
   </si>
   <si>
     <t>Nacional</t>
-  </si>
-  <si>
-    <t>Periodo</t>
   </si>
   <si>
     <t>Total</t>
@@ -66,6 +57,15 @@
   </si>
   <si>
     <t>Fuente:  AFAC. Agencia Federal de Aviación Civil.</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Actualización: agosto 2024.</t>
   </si>
 </sst>
 </file>
@@ -264,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -281,46 +281,23 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -330,14 +307,43 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -361,8 +367,19 @@
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -372,13 +389,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -408,7 +418,7 @@
           <bgColor theme="7"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -434,18 +444,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:E82" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="B5:E82" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F85" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B5:F85" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+        <filter val="2023"/>
+        <filter val="2024"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Periodo" dataDxfId="3"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{C7241031-7544-447E-877A-D3F17F3B37E4}" name="Mes" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="2">
-      <calculatedColumnFormula>SUM(D6:E6)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(E6:F6)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Nacional" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Internacional" dataDxfId="0"/>
@@ -677,1226 +689,1516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:E85"/>
+  <dimension ref="B2:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.19921875" customWidth="1"/>
+    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+      <c r="D5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="20">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="21">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="18"/>
-      <c r="C4" s="26" t="s">
+      <c r="D6" s="9">
+        <f t="shared" ref="D6:D40" si="0">SUM(E6:F6)</f>
+        <v>65409.835878400001</v>
+      </c>
+      <c r="E6" s="7">
+        <v>10656.19658</v>
+      </c>
+      <c r="F6" s="29">
+        <v>54753.639298399998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="23">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:D9" si="1">SUM(E7:F7)</f>
+        <v>65251.52312564</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10090.788336240001</v>
+      </c>
+      <c r="F7" s="28">
+        <v>55160.734789399998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="20">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="21">
         <v>6</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="19" t="s">
+      <c r="D8" s="9">
+        <f t="shared" si="1"/>
+        <v>62612.769596599988</v>
+      </c>
+      <c r="E8" s="7">
+        <v>9471.2998499999994</v>
+      </c>
+      <c r="F8" s="29">
+        <v>53141.469746599993</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="23">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="1"/>
+        <v>67292.033080699999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10696.546900000001</v>
+      </c>
+      <c r="F9" s="28">
+        <v>56595.486180700005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="20">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="21">
         <v>4</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>65793.232232400012</v>
+      </c>
+      <c r="E10" s="7">
+        <v>9979.4764199999991</v>
+      </c>
+      <c r="F10" s="29">
+        <v>55813.755812400006</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="23">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
+        <v>66756.576457400006</v>
+      </c>
+      <c r="E11" s="4">
+        <v>9290.8170100000007</v>
+      </c>
+      <c r="F11" s="28">
+        <v>57465.759447400007</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="20">
+        <v>2024</v>
+      </c>
+      <c r="C12" s="21">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>64183.796049299999</v>
+      </c>
+      <c r="E12" s="7">
+        <v>9254.3675999999996</v>
+      </c>
+      <c r="F12" s="29">
+        <v>54929.428449300001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="24">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="25">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>64012.441249099997</v>
+      </c>
+      <c r="E13" s="6">
+        <v>9707.3228199999994</v>
+      </c>
+      <c r="F13" s="30">
+        <v>54305.118429099995</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="26">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="27">
+        <v>12</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="0"/>
+        <v>65636.227901699996</v>
+      </c>
+      <c r="E14" s="13">
+        <v>10457.710060000001</v>
+      </c>
+      <c r="F14" s="31">
+        <v>55178.517841699992</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="22">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="23">
+        <v>11</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>66343.772248199995</v>
+      </c>
+      <c r="E15" s="4">
+        <v>11049.623380000001</v>
+      </c>
+      <c r="F15" s="28">
+        <v>55294.148868199998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="20">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="21">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="0"/>
+        <v>74538.440707999995</v>
+      </c>
+      <c r="E16" s="7">
+        <v>11064.1852</v>
+      </c>
+      <c r="F16" s="29">
+        <v>63474.255507999995</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="22">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="23">
+        <v>9</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
+        <v>62577.191087000007</v>
+      </c>
+      <c r="E17" s="4">
+        <v>9698.2422199999983</v>
+      </c>
+      <c r="F17" s="28">
+        <v>52878.948867000006</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="20">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="21">
+        <v>8</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" si="0"/>
+        <v>67812.791455800005</v>
+      </c>
+      <c r="E18" s="7">
+        <v>10523.07332</v>
+      </c>
+      <c r="F18" s="29">
+        <v>57289.718135800002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="22">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="23">
+        <v>7</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="0"/>
+        <v>67712.269710799999</v>
+      </c>
+      <c r="E19" s="4">
+        <v>9845.1506699999991</v>
+      </c>
+      <c r="F19" s="28">
+        <v>57867.119040799997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="20">
+        <v>2023</v>
+      </c>
+      <c r="C20" s="21">
+        <v>6</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="0"/>
+        <v>66844.753326200007</v>
+      </c>
+      <c r="E20" s="7">
+        <v>10335.84496</v>
+      </c>
+      <c r="F20" s="29">
+        <v>56508.908366200005</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="22">
+        <v>2023</v>
+      </c>
+      <c r="C21" s="23">
         <v>5</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D21" s="8">
+        <f t="shared" si="0"/>
+        <v>66163.140046500004</v>
+      </c>
+      <c r="E21" s="4">
+        <v>10572.075449999998</v>
+      </c>
+      <c r="F21" s="28">
+        <v>55591.064596500008</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="20">
+        <v>2023</v>
+      </c>
+      <c r="C22" s="21">
+        <v>4</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="0"/>
+        <v>62926.446933799991</v>
+      </c>
+      <c r="E22" s="7">
+        <v>9376.9209200000005</v>
+      </c>
+      <c r="F22" s="29">
+        <v>53549.526013799994</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="22">
+        <v>2023</v>
+      </c>
+      <c r="C23" s="23">
         <v>3</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="D23" s="8">
+        <f t="shared" si="0"/>
+        <v>70380.670155799991</v>
+      </c>
+      <c r="E23" s="4">
+        <v>10595.588189999999</v>
+      </c>
+      <c r="F23" s="28">
+        <v>59785.081965799996</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="20">
+        <v>2023</v>
+      </c>
+      <c r="C24" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="20">
-        <v>45413</v>
-      </c>
-      <c r="C6" s="21">
-        <f t="shared" ref="C6:C37" si="0">SUM(D6:E6)</f>
-        <v>67283.511080700002</v>
-      </c>
-      <c r="D6" s="22">
-        <v>10696.546900000001</v>
-      </c>
-      <c r="E6" s="22">
-        <v>56586.964180700001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="9">
-        <v>45383</v>
-      </c>
-      <c r="C7" s="16">
-        <f t="shared" si="0"/>
-        <v>65793.232232400012</v>
-      </c>
-      <c r="D7" s="7">
-        <v>9979.4764199999991</v>
-      </c>
-      <c r="E7" s="7">
-        <v>55813.755812400006</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="8">
-        <v>45352</v>
-      </c>
-      <c r="C8" s="15">
-        <f t="shared" si="0"/>
-        <v>65103.433457400002</v>
-      </c>
-      <c r="D8" s="4">
-        <v>9290.8170100000007</v>
-      </c>
-      <c r="E8" s="4">
-        <v>55812.616447400003</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="9">
-        <v>45323</v>
-      </c>
-      <c r="C9" s="16">
-        <f t="shared" si="0"/>
-        <v>64183.796049299999</v>
-      </c>
-      <c r="D9" s="7">
-        <v>9254.3675999999996</v>
-      </c>
-      <c r="E9" s="7">
-        <v>54929.428449300001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="11">
-        <v>45292</v>
-      </c>
-      <c r="C10" s="17">
-        <f t="shared" si="0"/>
-        <v>64012.441249099997</v>
-      </c>
-      <c r="D10" s="6">
-        <v>9707.3228199999994</v>
-      </c>
-      <c r="E10" s="6">
-        <v>54305.118429099995</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="23">
-        <v>45261</v>
-      </c>
-      <c r="C11" s="24">
-        <f t="shared" si="0"/>
-        <v>65636.227901699996</v>
-      </c>
-      <c r="D11" s="25">
-        <v>10457.710060000001</v>
-      </c>
-      <c r="E11" s="25">
-        <v>55178.517841699992</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C12" s="15">
-        <f t="shared" si="0"/>
-        <v>66343.772248199995</v>
-      </c>
-      <c r="D12" s="4">
-        <v>11049.623380000001</v>
-      </c>
-      <c r="E12" s="4">
-        <v>55294.148868199998</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="9">
-        <v>45200</v>
-      </c>
-      <c r="C13" s="16">
-        <f t="shared" si="0"/>
-        <v>74538.440707999995</v>
-      </c>
-      <c r="D13" s="7">
-        <v>11064.1852</v>
-      </c>
-      <c r="E13" s="7">
-        <v>63474.255507999995</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="8">
-        <v>45170</v>
-      </c>
-      <c r="C14" s="15">
-        <f t="shared" si="0"/>
-        <v>62577.191087000007</v>
-      </c>
-      <c r="D14" s="4">
-        <v>9698.2422199999983</v>
-      </c>
-      <c r="E14" s="4">
-        <v>52878.948867000006</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="9">
-        <v>45139</v>
-      </c>
-      <c r="C15" s="16">
-        <f t="shared" si="0"/>
-        <v>67812.791455800005</v>
-      </c>
-      <c r="D15" s="7">
-        <v>10523.07332</v>
-      </c>
-      <c r="E15" s="7">
-        <v>57289.718135800002</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="8">
-        <v>45108</v>
-      </c>
-      <c r="C16" s="15">
-        <f t="shared" si="0"/>
-        <v>67712.269710799999</v>
-      </c>
-      <c r="D16" s="4">
-        <v>9845.1506699999991</v>
-      </c>
-      <c r="E16" s="4">
-        <v>57867.119040799997</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="9">
-        <v>45078</v>
-      </c>
-      <c r="C17" s="16">
-        <f t="shared" si="0"/>
-        <v>66844.753326200007</v>
-      </c>
-      <c r="D17" s="7">
-        <v>10335.84496</v>
-      </c>
-      <c r="E17" s="7">
-        <v>56508.908366200005</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="8">
-        <v>45047</v>
-      </c>
-      <c r="C18" s="15">
-        <f t="shared" si="0"/>
-        <v>66163.140046500004</v>
-      </c>
-      <c r="D18" s="4">
-        <v>10572.075449999998</v>
-      </c>
-      <c r="E18" s="4">
-        <v>55591.064596500008</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="9">
-        <v>45017</v>
-      </c>
-      <c r="C19" s="16">
-        <f t="shared" si="0"/>
-        <v>62926.446933799991</v>
-      </c>
-      <c r="D19" s="7">
-        <v>9376.9209200000005</v>
-      </c>
-      <c r="E19" s="7">
-        <v>53549.526013799994</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="8">
-        <v>44986</v>
-      </c>
-      <c r="C20" s="15">
-        <f t="shared" si="0"/>
-        <v>70380.670155799991</v>
-      </c>
-      <c r="D20" s="4">
-        <v>10595.588189999999</v>
-      </c>
-      <c r="E20" s="4">
-        <v>59785.081965799996</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="9">
-        <v>44958</v>
-      </c>
-      <c r="C21" s="16">
+      <c r="D24" s="9">
         <f t="shared" si="0"/>
         <v>61289.109018200004</v>
       </c>
-      <c r="D21" s="7">
+      <c r="E24" s="7">
         <v>8878.071469999999</v>
       </c>
-      <c r="E21" s="7">
+      <c r="F24" s="29">
         <v>52411.037548200002</v>
       </c>
     </row>
-    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="11">
-        <v>44927</v>
-      </c>
-      <c r="C22" s="17">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="24">
+        <v>2023</v>
+      </c>
+      <c r="C25" s="25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
         <f t="shared" si="0"/>
         <v>60647.248166599995</v>
       </c>
-      <c r="D22" s="6">
+      <c r="E25" s="6">
         <v>9596.1618600000002</v>
       </c>
-      <c r="E22" s="6">
+      <c r="F25" s="30">
         <v>51051.086306599995</v>
       </c>
     </row>
-    <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="23">
-        <v>44896</v>
-      </c>
-      <c r="C23" s="24">
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="26">
+        <v>2022</v>
+      </c>
+      <c r="C26" s="27">
+        <v>12</v>
+      </c>
+      <c r="D26" s="12">
         <f t="shared" si="0"/>
         <v>68611.389849999992</v>
       </c>
-      <c r="D23" s="25">
+      <c r="E26" s="13">
         <v>11506.01224</v>
       </c>
-      <c r="E23" s="25">
+      <c r="F26" s="31">
         <v>57105.377609999996</v>
       </c>
     </row>
-    <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="8">
-        <v>44866</v>
-      </c>
-      <c r="C24" s="15">
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="22">
+        <v>2022</v>
+      </c>
+      <c r="C27" s="23">
+        <v>11</v>
+      </c>
+      <c r="D27" s="8">
         <f t="shared" si="0"/>
         <v>68488.553597500009</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E27" s="4">
         <v>11633.829370000001</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F27" s="28">
         <v>56854.724227500003</v>
       </c>
     </row>
-    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="9">
-        <v>44835</v>
-      </c>
-      <c r="C25" s="16">
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="20">
+        <v>2022</v>
+      </c>
+      <c r="C28" s="21">
+        <v>10</v>
+      </c>
+      <c r="D28" s="9">
         <f t="shared" si="0"/>
         <v>70349.636145499986</v>
       </c>
-      <c r="D25" s="7">
+      <c r="E28" s="7">
         <v>10845.919519999999</v>
       </c>
-      <c r="E25" s="7">
+      <c r="F28" s="29">
         <v>59503.71662549999</v>
       </c>
     </row>
-    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="8">
-        <v>44805</v>
-      </c>
-      <c r="C26" s="15">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="22">
+        <v>2022</v>
+      </c>
+      <c r="C29" s="23">
+        <v>9</v>
+      </c>
+      <c r="D29" s="8">
         <f t="shared" si="0"/>
         <v>63724.643873059998</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E29" s="4">
         <v>10054.112030000002</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F29" s="28">
         <v>53670.531843059995</v>
       </c>
     </row>
-    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="9">
-        <v>44774</v>
-      </c>
-      <c r="C27" s="16">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="20">
+        <v>2022</v>
+      </c>
+      <c r="C30" s="21">
+        <v>8</v>
+      </c>
+      <c r="D30" s="9">
         <f t="shared" si="0"/>
         <v>65648.464610800016</v>
       </c>
-      <c r="D27" s="7">
+      <c r="E30" s="7">
         <v>10458.872010000001</v>
       </c>
-      <c r="E27" s="7">
+      <c r="F30" s="29">
         <v>55189.59260080001</v>
       </c>
     </row>
-    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="8">
-        <v>44743</v>
-      </c>
-      <c r="C28" s="15">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="22">
+        <v>2022</v>
+      </c>
+      <c r="C31" s="23">
+        <v>7</v>
+      </c>
+      <c r="D31" s="8">
         <f t="shared" si="0"/>
         <v>71042.030932399997</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E31" s="4">
         <v>10578.089199999999</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F31" s="28">
         <v>60463.941732400002</v>
       </c>
     </row>
-    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="9">
-        <v>44713</v>
-      </c>
-      <c r="C29" s="16">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="20">
+        <v>2022</v>
+      </c>
+      <c r="C32" s="21">
+        <v>6</v>
+      </c>
+      <c r="D32" s="9">
         <f t="shared" si="0"/>
         <v>73616.814013199997</v>
       </c>
-      <c r="D29" s="7">
+      <c r="E32" s="7">
         <v>12418.258890000001</v>
       </c>
-      <c r="E29" s="7">
+      <c r="F32" s="29">
         <v>61198.5551232</v>
       </c>
     </row>
-    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="8">
-        <v>44682</v>
-      </c>
-      <c r="C30" s="15">
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="22">
+        <v>2022</v>
+      </c>
+      <c r="C33" s="23">
+        <v>5</v>
+      </c>
+      <c r="D33" s="8">
         <f t="shared" si="0"/>
         <v>70521.7755206</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E33" s="4">
         <v>10687.704</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F33" s="28">
         <v>59834.071520599995</v>
       </c>
     </row>
-    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="9">
-        <v>44652</v>
-      </c>
-      <c r="C31" s="16">
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="20">
+        <v>2022</v>
+      </c>
+      <c r="C34" s="21">
+        <v>4</v>
+      </c>
+      <c r="D34" s="9">
         <f t="shared" si="0"/>
         <v>65395.3899361</v>
       </c>
-      <c r="D31" s="7">
+      <c r="E34" s="7">
         <v>10009.792879999999</v>
       </c>
-      <c r="E31" s="7">
+      <c r="F34" s="29">
         <v>55385.597056099999</v>
       </c>
     </row>
-    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="8">
-        <v>44621</v>
-      </c>
-      <c r="C32" s="15">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="22">
+        <v>2022</v>
+      </c>
+      <c r="C35" s="23">
+        <v>3</v>
+      </c>
+      <c r="D35" s="8">
         <f t="shared" si="0"/>
         <v>70663.687067200008</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E35" s="4">
         <v>10790.40236</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F35" s="28">
         <v>59873.284707200008</v>
       </c>
     </row>
-    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="9">
-        <v>44593</v>
-      </c>
-      <c r="C33" s="16">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="20">
+        <v>2022</v>
+      </c>
+      <c r="C36" s="21">
+        <v>2</v>
+      </c>
+      <c r="D36" s="9">
         <f t="shared" si="0"/>
         <v>62248.796398300008</v>
       </c>
-      <c r="D33" s="7">
+      <c r="E36" s="7">
         <v>9503.8195899999992</v>
       </c>
-      <c r="E33" s="7">
+      <c r="F36" s="29">
         <v>52744.976808300009</v>
       </c>
     </row>
-    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="11">
-        <v>44562</v>
-      </c>
-      <c r="C34" s="17">
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="24">
+        <v>2022</v>
+      </c>
+      <c r="C37" s="25">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10">
         <f t="shared" si="0"/>
         <v>58480.2683493</v>
       </c>
-      <c r="D34" s="6">
+      <c r="E37" s="6">
         <v>9164.2659699999986</v>
       </c>
-      <c r="E34" s="6">
+      <c r="F37" s="30">
         <v>49316.0023793</v>
       </c>
     </row>
-    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="23">
-        <v>44531</v>
-      </c>
-      <c r="C35" s="24">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="26">
+        <v>2021</v>
+      </c>
+      <c r="C38" s="27">
+        <v>12</v>
+      </c>
+      <c r="D38" s="12">
         <f t="shared" si="0"/>
         <v>71058.534132700006</v>
       </c>
-      <c r="D35" s="25">
+      <c r="E38" s="13">
         <v>11787.100349999999</v>
       </c>
-      <c r="E35" s="25">
+      <c r="F38" s="31">
         <v>59271.433782700005</v>
       </c>
     </row>
-    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="8">
-        <v>44501</v>
-      </c>
-      <c r="C36" s="15">
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="22">
+        <v>2021</v>
+      </c>
+      <c r="C39" s="23">
+        <v>11</v>
+      </c>
+      <c r="D39" s="8">
         <f t="shared" si="0"/>
         <v>70276.799918899997</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E39" s="4">
         <v>11002.488010000001</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F39" s="28">
         <v>59274.311908899996</v>
       </c>
     </row>
-    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="9">
-        <v>44470</v>
-      </c>
-      <c r="C37" s="16">
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="20">
+        <v>2021</v>
+      </c>
+      <c r="C40" s="21">
+        <v>10</v>
+      </c>
+      <c r="D40" s="9">
         <f t="shared" si="0"/>
         <v>71581.534583699991</v>
       </c>
-      <c r="D37" s="7">
+      <c r="E40" s="7">
         <v>10533.75974</v>
       </c>
-      <c r="E37" s="7">
+      <c r="F40" s="29">
         <v>61047.774843699997</v>
       </c>
     </row>
-    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="8">
-        <v>44440</v>
-      </c>
-      <c r="C38" s="15">
-        <f t="shared" ref="C38:C69" si="1">SUM(D38:E38)</f>
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="22">
+        <v>2021</v>
+      </c>
+      <c r="C41" s="23">
+        <v>9</v>
+      </c>
+      <c r="D41" s="8">
+        <f t="shared" ref="D41:D72" si="2">SUM(E41:F41)</f>
         <v>63210.818573499993</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E41" s="4">
         <v>9205.0079699999987</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F41" s="28">
         <v>54005.810603499995</v>
       </c>
     </row>
-    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="9">
-        <v>44409</v>
-      </c>
-      <c r="C39" s="16">
-        <f t="shared" si="1"/>
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="20">
+        <v>2021</v>
+      </c>
+      <c r="C42" s="21">
+        <v>8</v>
+      </c>
+      <c r="D42" s="9">
+        <f t="shared" si="2"/>
         <v>64225.819261800003</v>
       </c>
-      <c r="D39" s="7">
+      <c r="E42" s="7">
         <v>9288.4902899999997</v>
       </c>
-      <c r="E39" s="7">
+      <c r="F42" s="29">
         <v>54937.328971800001</v>
       </c>
     </row>
-    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="8">
-        <v>44378</v>
-      </c>
-      <c r="C40" s="15">
-        <f t="shared" si="1"/>
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="22">
+        <v>2021</v>
+      </c>
+      <c r="C43" s="23">
+        <v>7</v>
+      </c>
+      <c r="D43" s="8">
+        <f t="shared" si="2"/>
         <v>68599.738738</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E43" s="4">
         <v>9818.9590200000002</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F43" s="28">
         <v>58780.779718000005</v>
       </c>
     </row>
-    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="9">
-        <v>44348</v>
-      </c>
-      <c r="C41" s="16">
-        <f t="shared" si="1"/>
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="20">
+        <v>2021</v>
+      </c>
+      <c r="C44" s="21">
+        <v>6</v>
+      </c>
+      <c r="D44" s="9">
+        <f t="shared" si="2"/>
         <v>64729.816312399991</v>
       </c>
-      <c r="D41" s="7">
+      <c r="E44" s="7">
         <v>9122.9778799999985</v>
       </c>
-      <c r="E41" s="7">
+      <c r="F44" s="29">
         <v>55606.838432399993</v>
       </c>
     </row>
-    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="8">
-        <v>44317</v>
-      </c>
-      <c r="C42" s="15">
-        <f t="shared" si="1"/>
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="22">
+        <v>2021</v>
+      </c>
+      <c r="C45" s="23">
+        <v>5</v>
+      </c>
+      <c r="D45" s="8">
+        <f t="shared" si="2"/>
         <v>65852.654150000002</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E45" s="4">
         <v>8949.1877700000005</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F45" s="28">
         <v>56903.466380000005</v>
       </c>
     </row>
-    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="9">
-        <v>44287</v>
-      </c>
-      <c r="C43" s="16">
-        <f t="shared" si="1"/>
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="20">
+        <v>2021</v>
+      </c>
+      <c r="C46" s="21">
+        <v>4</v>
+      </c>
+      <c r="D46" s="9">
+        <f t="shared" si="2"/>
         <v>63906.943998099996</v>
       </c>
-      <c r="D43" s="7">
+      <c r="E46" s="7">
         <v>8684.6848300000001</v>
       </c>
-      <c r="E43" s="7">
+      <c r="F46" s="29">
         <v>55222.259168099998</v>
       </c>
     </row>
-    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="8">
-        <v>44256</v>
-      </c>
-      <c r="C44" s="15">
-        <f t="shared" si="1"/>
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="22">
+        <v>2021</v>
+      </c>
+      <c r="C47" s="23">
+        <v>3</v>
+      </c>
+      <c r="D47" s="8">
+        <f t="shared" si="2"/>
         <v>70158.308096999986</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E47" s="4">
         <v>9170.0568799999983</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F47" s="28">
         <v>60988.25121699999</v>
       </c>
     </row>
-    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="9">
-        <v>44228</v>
-      </c>
-      <c r="C45" s="16">
-        <f t="shared" si="1"/>
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="20">
+        <v>2021</v>
+      </c>
+      <c r="C48" s="21">
+        <v>2</v>
+      </c>
+      <c r="D48" s="9">
+        <f t="shared" si="2"/>
         <v>60491.315076000006</v>
       </c>
-      <c r="D45" s="7">
+      <c r="E48" s="7">
         <v>7767.4261999999999</v>
       </c>
-      <c r="E45" s="7">
+      <c r="F48" s="29">
         <v>52723.888876000005</v>
       </c>
     </row>
-    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="11">
-        <v>44197</v>
-      </c>
-      <c r="C46" s="17">
-        <f t="shared" si="1"/>
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="24">
+        <v>2021</v>
+      </c>
+      <c r="C49" s="25">
+        <v>1</v>
+      </c>
+      <c r="D49" s="10">
+        <f t="shared" si="2"/>
         <v>63725.913205999997</v>
       </c>
-      <c r="D46" s="6">
+      <c r="E49" s="6">
         <v>8464.5160599999999</v>
       </c>
-      <c r="E46" s="6">
+      <c r="F49" s="30">
         <v>55261.397145999996</v>
       </c>
     </row>
-    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="23">
-        <v>44166</v>
-      </c>
-      <c r="C47" s="24">
-        <f t="shared" si="1"/>
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="26">
+        <v>2020</v>
+      </c>
+      <c r="C50" s="27">
+        <v>12</v>
+      </c>
+      <c r="D50" s="12">
+        <f t="shared" si="2"/>
         <v>66303.668197999999</v>
       </c>
-      <c r="D47" s="25">
+      <c r="E50" s="13">
         <v>10783.384609999999</v>
       </c>
-      <c r="E47" s="25">
+      <c r="F50" s="31">
         <v>55520.283587999998</v>
       </c>
     </row>
-    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="8">
-        <v>44136</v>
-      </c>
-      <c r="C48" s="15">
-        <f t="shared" si="1"/>
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="22">
+        <v>2020</v>
+      </c>
+      <c r="C51" s="23">
+        <v>11</v>
+      </c>
+      <c r="D51" s="8">
+        <f t="shared" si="2"/>
         <v>67964.463443000001</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E51" s="4">
         <v>10277.794900000001</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F51" s="28">
         <v>57686.668543</v>
       </c>
     </row>
-    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="9">
-        <v>44105</v>
-      </c>
-      <c r="C49" s="16">
-        <f t="shared" si="1"/>
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="20">
+        <v>2020</v>
+      </c>
+      <c r="C52" s="21">
+        <v>10</v>
+      </c>
+      <c r="D52" s="9">
+        <f t="shared" si="2"/>
         <v>66309.962777399996</v>
       </c>
-      <c r="D49" s="7">
+      <c r="E52" s="7">
         <v>9671.3324499999999</v>
       </c>
-      <c r="E49" s="7">
+      <c r="F52" s="29">
         <v>56638.630327400002</v>
       </c>
     </row>
-    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="8">
-        <v>44075</v>
-      </c>
-      <c r="C50" s="15">
-        <f t="shared" si="1"/>
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="22">
+        <v>2020</v>
+      </c>
+      <c r="C53" s="23">
+        <v>9</v>
+      </c>
+      <c r="D53" s="8">
+        <f t="shared" si="2"/>
         <v>57113.372982200002</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E53" s="4">
         <v>9190.6065300000009</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F53" s="28">
         <v>47922.766452200005</v>
       </c>
     </row>
-    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="9">
-        <v>44044</v>
-      </c>
-      <c r="C51" s="16">
-        <f t="shared" si="1"/>
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="20">
+        <v>2020</v>
+      </c>
+      <c r="C54" s="21">
+        <v>8</v>
+      </c>
+      <c r="D54" s="9">
+        <f t="shared" si="2"/>
         <v>52149.208218500004</v>
       </c>
-      <c r="D51" s="7">
+      <c r="E54" s="7">
         <v>7626.2473300000001</v>
       </c>
-      <c r="E51" s="7">
+      <c r="F54" s="29">
         <v>44522.960888500005</v>
       </c>
     </row>
-    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="8">
-        <v>44013</v>
-      </c>
-      <c r="C52" s="15">
-        <f t="shared" si="1"/>
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="22">
+        <v>2020</v>
+      </c>
+      <c r="C55" s="23">
+        <v>7</v>
+      </c>
+      <c r="D55" s="8">
+        <f t="shared" si="2"/>
         <v>46691.5235245</v>
       </c>
-      <c r="D52" s="4">
+      <c r="E55" s="4">
         <v>6651.94434</v>
       </c>
-      <c r="E52" s="4">
+      <c r="F55" s="28">
         <v>40039.579184499999</v>
       </c>
     </row>
-    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="9">
-        <v>43983</v>
-      </c>
-      <c r="C53" s="16">
-        <f t="shared" si="1"/>
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="20">
+        <v>2020</v>
+      </c>
+      <c r="C56" s="21">
+        <v>6</v>
+      </c>
+      <c r="D56" s="9">
+        <f t="shared" si="2"/>
         <v>42608.422072200003</v>
       </c>
-      <c r="D53" s="7">
+      <c r="E56" s="7">
         <v>5692.9747600000001</v>
       </c>
-      <c r="E53" s="7">
+      <c r="F56" s="29">
         <v>36915.447312200005</v>
       </c>
     </row>
-    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="8">
-        <v>43952</v>
-      </c>
-      <c r="C54" s="15">
-        <f t="shared" si="1"/>
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="22">
+        <v>2020</v>
+      </c>
+      <c r="C57" s="23">
+        <v>5</v>
+      </c>
+      <c r="D57" s="8">
+        <f t="shared" si="2"/>
         <v>38705.075583899998</v>
       </c>
-      <c r="D54" s="4">
+      <c r="E57" s="4">
         <v>4788.3910099999994</v>
       </c>
-      <c r="E54" s="4">
+      <c r="F57" s="28">
         <v>33916.684573899998</v>
       </c>
     </row>
-    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="9">
-        <v>43922</v>
-      </c>
-      <c r="C55" s="16">
-        <f t="shared" si="1"/>
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="20">
+        <v>2020</v>
+      </c>
+      <c r="C58" s="21">
+        <v>4</v>
+      </c>
+      <c r="D58" s="9">
+        <f t="shared" si="2"/>
         <v>33589.608145099999</v>
       </c>
-      <c r="D55" s="7">
+      <c r="E58" s="7">
         <v>4465.3602699999992</v>
       </c>
-      <c r="E55" s="7">
+      <c r="F58" s="29">
         <v>29124.247875099998</v>
       </c>
     </row>
-    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="8">
-        <v>43891</v>
-      </c>
-      <c r="C56" s="15">
-        <f t="shared" si="1"/>
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="22">
+        <v>2020</v>
+      </c>
+      <c r="C59" s="23">
+        <v>3</v>
+      </c>
+      <c r="D59" s="8">
+        <f t="shared" si="2"/>
         <v>55854.879077099999</v>
       </c>
-      <c r="D56" s="4">
+      <c r="E59" s="4">
         <v>7632.2904900000003</v>
       </c>
-      <c r="E56" s="4">
+      <c r="F59" s="28">
         <v>48222.588587099999</v>
       </c>
     </row>
-    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="9">
-        <v>43862</v>
-      </c>
-      <c r="C57" s="16">
-        <f t="shared" si="1"/>
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="20">
+        <v>2020</v>
+      </c>
+      <c r="C60" s="21">
+        <v>2</v>
+      </c>
+      <c r="D60" s="9">
+        <f t="shared" si="2"/>
         <v>55217.324218999987</v>
       </c>
-      <c r="D57" s="7">
+      <c r="E60" s="7">
         <v>8133.2827100000004</v>
       </c>
-      <c r="E57" s="7">
+      <c r="F60" s="29">
         <v>47084.041508999988</v>
       </c>
     </row>
-    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="11">
-        <v>43831</v>
-      </c>
-      <c r="C58" s="17">
-        <f t="shared" si="1"/>
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="24">
+        <v>2020</v>
+      </c>
+      <c r="C61" s="25">
+        <v>1</v>
+      </c>
+      <c r="D61" s="10">
+        <f t="shared" si="2"/>
         <v>58590.469882999998</v>
       </c>
-      <c r="D58" s="6">
+      <c r="E61" s="6">
         <v>9265.3395099999998</v>
       </c>
-      <c r="E58" s="6">
+      <c r="F61" s="30">
         <v>49325.130373</v>
       </c>
     </row>
-    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="23">
-        <v>43800</v>
-      </c>
-      <c r="C59" s="24">
-        <f t="shared" si="1"/>
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="26">
+        <v>2019</v>
+      </c>
+      <c r="C62" s="27">
+        <v>12</v>
+      </c>
+      <c r="D62" s="12">
+        <f t="shared" si="2"/>
         <v>66261.243409000002</v>
       </c>
-      <c r="D59" s="25">
+      <c r="E62" s="13">
         <v>12436.845439999999</v>
       </c>
-      <c r="E59" s="25">
+      <c r="F62" s="31">
         <v>53824.397969000005</v>
       </c>
     </row>
-    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="8">
-        <v>43770</v>
-      </c>
-      <c r="C60" s="15">
-        <f t="shared" si="1"/>
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="22">
+        <v>2019</v>
+      </c>
+      <c r="C63" s="23">
+        <v>11</v>
+      </c>
+      <c r="D63" s="8">
+        <f t="shared" si="2"/>
         <v>68605.822660000005</v>
       </c>
-      <c r="D60" s="4">
+      <c r="E63" s="4">
         <v>13008.51885</v>
       </c>
-      <c r="E60" s="4">
+      <c r="F63" s="28">
         <v>55597.303810000005</v>
       </c>
     </row>
-    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="9">
-        <v>43739</v>
-      </c>
-      <c r="C61" s="16">
-        <f t="shared" si="1"/>
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="20">
+        <v>2019</v>
+      </c>
+      <c r="C64" s="21">
+        <v>10</v>
+      </c>
+      <c r="D64" s="9">
+        <f t="shared" si="2"/>
         <v>68729.068468999991</v>
       </c>
-      <c r="D61" s="7">
+      <c r="E64" s="7">
         <v>13397.07763</v>
       </c>
-      <c r="E61" s="7">
+      <c r="F64" s="29">
         <v>55331.990838999998</v>
       </c>
     </row>
-    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="8">
-        <v>43709</v>
-      </c>
-      <c r="C62" s="15">
-        <f t="shared" si="1"/>
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="22">
+        <v>2019</v>
+      </c>
+      <c r="C65" s="23">
+        <v>9</v>
+      </c>
+      <c r="D65" s="8">
+        <f t="shared" si="2"/>
         <v>63953.437825000008</v>
       </c>
-      <c r="D62" s="4">
+      <c r="E65" s="4">
         <v>11041.58344</v>
       </c>
-      <c r="E62" s="4">
+      <c r="F65" s="28">
         <v>52911.854385000006</v>
       </c>
     </row>
-    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="9">
-        <v>43678</v>
-      </c>
-      <c r="C63" s="16">
-        <f t="shared" si="1"/>
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="20">
+        <v>2019</v>
+      </c>
+      <c r="C66" s="21">
+        <v>8</v>
+      </c>
+      <c r="D66" s="9">
+        <f t="shared" si="2"/>
         <v>64842.325496999998</v>
       </c>
-      <c r="D63" s="7">
+      <c r="E66" s="7">
         <v>11467.57286</v>
       </c>
-      <c r="E63" s="7">
+      <c r="F66" s="29">
         <v>53374.752636999998</v>
       </c>
     </row>
-    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="8">
-        <v>43647</v>
-      </c>
-      <c r="C64" s="15">
-        <f t="shared" si="1"/>
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="22">
+        <v>2019</v>
+      </c>
+      <c r="C67" s="23">
+        <v>7</v>
+      </c>
+      <c r="D67" s="8">
+        <f t="shared" si="2"/>
         <v>65696.806677000015</v>
       </c>
-      <c r="D64" s="4">
+      <c r="E67" s="4">
         <v>11392.176509999999</v>
       </c>
-      <c r="E64" s="4">
+      <c r="F67" s="28">
         <v>54304.63016700001</v>
       </c>
     </row>
-    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="9">
-        <v>43617</v>
-      </c>
-      <c r="C65" s="16">
-        <f t="shared" si="1"/>
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="20">
+        <v>2019</v>
+      </c>
+      <c r="C68" s="21">
+        <v>6</v>
+      </c>
+      <c r="D68" s="9">
+        <f t="shared" si="2"/>
         <v>63546.111140000001</v>
       </c>
-      <c r="D65" s="7">
+      <c r="E68" s="7">
         <v>11094.79</v>
       </c>
-      <c r="E65" s="7">
+      <c r="F68" s="29">
         <v>52451.32114</v>
       </c>
     </row>
-    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="8">
-        <v>43586</v>
-      </c>
-      <c r="C66" s="15">
-        <f t="shared" si="1"/>
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="22">
+        <v>2019</v>
+      </c>
+      <c r="C69" s="23">
+        <v>5</v>
+      </c>
+      <c r="D69" s="8">
+        <f t="shared" si="2"/>
         <v>65954.178415999995</v>
       </c>
-      <c r="D66" s="4">
+      <c r="E69" s="4">
         <v>12257.484480000001</v>
       </c>
-      <c r="E66" s="4">
+      <c r="F69" s="28">
         <v>53696.693935999996</v>
       </c>
     </row>
-    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="9">
-        <v>43556</v>
-      </c>
-      <c r="C67" s="16">
-        <f t="shared" si="1"/>
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="20">
+        <v>2019</v>
+      </c>
+      <c r="C70" s="21">
+        <v>4</v>
+      </c>
+      <c r="D70" s="9">
+        <f t="shared" si="2"/>
         <v>66025.018232000002</v>
       </c>
-      <c r="D67" s="7">
+      <c r="E70" s="7">
         <v>12001.947099999999</v>
       </c>
-      <c r="E67" s="7">
+      <c r="F70" s="29">
         <v>54023.071131999997</v>
       </c>
     </row>
-    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="8">
-        <v>43525</v>
-      </c>
-      <c r="C68" s="15">
-        <f t="shared" si="1"/>
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="22">
+        <v>2019</v>
+      </c>
+      <c r="C71" s="23">
+        <v>3</v>
+      </c>
+      <c r="D71" s="8">
+        <f t="shared" si="2"/>
         <v>72963.126033400011</v>
       </c>
-      <c r="D68" s="4">
+      <c r="E71" s="4">
         <v>12358.550210000001</v>
       </c>
-      <c r="E68" s="4">
+      <c r="F71" s="28">
         <v>60604.575823400002</v>
       </c>
     </row>
-    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="9">
-        <v>43497</v>
-      </c>
-      <c r="C69" s="16">
-        <f t="shared" si="1"/>
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="20">
+        <v>2019</v>
+      </c>
+      <c r="C72" s="21">
+        <v>2</v>
+      </c>
+      <c r="D72" s="9">
+        <f t="shared" si="2"/>
         <v>62080.146124000006</v>
       </c>
-      <c r="D69" s="7">
+      <c r="E72" s="7">
         <v>11336.3799</v>
       </c>
-      <c r="E69" s="7">
+      <c r="F72" s="29">
         <v>50743.766224000006</v>
       </c>
     </row>
-    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="11">
-        <v>43466</v>
-      </c>
-      <c r="C70" s="17">
-        <f t="shared" ref="C70:C82" si="2">SUM(D70:E70)</f>
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C73" s="25">
+        <v>1</v>
+      </c>
+      <c r="D73" s="10">
+        <f t="shared" ref="D73:D85" si="3">SUM(E73:F73)</f>
         <v>66069.786819699992</v>
       </c>
-      <c r="D70" s="6">
+      <c r="E73" s="6">
         <v>13827.258220000002</v>
       </c>
-      <c r="E70" s="6">
+      <c r="F73" s="30">
         <v>52242.528599699996</v>
       </c>
     </row>
-    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="10">
-        <v>43435</v>
-      </c>
-      <c r="C71" s="16">
-        <f t="shared" si="2"/>
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C74" s="21">
+        <v>12</v>
+      </c>
+      <c r="D74" s="9">
+        <f t="shared" si="3"/>
         <v>66933.16748199999</v>
       </c>
-      <c r="D71" s="7">
+      <c r="E74" s="7">
         <v>9081.5239999999994</v>
       </c>
-      <c r="E71" s="7">
+      <c r="F74" s="29">
         <v>57851.643481999992</v>
       </c>
     </row>
-    <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="14">
-        <v>43405</v>
-      </c>
-      <c r="C72" s="15">
-        <f t="shared" si="2"/>
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="23">
+        <v>2018</v>
+      </c>
+      <c r="C75" s="23">
+        <v>11</v>
+      </c>
+      <c r="D75" s="8">
+        <f t="shared" si="3"/>
         <v>71177.636041999998</v>
       </c>
-      <c r="D72" s="4">
+      <c r="E75" s="4">
         <v>10497.208000000001</v>
       </c>
-      <c r="E72" s="4">
+      <c r="F75" s="28">
         <v>60680.428042</v>
       </c>
     </row>
-    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="10">
-        <v>43374</v>
-      </c>
-      <c r="C73" s="16">
-        <f t="shared" si="2"/>
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C76" s="21">
+        <v>10</v>
+      </c>
+      <c r="D76" s="9">
+        <f t="shared" si="3"/>
         <v>71661.010011999999</v>
       </c>
-      <c r="D73" s="7">
+      <c r="E76" s="7">
         <v>9991.6759999999995</v>
       </c>
-      <c r="E73" s="7">
+      <c r="F76" s="29">
         <v>61669.334011999999</v>
       </c>
     </row>
-    <row r="74" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="14">
-        <v>43344</v>
-      </c>
-      <c r="C74" s="15">
-        <f t="shared" si="2"/>
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="23">
+        <v>2018</v>
+      </c>
+      <c r="C77" s="23">
+        <v>9</v>
+      </c>
+      <c r="D77" s="8">
+        <f t="shared" si="3"/>
         <v>66201.479049599991</v>
       </c>
-      <c r="D74" s="4">
+      <c r="E77" s="4">
         <v>8721.2330000000002</v>
       </c>
-      <c r="E74" s="4">
+      <c r="F77" s="28">
         <v>57480.246049599999</v>
       </c>
     </row>
-    <row r="75" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="10">
-        <v>43313</v>
-      </c>
-      <c r="C75" s="16">
-        <f t="shared" si="2"/>
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C78" s="21">
+        <v>8</v>
+      </c>
+      <c r="D78" s="9">
+        <f t="shared" si="3"/>
         <v>65268.30786980001</v>
       </c>
-      <c r="D75" s="7">
+      <c r="E78" s="7">
         <v>9262.4320000000007</v>
       </c>
-      <c r="E75" s="7">
+      <c r="F78" s="29">
         <v>56005.875869800009</v>
       </c>
     </row>
-    <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="14">
-        <v>43282</v>
-      </c>
-      <c r="C76" s="15">
-        <f t="shared" si="2"/>
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="23">
+        <v>2018</v>
+      </c>
+      <c r="C79" s="23">
+        <v>7</v>
+      </c>
+      <c r="D79" s="8">
+        <f t="shared" si="3"/>
         <v>67408.03254700001</v>
       </c>
-      <c r="D76" s="4">
+      <c r="E79" s="4">
         <v>8453.6</v>
       </c>
-      <c r="E76" s="4">
+      <c r="F79" s="28">
         <v>58954.432547000004</v>
       </c>
     </row>
-    <row r="77" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="10">
-        <v>43252</v>
-      </c>
-      <c r="C77" s="16">
-        <f t="shared" si="2"/>
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C80" s="21">
+        <v>6</v>
+      </c>
+      <c r="D80" s="9">
+        <f t="shared" si="3"/>
         <v>69001.484601999997</v>
       </c>
-      <c r="D77" s="7">
+      <c r="E80" s="7">
         <v>9016.5510999999988</v>
       </c>
-      <c r="E77" s="7">
+      <c r="F80" s="29">
         <v>59984.933502</v>
       </c>
     </row>
-    <row r="78" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="14">
-        <v>43221</v>
-      </c>
-      <c r="C78" s="15">
-        <f t="shared" si="2"/>
+    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="23">
+        <v>2018</v>
+      </c>
+      <c r="C81" s="23">
+        <v>5</v>
+      </c>
+      <c r="D81" s="8">
+        <f t="shared" si="3"/>
         <v>68248.467610000007</v>
       </c>
-      <c r="D78" s="4">
+      <c r="E81" s="4">
         <v>9692.3696600000003</v>
       </c>
-      <c r="E78" s="4">
+      <c r="F81" s="28">
         <v>58556.097950000003</v>
       </c>
     </row>
-    <row r="79" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="10">
-        <v>43191</v>
-      </c>
-      <c r="C79" s="16">
-        <f t="shared" si="2"/>
+    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C82" s="21">
+        <v>4</v>
+      </c>
+      <c r="D82" s="9">
+        <f t="shared" si="3"/>
         <v>71464.309095000004</v>
       </c>
-      <c r="D79" s="7">
+      <c r="E82" s="7">
         <v>9137.2187800000011</v>
       </c>
-      <c r="E79" s="7">
+      <c r="F82" s="29">
         <v>62327.090315000009</v>
       </c>
     </row>
-    <row r="80" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="14">
-        <v>43160</v>
-      </c>
-      <c r="C80" s="15">
-        <f t="shared" si="2"/>
+    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="23">
+        <v>2018</v>
+      </c>
+      <c r="C83" s="23">
+        <v>3</v>
+      </c>
+      <c r="D83" s="8">
+        <f t="shared" si="3"/>
         <v>72436.418714999993</v>
       </c>
-      <c r="D80" s="4">
+      <c r="E83" s="4">
         <v>9317.3212800000019</v>
       </c>
-      <c r="E80" s="4">
+      <c r="F83" s="28">
         <v>63119.097434999989</v>
       </c>
     </row>
-    <row r="81" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="10">
-        <v>43132</v>
-      </c>
-      <c r="C81" s="16">
-        <f t="shared" si="2"/>
+    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C84" s="21">
+        <v>2</v>
+      </c>
+      <c r="D84" s="9">
+        <f t="shared" si="3"/>
         <v>60034.670899299999</v>
       </c>
-      <c r="D81" s="7">
+      <c r="E84" s="7">
         <v>8005.7809000000007</v>
       </c>
-      <c r="E81" s="7">
+      <c r="F84" s="29">
         <v>52028.889999300001</v>
       </c>
     </row>
-    <row r="82" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="14">
-        <v>43101</v>
-      </c>
-      <c r="C82" s="15">
-        <f t="shared" si="2"/>
+    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="23">
+        <v>2018</v>
+      </c>
+      <c r="C85" s="23">
+        <v>1</v>
+      </c>
+      <c r="D85" s="8">
+        <f t="shared" si="3"/>
         <v>59958.963042999996</v>
       </c>
-      <c r="D82" s="4">
+      <c r="E85" s="4">
         <v>8140.3959999999997</v>
       </c>
-      <c r="E82" s="4">
+      <c r="F85" s="28">
         <v>51818.567042999995</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B83" t="s">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="E84" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="E85" s="3" t="s">
-        <v>1</v>
-      </c>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F88" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Carga_Total_N_Aero.xlsx
+++ b/Carga_Total_N_Aero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB246803-7C4F-4ABB-A657-1C1FA35590CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0014A176-8398-4D84-9314-2D426AE851D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="22">
   <si>
     <t>Internacional</t>
   </si>
@@ -66,6 +66,42 @@
   </si>
   <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
   </si>
 </sst>
 </file>
@@ -264,7 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -298,15 +334,6 @@
     <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -332,9 +359,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -376,6 +410,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -383,12 +423,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -444,7 +478,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F85" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F85" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="B5:F85" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
@@ -720,11 +754,11 @@
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
@@ -744,11 +778,11 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>2024</v>
       </c>
-      <c r="C6" s="21">
-        <v>8</v>
+      <c r="C6" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ref="D6:D40" si="0">SUM(E6:F6)</f>
@@ -757,16 +791,16 @@
       <c r="E6" s="7">
         <v>10656.19658</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="7">
         <v>54753.639298399998</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="22">
+      <c r="B7" s="19">
         <v>2024</v>
       </c>
-      <c r="C7" s="23">
-        <v>7</v>
+      <c r="C7" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" ref="D7:D9" si="1">SUM(E7:F7)</f>
@@ -775,16 +809,16 @@
       <c r="E7" s="4">
         <v>10090.788336240001</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="25">
         <v>55160.734789399998</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>2024</v>
       </c>
-      <c r="C8" s="21">
-        <v>6</v>
+      <c r="C8" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="1"/>
@@ -793,16 +827,16 @@
       <c r="E8" s="7">
         <v>9471.2998499999994</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="7">
         <v>53141.469746599993</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="22">
+      <c r="B9" s="19">
         <v>2024</v>
       </c>
-      <c r="C9" s="23">
-        <v>5</v>
+      <c r="C9" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="1"/>
@@ -811,16 +845,16 @@
       <c r="E9" s="4">
         <v>10696.546900000001</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="25">
         <v>56595.486180700005</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>2024</v>
       </c>
-      <c r="C10" s="21">
-        <v>4</v>
+      <c r="C10" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -829,16 +863,16 @@
       <c r="E10" s="7">
         <v>9979.4764199999991</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="7">
         <v>55813.755812400006</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="22">
+      <c r="B11" s="19">
         <v>2024</v>
       </c>
-      <c r="C11" s="23">
-        <v>3</v>
+      <c r="C11" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="0"/>
@@ -847,16 +881,16 @@
       <c r="E11" s="4">
         <v>9290.8170100000007</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="25">
         <v>57465.759447400007</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>2024</v>
       </c>
-      <c r="C12" s="21">
-        <v>2</v>
+      <c r="C12" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -865,16 +899,16 @@
       <c r="E12" s="7">
         <v>9254.3675999999996</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="7">
         <v>54929.428449300001</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="24">
+      <c r="B13" s="21">
         <v>2024</v>
       </c>
-      <c r="C13" s="25">
-        <v>1</v>
+      <c r="C13" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="0"/>
@@ -883,16 +917,16 @@
       <c r="E13" s="6">
         <v>9707.3228199999994</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="26">
         <v>54305.118429099995</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="26">
+      <c r="B14" s="23">
         <v>2023</v>
       </c>
-      <c r="C14" s="27">
-        <v>12</v>
+      <c r="C14" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
@@ -901,16 +935,16 @@
       <c r="E14" s="13">
         <v>10457.710060000001</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="13">
         <v>55178.517841699992</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="22">
+      <c r="B15" s="19">
         <v>2023</v>
       </c>
-      <c r="C15" s="23">
-        <v>11</v>
+      <c r="C15" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="0"/>
@@ -919,16 +953,16 @@
       <c r="E15" s="4">
         <v>11049.623380000001</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="25">
         <v>55294.148868199998</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="20">
+      <c r="B16" s="17">
         <v>2023</v>
       </c>
-      <c r="C16" s="21">
-        <v>10</v>
+      <c r="C16" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" si="0"/>
@@ -937,16 +971,16 @@
       <c r="E16" s="7">
         <v>11064.1852</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="7">
         <v>63474.255507999995</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="22">
+      <c r="B17" s="19">
         <v>2023</v>
       </c>
-      <c r="C17" s="23">
-        <v>9</v>
+      <c r="C17" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="0"/>
@@ -955,16 +989,16 @@
       <c r="E17" s="4">
         <v>9698.2422199999983</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="25">
         <v>52878.948867000006</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="20">
+      <c r="B18" s="17">
         <v>2023</v>
       </c>
-      <c r="C18" s="21">
-        <v>8</v>
+      <c r="C18" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" si="0"/>
@@ -973,16 +1007,16 @@
       <c r="E18" s="7">
         <v>10523.07332</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="7">
         <v>57289.718135800002</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="22">
+      <c r="B19" s="19">
         <v>2023</v>
       </c>
-      <c r="C19" s="23">
-        <v>7</v>
+      <c r="C19" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="0"/>
@@ -991,16 +1025,16 @@
       <c r="E19" s="4">
         <v>9845.1506699999991</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="25">
         <v>57867.119040799997</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="20">
+      <c r="B20" s="17">
         <v>2023</v>
       </c>
-      <c r="C20" s="21">
-        <v>6</v>
+      <c r="C20" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" si="0"/>
@@ -1009,16 +1043,16 @@
       <c r="E20" s="7">
         <v>10335.84496</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="7">
         <v>56508.908366200005</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="22">
+      <c r="B21" s="19">
         <v>2023</v>
       </c>
-      <c r="C21" s="23">
-        <v>5</v>
+      <c r="C21" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="0"/>
@@ -1027,16 +1061,16 @@
       <c r="E21" s="4">
         <v>10572.075449999998</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="25">
         <v>55591.064596500008</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="20">
+      <c r="B22" s="17">
         <v>2023</v>
       </c>
-      <c r="C22" s="21">
-        <v>4</v>
+      <c r="C22" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" si="0"/>
@@ -1045,16 +1079,16 @@
       <c r="E22" s="7">
         <v>9376.9209200000005</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="7">
         <v>53549.526013799994</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="22">
+      <c r="B23" s="19">
         <v>2023</v>
       </c>
-      <c r="C23" s="23">
-        <v>3</v>
+      <c r="C23" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" si="0"/>
@@ -1063,16 +1097,16 @@
       <c r="E23" s="4">
         <v>10595.588189999999</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="25">
         <v>59785.081965799996</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="20">
+      <c r="B24" s="17">
         <v>2023</v>
       </c>
-      <c r="C24" s="21">
-        <v>2</v>
+      <c r="C24" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" si="0"/>
@@ -1081,16 +1115,16 @@
       <c r="E24" s="7">
         <v>8878.071469999999</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="7">
         <v>52411.037548200002</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="24">
+      <c r="B25" s="21">
         <v>2023</v>
       </c>
-      <c r="C25" s="25">
-        <v>1</v>
+      <c r="C25" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
@@ -1099,16 +1133,16 @@
       <c r="E25" s="6">
         <v>9596.1618600000002</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="26">
         <v>51051.086306599995</v>
       </c>
     </row>
     <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="26">
+      <c r="B26" s="23">
         <v>2022</v>
       </c>
-      <c r="C26" s="27">
-        <v>12</v>
+      <c r="C26" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="D26" s="12">
         <f t="shared" si="0"/>
@@ -1117,16 +1151,16 @@
       <c r="E26" s="13">
         <v>11506.01224</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="13">
         <v>57105.377609999996</v>
       </c>
     </row>
     <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="22">
+      <c r="B27" s="19">
         <v>2022</v>
       </c>
-      <c r="C27" s="23">
-        <v>11</v>
+      <c r="C27" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D27" s="8">
         <f t="shared" si="0"/>
@@ -1135,16 +1169,16 @@
       <c r="E27" s="4">
         <v>11633.829370000001</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="25">
         <v>56854.724227500003</v>
       </c>
     </row>
     <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="20">
+      <c r="B28" s="17">
         <v>2022</v>
       </c>
-      <c r="C28" s="21">
-        <v>10</v>
+      <c r="C28" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" si="0"/>
@@ -1153,16 +1187,16 @@
       <c r="E28" s="7">
         <v>10845.919519999999</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="7">
         <v>59503.71662549999</v>
       </c>
     </row>
     <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="22">
+      <c r="B29" s="19">
         <v>2022</v>
       </c>
-      <c r="C29" s="23">
-        <v>9</v>
+      <c r="C29" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="D29" s="8">
         <f t="shared" si="0"/>
@@ -1171,16 +1205,16 @@
       <c r="E29" s="4">
         <v>10054.112030000002</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="25">
         <v>53670.531843059995</v>
       </c>
     </row>
     <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="20">
+      <c r="B30" s="17">
         <v>2022</v>
       </c>
-      <c r="C30" s="21">
-        <v>8</v>
+      <c r="C30" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" si="0"/>
@@ -1189,16 +1223,16 @@
       <c r="E30" s="7">
         <v>10458.872010000001</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="7">
         <v>55189.59260080001</v>
       </c>
     </row>
     <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="22">
+      <c r="B31" s="19">
         <v>2022</v>
       </c>
-      <c r="C31" s="23">
-        <v>7</v>
+      <c r="C31" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="D31" s="8">
         <f t="shared" si="0"/>
@@ -1207,16 +1241,16 @@
       <c r="E31" s="4">
         <v>10578.089199999999</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="25">
         <v>60463.941732400002</v>
       </c>
     </row>
     <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="20">
+      <c r="B32" s="17">
         <v>2022</v>
       </c>
-      <c r="C32" s="21">
-        <v>6</v>
+      <c r="C32" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" si="0"/>
@@ -1225,16 +1259,16 @@
       <c r="E32" s="7">
         <v>12418.258890000001</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="7">
         <v>61198.5551232</v>
       </c>
     </row>
     <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="22">
+      <c r="B33" s="19">
         <v>2022</v>
       </c>
-      <c r="C33" s="23">
-        <v>5</v>
+      <c r="C33" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" si="0"/>
@@ -1243,16 +1277,16 @@
       <c r="E33" s="4">
         <v>10687.704</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="25">
         <v>59834.071520599995</v>
       </c>
     </row>
     <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="20">
+      <c r="B34" s="17">
         <v>2022</v>
       </c>
-      <c r="C34" s="21">
-        <v>4</v>
+      <c r="C34" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D34" s="9">
         <f t="shared" si="0"/>
@@ -1261,16 +1295,16 @@
       <c r="E34" s="7">
         <v>10009.792879999999</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="7">
         <v>55385.597056099999</v>
       </c>
     </row>
     <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="22">
+      <c r="B35" s="19">
         <v>2022</v>
       </c>
-      <c r="C35" s="23">
-        <v>3</v>
+      <c r="C35" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="D35" s="8">
         <f t="shared" si="0"/>
@@ -1279,16 +1313,16 @@
       <c r="E35" s="4">
         <v>10790.40236</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="25">
         <v>59873.284707200008</v>
       </c>
     </row>
     <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="20">
+      <c r="B36" s="17">
         <v>2022</v>
       </c>
-      <c r="C36" s="21">
-        <v>2</v>
+      <c r="C36" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" si="0"/>
@@ -1297,16 +1331,16 @@
       <c r="E36" s="7">
         <v>9503.8195899999992</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="7">
         <v>52744.976808300009</v>
       </c>
     </row>
     <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="24">
+      <c r="B37" s="21">
         <v>2022</v>
       </c>
-      <c r="C37" s="25">
-        <v>1</v>
+      <c r="C37" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="D37" s="10">
         <f t="shared" si="0"/>
@@ -1315,16 +1349,16 @@
       <c r="E37" s="6">
         <v>9164.2659699999986</v>
       </c>
-      <c r="F37" s="30">
+      <c r="F37" s="26">
         <v>49316.0023793</v>
       </c>
     </row>
     <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="26">
+      <c r="B38" s="23">
         <v>2021</v>
       </c>
-      <c r="C38" s="27">
-        <v>12</v>
+      <c r="C38" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="D38" s="12">
         <f t="shared" si="0"/>
@@ -1333,16 +1367,16 @@
       <c r="E38" s="13">
         <v>11787.100349999999</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="13">
         <v>59271.433782700005</v>
       </c>
     </row>
     <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="22">
+      <c r="B39" s="19">
         <v>2021</v>
       </c>
-      <c r="C39" s="23">
-        <v>11</v>
+      <c r="C39" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="0"/>
@@ -1351,16 +1385,16 @@
       <c r="E39" s="4">
         <v>11002.488010000001</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="25">
         <v>59274.311908899996</v>
       </c>
     </row>
     <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="20">
+      <c r="B40" s="17">
         <v>2021</v>
       </c>
-      <c r="C40" s="21">
-        <v>10</v>
+      <c r="C40" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" si="0"/>
@@ -1369,16 +1403,16 @@
       <c r="E40" s="7">
         <v>10533.75974</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F40" s="7">
         <v>61047.774843699997</v>
       </c>
     </row>
     <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="22">
+      <c r="B41" s="19">
         <v>2021</v>
       </c>
-      <c r="C41" s="23">
-        <v>9</v>
+      <c r="C41" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="D41" s="8">
         <f t="shared" ref="D41:D72" si="2">SUM(E41:F41)</f>
@@ -1387,16 +1421,16 @@
       <c r="E41" s="4">
         <v>9205.0079699999987</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="25">
         <v>54005.810603499995</v>
       </c>
     </row>
     <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="20">
+      <c r="B42" s="17">
         <v>2021</v>
       </c>
-      <c r="C42" s="21">
-        <v>8</v>
+      <c r="C42" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" si="2"/>
@@ -1405,16 +1439,16 @@
       <c r="E42" s="7">
         <v>9288.4902899999997</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F42" s="7">
         <v>54937.328971800001</v>
       </c>
     </row>
     <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="22">
+      <c r="B43" s="19">
         <v>2021</v>
       </c>
-      <c r="C43" s="23">
-        <v>7</v>
+      <c r="C43" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="D43" s="8">
         <f t="shared" si="2"/>
@@ -1423,16 +1457,16 @@
       <c r="E43" s="4">
         <v>9818.9590200000002</v>
       </c>
-      <c r="F43" s="28">
+      <c r="F43" s="25">
         <v>58780.779718000005</v>
       </c>
     </row>
     <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="20">
+      <c r="B44" s="17">
         <v>2021</v>
       </c>
-      <c r="C44" s="21">
-        <v>6</v>
+      <c r="C44" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" si="2"/>
@@ -1441,16 +1475,16 @@
       <c r="E44" s="7">
         <v>9122.9778799999985</v>
       </c>
-      <c r="F44" s="29">
+      <c r="F44" s="7">
         <v>55606.838432399993</v>
       </c>
     </row>
     <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="22">
+      <c r="B45" s="19">
         <v>2021</v>
       </c>
-      <c r="C45" s="23">
-        <v>5</v>
+      <c r="C45" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="D45" s="8">
         <f t="shared" si="2"/>
@@ -1459,16 +1493,16 @@
       <c r="E45" s="4">
         <v>8949.1877700000005</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="25">
         <v>56903.466380000005</v>
       </c>
     </row>
     <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="20">
+      <c r="B46" s="17">
         <v>2021</v>
       </c>
-      <c r="C46" s="21">
-        <v>4</v>
+      <c r="C46" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D46" s="9">
         <f t="shared" si="2"/>
@@ -1477,16 +1511,16 @@
       <c r="E46" s="7">
         <v>8684.6848300000001</v>
       </c>
-      <c r="F46" s="29">
+      <c r="F46" s="7">
         <v>55222.259168099998</v>
       </c>
     </row>
     <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="22">
+      <c r="B47" s="19">
         <v>2021</v>
       </c>
-      <c r="C47" s="23">
-        <v>3</v>
+      <c r="C47" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="D47" s="8">
         <f t="shared" si="2"/>
@@ -1495,16 +1529,16 @@
       <c r="E47" s="4">
         <v>9170.0568799999983</v>
       </c>
-      <c r="F47" s="28">
+      <c r="F47" s="25">
         <v>60988.25121699999</v>
       </c>
     </row>
     <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="20">
+      <c r="B48" s="17">
         <v>2021</v>
       </c>
-      <c r="C48" s="21">
-        <v>2</v>
+      <c r="C48" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D48" s="9">
         <f t="shared" si="2"/>
@@ -1513,16 +1547,16 @@
       <c r="E48" s="7">
         <v>7767.4261999999999</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F48" s="7">
         <v>52723.888876000005</v>
       </c>
     </row>
     <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="24">
+      <c r="B49" s="21">
         <v>2021</v>
       </c>
-      <c r="C49" s="25">
-        <v>1</v>
+      <c r="C49" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="D49" s="10">
         <f t="shared" si="2"/>
@@ -1531,16 +1565,16 @@
       <c r="E49" s="6">
         <v>8464.5160599999999</v>
       </c>
-      <c r="F49" s="30">
+      <c r="F49" s="26">
         <v>55261.397145999996</v>
       </c>
     </row>
     <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="26">
+      <c r="B50" s="23">
         <v>2020</v>
       </c>
-      <c r="C50" s="27">
-        <v>12</v>
+      <c r="C50" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="D50" s="12">
         <f t="shared" si="2"/>
@@ -1549,16 +1583,16 @@
       <c r="E50" s="13">
         <v>10783.384609999999</v>
       </c>
-      <c r="F50" s="31">
+      <c r="F50" s="13">
         <v>55520.283587999998</v>
       </c>
     </row>
     <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="22">
+      <c r="B51" s="19">
         <v>2020</v>
       </c>
-      <c r="C51" s="23">
-        <v>11</v>
+      <c r="C51" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D51" s="8">
         <f t="shared" si="2"/>
@@ -1567,16 +1601,16 @@
       <c r="E51" s="4">
         <v>10277.794900000001</v>
       </c>
-      <c r="F51" s="28">
+      <c r="F51" s="25">
         <v>57686.668543</v>
       </c>
     </row>
     <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="20">
+      <c r="B52" s="17">
         <v>2020</v>
       </c>
-      <c r="C52" s="21">
-        <v>10</v>
+      <c r="C52" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D52" s="9">
         <f t="shared" si="2"/>
@@ -1585,16 +1619,16 @@
       <c r="E52" s="7">
         <v>9671.3324499999999</v>
       </c>
-      <c r="F52" s="29">
+      <c r="F52" s="7">
         <v>56638.630327400002</v>
       </c>
     </row>
     <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="22">
+      <c r="B53" s="19">
         <v>2020</v>
       </c>
-      <c r="C53" s="23">
-        <v>9</v>
+      <c r="C53" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="D53" s="8">
         <f t="shared" si="2"/>
@@ -1603,16 +1637,16 @@
       <c r="E53" s="4">
         <v>9190.6065300000009</v>
       </c>
-      <c r="F53" s="28">
+      <c r="F53" s="25">
         <v>47922.766452200005</v>
       </c>
     </row>
     <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="20">
+      <c r="B54" s="17">
         <v>2020</v>
       </c>
-      <c r="C54" s="21">
-        <v>8</v>
+      <c r="C54" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D54" s="9">
         <f t="shared" si="2"/>
@@ -1621,16 +1655,16 @@
       <c r="E54" s="7">
         <v>7626.2473300000001</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F54" s="7">
         <v>44522.960888500005</v>
       </c>
     </row>
     <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="22">
+      <c r="B55" s="19">
         <v>2020</v>
       </c>
-      <c r="C55" s="23">
-        <v>7</v>
+      <c r="C55" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="D55" s="8">
         <f t="shared" si="2"/>
@@ -1639,16 +1673,16 @@
       <c r="E55" s="4">
         <v>6651.94434</v>
       </c>
-      <c r="F55" s="28">
+      <c r="F55" s="25">
         <v>40039.579184499999</v>
       </c>
     </row>
     <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="20">
+      <c r="B56" s="17">
         <v>2020</v>
       </c>
-      <c r="C56" s="21">
-        <v>6</v>
+      <c r="C56" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="D56" s="9">
         <f t="shared" si="2"/>
@@ -1657,16 +1691,16 @@
       <c r="E56" s="7">
         <v>5692.9747600000001</v>
       </c>
-      <c r="F56" s="29">
+      <c r="F56" s="7">
         <v>36915.447312200005</v>
       </c>
     </row>
     <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="22">
+      <c r="B57" s="19">
         <v>2020</v>
       </c>
-      <c r="C57" s="23">
-        <v>5</v>
+      <c r="C57" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="D57" s="8">
         <f t="shared" si="2"/>
@@ -1675,16 +1709,16 @@
       <c r="E57" s="4">
         <v>4788.3910099999994</v>
       </c>
-      <c r="F57" s="28">
+      <c r="F57" s="25">
         <v>33916.684573899998</v>
       </c>
     </row>
     <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="20">
+      <c r="B58" s="17">
         <v>2020</v>
       </c>
-      <c r="C58" s="21">
-        <v>4</v>
+      <c r="C58" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D58" s="9">
         <f t="shared" si="2"/>
@@ -1693,16 +1727,16 @@
       <c r="E58" s="7">
         <v>4465.3602699999992</v>
       </c>
-      <c r="F58" s="29">
+      <c r="F58" s="7">
         <v>29124.247875099998</v>
       </c>
     </row>
     <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="22">
+      <c r="B59" s="19">
         <v>2020</v>
       </c>
-      <c r="C59" s="23">
-        <v>3</v>
+      <c r="C59" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="D59" s="8">
         <f t="shared" si="2"/>
@@ -1711,16 +1745,16 @@
       <c r="E59" s="4">
         <v>7632.2904900000003</v>
       </c>
-      <c r="F59" s="28">
+      <c r="F59" s="25">
         <v>48222.588587099999</v>
       </c>
     </row>
     <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="20">
+      <c r="B60" s="17">
         <v>2020</v>
       </c>
-      <c r="C60" s="21">
-        <v>2</v>
+      <c r="C60" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D60" s="9">
         <f t="shared" si="2"/>
@@ -1729,16 +1763,16 @@
       <c r="E60" s="7">
         <v>8133.2827100000004</v>
       </c>
-      <c r="F60" s="29">
+      <c r="F60" s="7">
         <v>47084.041508999988</v>
       </c>
     </row>
     <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="24">
+      <c r="B61" s="21">
         <v>2020</v>
       </c>
-      <c r="C61" s="25">
-        <v>1</v>
+      <c r="C61" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="D61" s="10">
         <f t="shared" si="2"/>
@@ -1747,16 +1781,16 @@
       <c r="E61" s="6">
         <v>9265.3395099999998</v>
       </c>
-      <c r="F61" s="30">
+      <c r="F61" s="26">
         <v>49325.130373</v>
       </c>
     </row>
     <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="26">
+      <c r="B62" s="23">
         <v>2019</v>
       </c>
-      <c r="C62" s="27">
-        <v>12</v>
+      <c r="C62" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="D62" s="12">
         <f t="shared" si="2"/>
@@ -1765,16 +1799,16 @@
       <c r="E62" s="13">
         <v>12436.845439999999</v>
       </c>
-      <c r="F62" s="31">
+      <c r="F62" s="13">
         <v>53824.397969000005</v>
       </c>
     </row>
     <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="22">
+      <c r="B63" s="19">
         <v>2019</v>
       </c>
-      <c r="C63" s="23">
-        <v>11</v>
+      <c r="C63" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D63" s="8">
         <f t="shared" si="2"/>
@@ -1783,16 +1817,16 @@
       <c r="E63" s="4">
         <v>13008.51885</v>
       </c>
-      <c r="F63" s="28">
+      <c r="F63" s="25">
         <v>55597.303810000005</v>
       </c>
     </row>
     <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="20">
+      <c r="B64" s="17">
         <v>2019</v>
       </c>
-      <c r="C64" s="21">
-        <v>10</v>
+      <c r="C64" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D64" s="9">
         <f t="shared" si="2"/>
@@ -1801,16 +1835,16 @@
       <c r="E64" s="7">
         <v>13397.07763</v>
       </c>
-      <c r="F64" s="29">
+      <c r="F64" s="7">
         <v>55331.990838999998</v>
       </c>
     </row>
     <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="22">
+      <c r="B65" s="19">
         <v>2019</v>
       </c>
-      <c r="C65" s="23">
-        <v>9</v>
+      <c r="C65" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="D65" s="8">
         <f t="shared" si="2"/>
@@ -1819,16 +1853,16 @@
       <c r="E65" s="4">
         <v>11041.58344</v>
       </c>
-      <c r="F65" s="28">
+      <c r="F65" s="25">
         <v>52911.854385000006</v>
       </c>
     </row>
     <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="20">
+      <c r="B66" s="17">
         <v>2019</v>
       </c>
-      <c r="C66" s="21">
-        <v>8</v>
+      <c r="C66" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D66" s="9">
         <f t="shared" si="2"/>
@@ -1837,16 +1871,16 @@
       <c r="E66" s="7">
         <v>11467.57286</v>
       </c>
-      <c r="F66" s="29">
+      <c r="F66" s="7">
         <v>53374.752636999998</v>
       </c>
     </row>
     <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="22">
+      <c r="B67" s="19">
         <v>2019</v>
       </c>
-      <c r="C67" s="23">
-        <v>7</v>
+      <c r="C67" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="D67" s="8">
         <f t="shared" si="2"/>
@@ -1855,16 +1889,16 @@
       <c r="E67" s="4">
         <v>11392.176509999999</v>
       </c>
-      <c r="F67" s="28">
+      <c r="F67" s="25">
         <v>54304.63016700001</v>
       </c>
     </row>
     <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="20">
+      <c r="B68" s="17">
         <v>2019</v>
       </c>
-      <c r="C68" s="21">
-        <v>6</v>
+      <c r="C68" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" si="2"/>
@@ -1873,16 +1907,16 @@
       <c r="E68" s="7">
         <v>11094.79</v>
       </c>
-      <c r="F68" s="29">
+      <c r="F68" s="7">
         <v>52451.32114</v>
       </c>
     </row>
     <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="22">
+      <c r="B69" s="19">
         <v>2019</v>
       </c>
-      <c r="C69" s="23">
-        <v>5</v>
+      <c r="C69" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="D69" s="8">
         <f t="shared" si="2"/>
@@ -1891,16 +1925,16 @@
       <c r="E69" s="4">
         <v>12257.484480000001</v>
       </c>
-      <c r="F69" s="28">
+      <c r="F69" s="25">
         <v>53696.693935999996</v>
       </c>
     </row>
     <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="20">
+      <c r="B70" s="17">
         <v>2019</v>
       </c>
-      <c r="C70" s="21">
-        <v>4</v>
+      <c r="C70" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D70" s="9">
         <f t="shared" si="2"/>
@@ -1909,16 +1943,16 @@
       <c r="E70" s="7">
         <v>12001.947099999999</v>
       </c>
-      <c r="F70" s="29">
+      <c r="F70" s="7">
         <v>54023.071131999997</v>
       </c>
     </row>
     <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="22">
+      <c r="B71" s="19">
         <v>2019</v>
       </c>
-      <c r="C71" s="23">
-        <v>3</v>
+      <c r="C71" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="D71" s="8">
         <f t="shared" si="2"/>
@@ -1927,16 +1961,16 @@
       <c r="E71" s="4">
         <v>12358.550210000001</v>
       </c>
-      <c r="F71" s="28">
+      <c r="F71" s="25">
         <v>60604.575823400002</v>
       </c>
     </row>
     <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="20">
+      <c r="B72" s="17">
         <v>2019</v>
       </c>
-      <c r="C72" s="21">
-        <v>2</v>
+      <c r="C72" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D72" s="9">
         <f t="shared" si="2"/>
@@ -1945,16 +1979,16 @@
       <c r="E72" s="7">
         <v>11336.3799</v>
       </c>
-      <c r="F72" s="29">
+      <c r="F72" s="7">
         <v>50743.766224000006</v>
       </c>
     </row>
     <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="24">
+      <c r="B73" s="21">
         <v>2019</v>
       </c>
-      <c r="C73" s="25">
-        <v>1</v>
+      <c r="C73" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="D73" s="10">
         <f t="shared" ref="D73:D85" si="3">SUM(E73:F73)</f>
@@ -1963,16 +1997,16 @@
       <c r="E73" s="6">
         <v>13827.258220000002</v>
       </c>
-      <c r="F73" s="30">
+      <c r="F73" s="26">
         <v>52242.528599699996</v>
       </c>
     </row>
     <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="21">
+      <c r="B74" s="18">
         <v>2018</v>
       </c>
-      <c r="C74" s="21">
-        <v>12</v>
+      <c r="C74" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D74" s="9">
         <f t="shared" si="3"/>
@@ -1981,16 +2015,16 @@
       <c r="E74" s="7">
         <v>9081.5239999999994</v>
       </c>
-      <c r="F74" s="29">
+      <c r="F74" s="7">
         <v>57851.643481999992</v>
       </c>
     </row>
     <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="23">
+      <c r="B75" s="20">
         <v>2018</v>
       </c>
-      <c r="C75" s="23">
-        <v>11</v>
+      <c r="C75" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D75" s="8">
         <f t="shared" si="3"/>
@@ -1999,16 +2033,16 @@
       <c r="E75" s="4">
         <v>10497.208000000001</v>
       </c>
-      <c r="F75" s="28">
+      <c r="F75" s="25">
         <v>60680.428042</v>
       </c>
     </row>
     <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="21">
+      <c r="B76" s="18">
         <v>2018</v>
       </c>
-      <c r="C76" s="21">
-        <v>10</v>
+      <c r="C76" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D76" s="9">
         <f t="shared" si="3"/>
@@ -2017,16 +2051,16 @@
       <c r="E76" s="7">
         <v>9991.6759999999995</v>
       </c>
-      <c r="F76" s="29">
+      <c r="F76" s="7">
         <v>61669.334011999999</v>
       </c>
     </row>
     <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="23">
+      <c r="B77" s="20">
         <v>2018</v>
       </c>
-      <c r="C77" s="23">
-        <v>9</v>
+      <c r="C77" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="D77" s="8">
         <f t="shared" si="3"/>
@@ -2035,16 +2069,16 @@
       <c r="E77" s="4">
         <v>8721.2330000000002</v>
       </c>
-      <c r="F77" s="28">
+      <c r="F77" s="25">
         <v>57480.246049599999</v>
       </c>
     </row>
     <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="21">
+      <c r="B78" s="18">
         <v>2018</v>
       </c>
-      <c r="C78" s="21">
-        <v>8</v>
+      <c r="C78" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D78" s="9">
         <f t="shared" si="3"/>
@@ -2053,16 +2087,16 @@
       <c r="E78" s="7">
         <v>9262.4320000000007</v>
       </c>
-      <c r="F78" s="29">
+      <c r="F78" s="7">
         <v>56005.875869800009</v>
       </c>
     </row>
     <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="23">
+      <c r="B79" s="20">
         <v>2018</v>
       </c>
-      <c r="C79" s="23">
-        <v>7</v>
+      <c r="C79" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="D79" s="8">
         <f t="shared" si="3"/>
@@ -2071,16 +2105,16 @@
       <c r="E79" s="4">
         <v>8453.6</v>
       </c>
-      <c r="F79" s="28">
+      <c r="F79" s="25">
         <v>58954.432547000004</v>
       </c>
     </row>
     <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="21">
+      <c r="B80" s="18">
         <v>2018</v>
       </c>
-      <c r="C80" s="21">
-        <v>6</v>
+      <c r="C80" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" si="3"/>
@@ -2089,16 +2123,16 @@
       <c r="E80" s="7">
         <v>9016.5510999999988</v>
       </c>
-      <c r="F80" s="29">
+      <c r="F80" s="7">
         <v>59984.933502</v>
       </c>
     </row>
     <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="23">
+      <c r="B81" s="20">
         <v>2018</v>
       </c>
-      <c r="C81" s="23">
-        <v>5</v>
+      <c r="C81" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="D81" s="8">
         <f t="shared" si="3"/>
@@ -2107,16 +2141,16 @@
       <c r="E81" s="4">
         <v>9692.3696600000003</v>
       </c>
-      <c r="F81" s="28">
+      <c r="F81" s="25">
         <v>58556.097950000003</v>
       </c>
     </row>
     <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="21">
+      <c r="B82" s="18">
         <v>2018</v>
       </c>
-      <c r="C82" s="21">
-        <v>4</v>
+      <c r="C82" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D82" s="9">
         <f t="shared" si="3"/>
@@ -2125,16 +2159,16 @@
       <c r="E82" s="7">
         <v>9137.2187800000011</v>
       </c>
-      <c r="F82" s="29">
+      <c r="F82" s="7">
         <v>62327.090315000009</v>
       </c>
     </row>
     <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="23">
+      <c r="B83" s="20">
         <v>2018</v>
       </c>
-      <c r="C83" s="23">
-        <v>3</v>
+      <c r="C83" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="D83" s="8">
         <f t="shared" si="3"/>
@@ -2143,16 +2177,16 @@
       <c r="E83" s="4">
         <v>9317.3212800000019</v>
       </c>
-      <c r="F83" s="28">
+      <c r="F83" s="25">
         <v>63119.097434999989</v>
       </c>
     </row>
     <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="21">
+      <c r="B84" s="18">
         <v>2018</v>
       </c>
-      <c r="C84" s="21">
-        <v>2</v>
+      <c r="C84" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D84" s="9">
         <f t="shared" si="3"/>
@@ -2161,16 +2195,16 @@
       <c r="E84" s="7">
         <v>8005.7809000000007</v>
       </c>
-      <c r="F84" s="29">
+      <c r="F84" s="7">
         <v>52028.889999300001</v>
       </c>
     </row>
     <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="23">
+      <c r="B85" s="20">
         <v>2018</v>
       </c>
-      <c r="C85" s="23">
-        <v>1</v>
+      <c r="C85" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D85" s="8">
         <f t="shared" si="3"/>
@@ -2179,7 +2213,7 @@
       <c r="E85" s="4">
         <v>8140.3959999999997</v>
       </c>
-      <c r="F85" s="28">
+      <c r="F85" s="25">
         <v>51818.567042999995</v>
       </c>
     </row>

--- a/Carga_Total_N_Aero.xlsx
+++ b/Carga_Total_N_Aero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734CF21C-D5D1-4418-80B4-77F407F3F692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5B6AC8-E919-4199-B443-DFA132CD26FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_30.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="22">
   <si>
     <t>Internacional</t>
   </si>
@@ -101,7 +101,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: septiembre 2024.</t>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -115,40 +115,40 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -156,7 +156,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -395,7 +395,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -441,7 +441,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -478,8 +478,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F86" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B5:F86" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F87" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B5:F87" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -503,7 +503,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -511,28 +511,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -541,14 +541,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -723,35 +723,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:F89"/>
+  <dimension ref="B1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.19921875" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="6.25" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="27" t="s">
@@ -760,7 +761,7 @@
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
@@ -777,1476 +778,1494 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="19">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="17">
         <v>2024</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" ref="D6" si="0">SUM(E6:F6)</f>
+        <v>67764.796745800006</v>
+      </c>
+      <c r="E6" s="7">
+        <v>11457.6875</v>
+      </c>
+      <c r="F6" s="7">
+        <v>56307.109245799998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="19">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8">
-        <f>SUM(E6:F6)</f>
-        <v>62183.567542399993</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D7" s="8">
+        <f>SUM(E7:F7)</f>
+        <v>60656.284715400005</v>
+      </c>
+      <c r="E7" s="4">
         <v>9752.9897600000004</v>
       </c>
-      <c r="F6" s="25">
-        <v>52430.577782399989</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="17">
+      <c r="F7" s="25">
+        <v>50903.294955400001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="17">
         <v>2024</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9">
-        <f t="shared" ref="D7:D41" si="0">SUM(E7:F7)</f>
+      <c r="D8" s="9">
+        <f t="shared" ref="D8:D42" si="1">SUM(E8:F8)</f>
         <v>65409.835878400001</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="7">
         <v>10656.19658</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F8" s="7">
         <v>54753.639298399998</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="19">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="19">
         <v>2024</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8">
-        <f t="shared" ref="D8:D10" si="1">SUM(E8:F8)</f>
+      <c r="D9" s="8">
+        <f t="shared" ref="D9:D11" si="2">SUM(E9:F9)</f>
         <v>65251.52312564</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <v>10090.788336240001</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F9" s="25">
         <v>55160.734789399998</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="17">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="17">
         <v>2024</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="9">
-        <f t="shared" si="1"/>
+      <c r="D10" s="9">
+        <f t="shared" si="2"/>
         <v>62612.769596599988</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="7">
         <v>9471.2998499999994</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="7">
         <v>53141.469746599993</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="19">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="19">
         <v>2024</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="8">
-        <f t="shared" si="1"/>
+      <c r="D11" s="8">
+        <f t="shared" si="2"/>
         <v>67292.033080699999</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <v>10696.546900000001</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F11" s="25">
         <v>56595.486180700005</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="17">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="17">
         <v>2024</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="9">
-        <f t="shared" si="0"/>
+      <c r="D12" s="9">
+        <f t="shared" si="1"/>
         <v>65793.232232400012</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E12" s="7">
         <v>9979.4764199999991</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F12" s="7">
         <v>55813.755812400006</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="19">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="19">
         <v>2024</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="8">
-        <f t="shared" si="0"/>
+      <c r="D13" s="8">
+        <f t="shared" si="1"/>
         <v>66756.576457400006</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="4">
         <v>9290.8170100000007</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F13" s="25">
         <v>57465.759447400007</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="17">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="17">
         <v>2024</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="9">
-        <f t="shared" si="0"/>
+      <c r="D14" s="9">
+        <f t="shared" si="1"/>
         <v>64183.796049299999</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
         <v>9254.3675999999996</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="7">
         <v>54929.428449300001</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="21">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="21">
         <v>2024</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="10">
-        <f t="shared" si="0"/>
+      <c r="D15" s="10">
+        <f t="shared" si="1"/>
         <v>64012.441249099997</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <v>9707.3228199999994</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F15" s="26">
         <v>54305.118429099995</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="23">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="23">
         <v>2023</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="12">
-        <f t="shared" si="0"/>
+      <c r="D16" s="12">
+        <f t="shared" si="1"/>
         <v>65636.227901699996</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>10457.710060000001</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>55178.517841699992</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="19">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="19">
         <v>2023</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="8">
-        <f t="shared" si="0"/>
+      <c r="D17" s="8">
+        <f t="shared" si="1"/>
         <v>66343.772248199995</v>
       </c>
-      <c r="E16" s="4">
-        <v>11049.623380000001</v>
-      </c>
-      <c r="F16" s="25">
+      <c r="E17" s="4">
+        <v>11049.623379999999</v>
+      </c>
+      <c r="F17" s="25">
         <v>55294.148868199998</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="17">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="17">
         <v>2023</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="9">
-        <f t="shared" si="0"/>
+      <c r="D18" s="9">
+        <f t="shared" si="1"/>
         <v>74538.440707999995</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E18" s="7">
         <v>11064.1852</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F18" s="7">
         <v>63474.255507999995</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="19">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="19">
         <v>2023</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C19" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="8">
-        <f t="shared" si="0"/>
+      <c r="D19" s="8">
+        <f t="shared" si="1"/>
         <v>62577.191087000007</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="4">
         <v>9698.2422199999983</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F19" s="25">
         <v>52878.948867000006</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="17">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="17">
         <v>2023</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C20" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="9">
-        <f t="shared" si="0"/>
+      <c r="D20" s="9">
+        <f t="shared" si="1"/>
         <v>67812.791455800005</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E20" s="7">
         <v>10523.07332</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F20" s="7">
         <v>57289.718135800002</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="19">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="19">
         <v>2023</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C21" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="8">
-        <f t="shared" si="0"/>
+      <c r="D21" s="8">
+        <f t="shared" si="1"/>
         <v>67712.269710799999</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <v>9845.1506699999991</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F21" s="25">
         <v>57867.119040799997</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="17">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="17">
         <v>2023</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="9">
-        <f t="shared" si="0"/>
+      <c r="D22" s="9">
+        <f t="shared" si="1"/>
         <v>66844.753326200007</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E22" s="7">
         <v>10335.84496</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F22" s="7">
         <v>56508.908366200005</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="19">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="19">
         <v>2023</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C23" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="8">
-        <f t="shared" si="0"/>
+      <c r="D23" s="8">
+        <f t="shared" si="1"/>
         <v>66163.140046500004</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4">
         <v>10572.075449999998</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F23" s="25">
         <v>55591.064596500008</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="17">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="17">
         <v>2023</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C24" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="9">
-        <f t="shared" si="0"/>
+      <c r="D24" s="9">
+        <f t="shared" si="1"/>
         <v>62926.446933799991</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E24" s="7">
         <v>9376.9209200000005</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F24" s="7">
         <v>53549.526013799994</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="19">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="19">
         <v>2023</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="8">
-        <f t="shared" si="0"/>
+      <c r="D25" s="8">
+        <f t="shared" si="1"/>
         <v>70380.670155799991</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="4">
         <v>10595.588189999999</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F25" s="25">
         <v>59785.081965799996</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="17">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="17">
         <v>2023</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C26" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="9">
-        <f t="shared" si="0"/>
+      <c r="D26" s="9">
+        <f t="shared" si="1"/>
         <v>61289.109018200004</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E26" s="7">
         <v>8878.071469999999</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F26" s="7">
         <v>52411.037548200002</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="21">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="21">
         <v>2023</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C27" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="10">
-        <f t="shared" si="0"/>
+      <c r="D27" s="10">
+        <f t="shared" si="1"/>
         <v>60647.248166599995</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E27" s="6">
         <v>9596.1618600000002</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F27" s="26">
         <v>51051.086306599995</v>
       </c>
     </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="23">
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="23">
         <v>2022</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="12">
-        <f t="shared" si="0"/>
+      <c r="D28" s="12">
+        <f t="shared" si="1"/>
         <v>68611.389849999992</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>11506.01224</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>57105.377609999996</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="19">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="19">
         <v>2022</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="8">
-        <f t="shared" si="0"/>
+      <c r="D29" s="8">
+        <f t="shared" si="1"/>
         <v>68488.553597500009</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E29" s="4">
         <v>11633.829370000001</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F29" s="25">
         <v>56854.724227500003</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="17">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="17">
         <v>2022</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C30" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="9">
-        <f t="shared" si="0"/>
+      <c r="D30" s="9">
+        <f t="shared" si="1"/>
         <v>70349.636145499986</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E30" s="7">
         <v>10845.919519999999</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F30" s="7">
         <v>59503.71662549999</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="19">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19">
         <v>2022</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C31" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="8">
-        <f t="shared" si="0"/>
+      <c r="D31" s="8">
+        <f t="shared" si="1"/>
         <v>63724.643873059998</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E31" s="4">
         <v>10054.112030000002</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F31" s="25">
         <v>53670.531843059995</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="17">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="17">
         <v>2022</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C32" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="9">
-        <f t="shared" si="0"/>
+      <c r="D32" s="9">
+        <f t="shared" si="1"/>
         <v>65648.464610800016</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E32" s="7">
         <v>10458.872010000001</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F32" s="7">
         <v>55189.59260080001</v>
       </c>
     </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="19">
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="19">
         <v>2022</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C33" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="8">
-        <f t="shared" si="0"/>
+      <c r="D33" s="8">
+        <f t="shared" si="1"/>
         <v>71042.030932399997</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E33" s="4">
         <v>10578.089199999999</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F33" s="25">
         <v>60463.941732400002</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="17">
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="17">
         <v>2022</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C34" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="9">
-        <f t="shared" si="0"/>
+      <c r="D34" s="9">
+        <f t="shared" si="1"/>
         <v>73616.814013199997</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E34" s="7">
         <v>12418.258890000001</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F34" s="7">
         <v>61198.5551232</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="19">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="19">
         <v>2022</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C35" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="8">
-        <f t="shared" si="0"/>
+      <c r="D35" s="8">
+        <f t="shared" si="1"/>
         <v>70521.7755206</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E35" s="4">
         <v>10687.704</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F35" s="25">
         <v>59834.071520599995</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="17">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="17">
         <v>2022</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C36" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="9">
-        <f t="shared" si="0"/>
+      <c r="D36" s="9">
+        <f t="shared" si="1"/>
         <v>65395.3899361</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E36" s="7">
         <v>10009.792879999999</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F36" s="7">
         <v>55385.597056099999</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="19">
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="19">
         <v>2022</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C37" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="8">
-        <f t="shared" si="0"/>
+      <c r="D37" s="8">
+        <f t="shared" si="1"/>
         <v>70663.687067200008</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E37" s="4">
         <v>10790.40236</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F37" s="25">
         <v>59873.284707200008</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="17">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="17">
         <v>2022</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C38" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="9">
-        <f t="shared" si="0"/>
+      <c r="D38" s="9">
+        <f t="shared" si="1"/>
         <v>62248.796398300008</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E38" s="7">
         <v>9503.8195899999992</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F38" s="7">
         <v>52744.976808300009</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="21">
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="21">
         <v>2022</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C39" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="10">
-        <f t="shared" si="0"/>
+      <c r="D39" s="10">
+        <f t="shared" si="1"/>
         <v>58480.2683493</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E39" s="6">
         <v>9164.2659699999986</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F39" s="26">
         <v>49316.0023793</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="23">
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="23">
         <v>2021</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C40" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="12">
-        <f t="shared" si="0"/>
+      <c r="D40" s="12">
+        <f t="shared" si="1"/>
         <v>71058.534132700006</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>11787.100349999999</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>59271.433782700005</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="19">
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="19">
         <v>2021</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C41" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="8">
-        <f t="shared" si="0"/>
+      <c r="D41" s="8">
+        <f t="shared" si="1"/>
         <v>70276.799918899997</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E41" s="4">
         <v>11002.488010000001</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F41" s="25">
         <v>59274.311908899996</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="17">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="17">
         <v>2021</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C42" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="9">
-        <f t="shared" si="0"/>
+      <c r="D42" s="9">
+        <f t="shared" si="1"/>
         <v>71581.534583699991</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E42" s="7">
         <v>10533.75974</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F42" s="7">
         <v>61047.774843699997</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="19">
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="19">
         <v>2021</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C43" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="8">
-        <f t="shared" ref="D42:D73" si="2">SUM(E42:F42)</f>
+      <c r="D43" s="8">
+        <f t="shared" ref="D43:D74" si="3">SUM(E43:F43)</f>
         <v>63210.818573499993</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E43" s="4">
         <v>9205.0079699999987</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F43" s="25">
         <v>54005.810603499995</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="17">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="17">
         <v>2021</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C44" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="9">
-        <f t="shared" si="2"/>
+      <c r="D44" s="9">
+        <f t="shared" si="3"/>
         <v>64225.819261800003</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E44" s="7">
         <v>9288.4902899999997</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F44" s="7">
         <v>54937.328971800001</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="19">
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="19">
         <v>2021</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C45" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="8">
-        <f t="shared" si="2"/>
+      <c r="D45" s="8">
+        <f t="shared" si="3"/>
         <v>68599.738738</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E45" s="4">
         <v>9818.9590200000002</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F45" s="25">
         <v>58780.779718000005</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="17">
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="17">
         <v>2021</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C46" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="9">
-        <f t="shared" si="2"/>
+      <c r="D46" s="9">
+        <f t="shared" si="3"/>
         <v>64729.816312399991</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E46" s="7">
         <v>9122.9778799999985</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F46" s="7">
         <v>55606.838432399993</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="19">
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="19">
         <v>2021</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C47" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="8">
-        <f t="shared" si="2"/>
+      <c r="D47" s="8">
+        <f t="shared" si="3"/>
         <v>65852.654150000002</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E47" s="4">
         <v>8949.1877700000005</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F47" s="25">
         <v>56903.466380000005</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="17">
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="17">
         <v>2021</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C48" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="9">
-        <f t="shared" si="2"/>
+      <c r="D48" s="9">
+        <f t="shared" si="3"/>
         <v>63906.943998099996</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E48" s="7">
         <v>8684.6848300000001</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F48" s="7">
         <v>55222.259168099998</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="19">
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="19">
         <v>2021</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C49" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="8">
-        <f t="shared" si="2"/>
+      <c r="D49" s="8">
+        <f t="shared" si="3"/>
         <v>70158.308096999986</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E49" s="4">
         <v>9170.0568799999983</v>
       </c>
-      <c r="F48" s="25">
+      <c r="F49" s="25">
         <v>60988.25121699999</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="17">
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="17">
         <v>2021</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C50" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="9">
-        <f t="shared" si="2"/>
+      <c r="D50" s="9">
+        <f t="shared" si="3"/>
         <v>60491.315076000006</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E50" s="7">
         <v>7767.4261999999999</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F50" s="7">
         <v>52723.888876000005</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="21">
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="21">
         <v>2021</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C51" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="10">
-        <f t="shared" si="2"/>
+      <c r="D51" s="10">
+        <f t="shared" si="3"/>
         <v>63725.913205999997</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E51" s="6">
         <v>8464.5160599999999</v>
       </c>
-      <c r="F50" s="26">
+      <c r="F51" s="26">
         <v>55261.397145999996</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="23">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="23">
         <v>2020</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C52" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="12">
-        <f t="shared" si="2"/>
+      <c r="D52" s="12">
+        <f t="shared" si="3"/>
         <v>66303.668197999999</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>10783.384609999999</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>55520.283587999998</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="19">
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="19">
         <v>2020</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C53" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="8">
-        <f t="shared" si="2"/>
+      <c r="D53" s="8">
+        <f t="shared" si="3"/>
         <v>67964.463443000001</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E53" s="4">
         <v>10277.794900000001</v>
       </c>
-      <c r="F52" s="25">
+      <c r="F53" s="25">
         <v>57686.668543</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="17">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="17">
         <v>2020</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C54" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="9">
-        <f t="shared" si="2"/>
+      <c r="D54" s="9">
+        <f t="shared" si="3"/>
         <v>66309.962777399996</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E54" s="7">
         <v>9671.3324499999999</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F54" s="7">
         <v>56638.630327400002</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="19">
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="19">
         <v>2020</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C55" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="8">
-        <f t="shared" si="2"/>
+      <c r="D55" s="8">
+        <f t="shared" si="3"/>
         <v>57113.372982200002</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E55" s="4">
         <v>9190.6065300000009</v>
       </c>
-      <c r="F54" s="25">
+      <c r="F55" s="25">
         <v>47922.766452200005</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="17">
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="17">
         <v>2020</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C56" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="9">
-        <f t="shared" si="2"/>
+      <c r="D56" s="9">
+        <f t="shared" si="3"/>
         <v>52149.208218500004</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E56" s="7">
         <v>7626.2473300000001</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F56" s="7">
         <v>44522.960888500005</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="19">
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="19">
         <v>2020</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C57" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="8">
-        <f t="shared" si="2"/>
+      <c r="D57" s="8">
+        <f t="shared" si="3"/>
         <v>46691.5235245</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E57" s="4">
         <v>6651.94434</v>
       </c>
-      <c r="F56" s="25">
+      <c r="F57" s="25">
         <v>40039.579184499999</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="17">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="17">
         <v>2020</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C58" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="9">
-        <f t="shared" si="2"/>
+      <c r="D58" s="9">
+        <f t="shared" si="3"/>
         <v>42608.422072200003</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E58" s="7">
         <v>5692.9747600000001</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F58" s="7">
         <v>36915.447312200005</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="19">
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="19">
         <v>2020</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C59" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="8">
-        <f t="shared" si="2"/>
+      <c r="D59" s="8">
+        <f t="shared" si="3"/>
         <v>38705.075583899998</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E59" s="4">
         <v>4788.3910099999994</v>
       </c>
-      <c r="F58" s="25">
+      <c r="F59" s="25">
         <v>33916.684573899998</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="17">
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="17">
         <v>2020</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C60" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="9">
-        <f t="shared" si="2"/>
+      <c r="D60" s="9">
+        <f t="shared" si="3"/>
         <v>33589.608145099999</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E60" s="7">
         <v>4465.3602699999992</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F60" s="7">
         <v>29124.247875099998</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="19">
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="19">
         <v>2020</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C61" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="8">
-        <f t="shared" si="2"/>
+      <c r="D61" s="8">
+        <f t="shared" si="3"/>
         <v>55854.879077099999</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E61" s="4">
         <v>7632.2904900000003</v>
       </c>
-      <c r="F60" s="25">
+      <c r="F61" s="25">
         <v>48222.588587099999</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="17">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="17">
         <v>2020</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C62" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="9">
-        <f t="shared" si="2"/>
+      <c r="D62" s="9">
+        <f t="shared" si="3"/>
         <v>55217.324218999987</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E62" s="7">
         <v>8133.2827100000004</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F62" s="7">
         <v>47084.041508999988</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="21">
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="21">
         <v>2020</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C63" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="10">
-        <f t="shared" si="2"/>
+      <c r="D63" s="10">
+        <f t="shared" si="3"/>
         <v>58590.469882999998</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E63" s="6">
         <v>9265.3395099999998</v>
       </c>
-      <c r="F62" s="26">
+      <c r="F63" s="26">
         <v>49325.130373</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="23">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="23">
         <v>2019</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C64" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="12">
-        <f t="shared" si="2"/>
+      <c r="D64" s="12">
+        <f t="shared" si="3"/>
         <v>66261.243409000002</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="13">
         <v>12436.845439999999</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>53824.397969000005</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="19">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="19">
         <v>2019</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C65" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="8">
-        <f t="shared" si="2"/>
+      <c r="D65" s="8">
+        <f t="shared" si="3"/>
         <v>68605.822660000005</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E65" s="4">
         <v>13008.51885</v>
       </c>
-      <c r="F64" s="25">
+      <c r="F65" s="25">
         <v>55597.303810000005</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="17">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="17">
         <v>2019</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C66" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="9">
-        <f t="shared" si="2"/>
+      <c r="D66" s="9">
+        <f t="shared" si="3"/>
         <v>68729.068468999991</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E66" s="7">
         <v>13397.07763</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F66" s="7">
         <v>55331.990838999998</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="19">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="19">
         <v>2019</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C67" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="8">
-        <f t="shared" si="2"/>
+      <c r="D67" s="8">
+        <f t="shared" si="3"/>
         <v>63953.437825000008</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E67" s="4">
         <v>11041.58344</v>
       </c>
-      <c r="F66" s="25">
+      <c r="F67" s="25">
         <v>52911.854385000006</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="17">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="17">
         <v>2019</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C68" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="9">
-        <f t="shared" si="2"/>
+      <c r="D68" s="9">
+        <f t="shared" si="3"/>
         <v>64842.325496999998</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E68" s="7">
         <v>11467.57286</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F68" s="7">
         <v>53374.752636999998</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="19">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="19">
         <v>2019</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C69" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="8">
-        <f t="shared" si="2"/>
+      <c r="D69" s="8">
+        <f t="shared" si="3"/>
         <v>65696.806677000015</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E69" s="4">
         <v>11392.176509999999</v>
       </c>
-      <c r="F68" s="25">
+      <c r="F69" s="25">
         <v>54304.63016700001</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="17">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="17">
         <v>2019</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C70" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="9">
-        <f t="shared" si="2"/>
+      <c r="D70" s="9">
+        <f t="shared" si="3"/>
         <v>63546.111140000001</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E70" s="7">
         <v>11094.79</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F70" s="7">
         <v>52451.32114</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="19">
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="19">
         <v>2019</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C71" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="8">
-        <f t="shared" si="2"/>
+      <c r="D71" s="8">
+        <f t="shared" si="3"/>
         <v>65954.178415999995</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E71" s="4">
         <v>12257.484480000001</v>
       </c>
-      <c r="F70" s="25">
+      <c r="F71" s="25">
         <v>53696.693935999996</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="17">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="17">
         <v>2019</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C72" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="9">
-        <f t="shared" si="2"/>
+      <c r="D72" s="9">
+        <f t="shared" si="3"/>
         <v>66025.018232000002</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E72" s="7">
         <v>12001.947099999999</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F72" s="7">
         <v>54023.071131999997</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="19">
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="19">
         <v>2019</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C73" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="8">
-        <f t="shared" si="2"/>
+      <c r="D73" s="8">
+        <f t="shared" si="3"/>
         <v>72963.126033400011</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E73" s="4">
         <v>12358.550210000001</v>
       </c>
-      <c r="F72" s="25">
+      <c r="F73" s="25">
         <v>60604.575823400002</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="17">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="17">
         <v>2019</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C74" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="9">
-        <f t="shared" si="2"/>
+      <c r="D74" s="9">
+        <f t="shared" si="3"/>
         <v>62080.146124000006</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E74" s="7">
         <v>11336.3799</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F74" s="7">
         <v>50743.766224000006</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="21">
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="21">
         <v>2019</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C75" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="10">
-        <f t="shared" ref="D74:D86" si="3">SUM(E74:F74)</f>
+      <c r="D75" s="10">
+        <f t="shared" ref="D75:D87" si="4">SUM(E75:F75)</f>
         <v>66069.786819699992</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E75" s="6">
         <v>13827.258220000002</v>
       </c>
-      <c r="F74" s="26">
+      <c r="F75" s="26">
         <v>52242.528599699996</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="18">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="18">
         <v>2018</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C76" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="9">
-        <f t="shared" si="3"/>
+      <c r="D76" s="9">
+        <f t="shared" si="4"/>
         <v>66933.16748199999</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E76" s="7">
         <v>9081.5239999999994</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F76" s="7">
         <v>57851.643481999992</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="20">
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="20">
         <v>2018</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C77" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="8">
-        <f t="shared" si="3"/>
+      <c r="D77" s="8">
+        <f t="shared" si="4"/>
         <v>71177.636041999998</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E77" s="4">
         <v>10497.208000000001</v>
       </c>
-      <c r="F76" s="25">
+      <c r="F77" s="25">
         <v>60680.428042</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="18">
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="18">
         <v>2018</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C78" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="9">
-        <f t="shared" si="3"/>
+      <c r="D78" s="9">
+        <f t="shared" si="4"/>
         <v>71661.010011999999</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E78" s="7">
         <v>9991.6759999999995</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F78" s="7">
         <v>61669.334011999999</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="20">
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="20">
         <v>2018</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C79" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="8">
-        <f t="shared" si="3"/>
+      <c r="D79" s="8">
+        <f t="shared" si="4"/>
         <v>66201.479049599991</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E79" s="4">
         <v>8721.2330000000002</v>
       </c>
-      <c r="F78" s="25">
+      <c r="F79" s="25">
         <v>57480.246049599999</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="18">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="18">
         <v>2018</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C80" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="9">
-        <f t="shared" si="3"/>
+      <c r="D80" s="9">
+        <f t="shared" si="4"/>
         <v>65268.30786980001</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E80" s="7">
         <v>9262.4320000000007</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F80" s="7">
         <v>56005.875869800009</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="20">
+    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="20">
         <v>2018</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C81" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="8">
-        <f t="shared" si="3"/>
+      <c r="D81" s="8">
+        <f t="shared" si="4"/>
         <v>67408.03254700001</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E81" s="4">
         <v>8453.6</v>
       </c>
-      <c r="F80" s="25">
+      <c r="F81" s="25">
         <v>58954.432547000004</v>
       </c>
     </row>
-    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="18">
+    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="18">
         <v>2018</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C82" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="9">
-        <f t="shared" si="3"/>
+      <c r="D82" s="9">
+        <f t="shared" si="4"/>
         <v>69001.484601999997</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E82" s="7">
         <v>9016.5510999999988</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F82" s="7">
         <v>59984.933502</v>
       </c>
     </row>
-    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="20">
+    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="20">
         <v>2018</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C83" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="8">
-        <f t="shared" si="3"/>
+      <c r="D83" s="8">
+        <f t="shared" si="4"/>
         <v>68248.467610000007</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E83" s="4">
         <v>9692.3696600000003</v>
       </c>
-      <c r="F82" s="25">
+      <c r="F83" s="25">
         <v>58556.097950000003</v>
       </c>
     </row>
-    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="18">
+    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="18">
         <v>2018</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C84" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="9">
-        <f t="shared" si="3"/>
+      <c r="D84" s="9">
+        <f t="shared" si="4"/>
         <v>71464.309095000004</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E84" s="7">
         <v>9137.2187800000011</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F84" s="7">
         <v>62327.090315000009</v>
       </c>
     </row>
-    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="20">
+    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="20">
         <v>2018</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C85" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="8">
-        <f t="shared" si="3"/>
+      <c r="D85" s="8">
+        <f t="shared" si="4"/>
         <v>72436.418714999993</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E85" s="4">
         <v>9317.3212800000019</v>
       </c>
-      <c r="F84" s="25">
+      <c r="F85" s="25">
         <v>63119.097434999989</v>
       </c>
     </row>
-    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="18">
+    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="18">
         <v>2018</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C86" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="9">
-        <f t="shared" si="3"/>
+      <c r="D86" s="9">
+        <f t="shared" si="4"/>
         <v>60034.670899299999</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E86" s="7">
         <v>8005.7809000000007</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F86" s="7">
         <v>52028.889999300001</v>
       </c>
     </row>
-    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="20">
+    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="20">
         <v>2018</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C87" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D86" s="8">
-        <f t="shared" si="3"/>
+      <c r="D87" s="8">
+        <f t="shared" si="4"/>
         <v>59958.963042999996</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E87" s="4">
         <v>8140.3959999999997</v>
       </c>
-      <c r="F86" s="25">
+      <c r="F87" s="25">
         <v>51818.567042999995</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B87" t="s">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="F89" s="3"/>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Carga_Total_N_Aero.xlsx
+++ b/Carga_Total_N_Aero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5B6AC8-E919-4199-B443-DFA132CD26FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00A2798-5D58-426B-974D-9FDC4282BC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_30.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="22">
   <si>
     <t>Internacional</t>
   </si>
@@ -101,7 +101,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Noviembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -120,19 +120,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
@@ -147,17 +134,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -298,33 +301,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -334,52 +336,126 @@
     <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
@@ -395,16 +471,40 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Geomanist"/>
-        <scheme val="minor"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -428,42 +528,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Geomanist"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -478,23 +542,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F87" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B5:F87" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F88" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="B5:F88" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
         <filter val="2024"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{C7241031-7544-447E-877A-D3F17F3B37E4}" name="Mes" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{C7241031-7544-447E-877A-D3F17F3B37E4}" name="Mes" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="4">
       <calculatedColumnFormula>SUM(E6:F6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Nacional" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Internacional" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Nacional" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Internacional" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -723,1555 +786,1574 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B1:F90"/>
+  <dimension ref="B1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="6.25" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="27" t="s">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="17">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="12">
         <v>2024</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="14">
+        <f>SUM(E6:F6)</f>
+        <v>66458.242704000004</v>
+      </c>
+      <c r="E6" s="15">
+        <v>11494.17107</v>
+      </c>
+      <c r="F6" s="16">
+        <v>54964.071634</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9">
-        <f t="shared" ref="D6" si="0">SUM(E6:F6)</f>
+      <c r="D7" s="19">
+        <f t="shared" ref="D7" si="0">SUM(E7:F7)</f>
         <v>67764.796745800006</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="20">
         <v>11457.6875</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F7" s="20">
         <v>56307.109245799998</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="19">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="12">
         <v>2024</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8">
-        <f>SUM(E7:F7)</f>
+      <c r="D8" s="14">
+        <f>SUM(E8:F8)</f>
         <v>60656.284715400005</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="15">
         <v>9752.9897600000004</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F8" s="16">
         <v>50903.294955400001</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="17">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="17">
         <v>2024</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="9">
-        <f t="shared" ref="D8:D42" si="1">SUM(E8:F8)</f>
+      <c r="D9" s="19">
+        <f t="shared" ref="D9:D43" si="1">SUM(E9:F9)</f>
         <v>65409.835878400001</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="20">
         <v>10656.19658</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="20">
         <v>54753.639298399998</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="19">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8">
-        <f t="shared" ref="D9:D11" si="2">SUM(E9:F9)</f>
+      <c r="D10" s="14">
+        <f t="shared" ref="D10:D12" si="2">SUM(E10:F10)</f>
         <v>65251.52312564</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="15">
         <v>10090.788336240001</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F10" s="16">
         <v>55160.734789399998</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="17">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="17">
         <v>2024</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="19">
         <f t="shared" si="2"/>
         <v>62612.769596599988</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="20">
         <v>9471.2998499999994</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F11" s="20">
         <v>53141.469746599993</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="19">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="12">
         <v>2024</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="14">
         <f t="shared" si="2"/>
         <v>67292.033080699999</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="15">
         <v>10696.546900000001</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F12" s="16">
         <v>56595.486180700005</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="17">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="17">
         <v>2024</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="19">
         <f t="shared" si="1"/>
         <v>65793.232232400012</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="20">
         <v>9979.4764199999991</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="20">
         <v>55813.755812400006</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="19">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="14">
         <f t="shared" si="1"/>
         <v>66756.576457400006</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="15">
         <v>9290.8170100000007</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F14" s="16">
         <v>57465.759447400007</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="17">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="17">
         <v>2024</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="19">
         <f t="shared" si="1"/>
         <v>64183.796049299999</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="20">
         <v>9254.3675999999996</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="20">
         <v>54929.428449300001</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="21">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="21">
         <v>2024</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D16" s="23">
         <f t="shared" si="1"/>
         <v>64012.441249099997</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="24">
         <v>9707.3228199999994</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F16" s="25">
         <v>54305.118429099995</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="23">
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="26">
         <v>2023</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C17" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="28">
         <f t="shared" si="1"/>
         <v>65636.227901699996</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="29">
         <v>10457.710060000001</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="29">
         <v>55178.517841699992</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="19">
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="12">
         <v>2023</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="14">
         <f t="shared" si="1"/>
         <v>66343.772248199995</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="15">
         <v>11049.623379999999</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F18" s="16">
         <v>55294.148868199998</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="17">
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="17">
         <v>2023</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="19">
         <f t="shared" si="1"/>
         <v>74538.440707999995</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="20">
         <v>11064.1852</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="20">
         <v>63474.255507999995</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="19">
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="12">
         <v>2023</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="14">
         <f t="shared" si="1"/>
         <v>62577.191087000007</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="15">
         <v>9698.2422199999983</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F20" s="16">
         <v>52878.948867000006</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="17">
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="17">
         <v>2023</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C21" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="19">
         <f t="shared" si="1"/>
         <v>67812.791455800005</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E21" s="20">
         <v>10523.07332</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F21" s="20">
         <v>57289.718135800002</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="19">
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="12">
         <v>2023</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="14">
         <f t="shared" si="1"/>
         <v>67712.269710799999</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="15">
         <v>9845.1506699999991</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F22" s="16">
         <v>57867.119040799997</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="17">
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="17">
         <v>2023</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C23" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="19">
         <f t="shared" si="1"/>
         <v>66844.753326200007</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="20">
         <v>10335.84496</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="20">
         <v>56508.908366200005</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="19">
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="14">
         <f t="shared" si="1"/>
         <v>66163.140046500004</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="15">
         <v>10572.075449999998</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F24" s="16">
         <v>55591.064596500008</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="17">
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="17">
         <v>2023</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="19">
         <f t="shared" si="1"/>
         <v>62926.446933799991</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="20">
         <v>9376.9209200000005</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F25" s="20">
         <v>53549.526013799994</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="19">
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="14">
         <f t="shared" si="1"/>
         <v>70380.670155799991</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E26" s="15">
         <v>10595.588189999999</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F26" s="16">
         <v>59785.081965799996</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="17">
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="17">
         <v>2023</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C27" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="19">
         <f t="shared" si="1"/>
         <v>61289.109018200004</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E27" s="20">
         <v>8878.071469999999</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F27" s="20">
         <v>52411.037548200002</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="21">
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="21">
         <v>2023</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C28" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="10">
-        <f t="shared" si="1"/>
-        <v>60647.248166599995</v>
-      </c>
-      <c r="E27" s="6">
+      <c r="D28" s="23">
+        <f t="shared" si="1"/>
+        <v>60647.248166599988</v>
+      </c>
+      <c r="E28" s="24">
         <v>9596.1618600000002</v>
       </c>
-      <c r="F27" s="26">
-        <v>51051.086306599995</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="23">
+      <c r="F28" s="25">
+        <v>51051.086306599987</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="26">
         <v>2022</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C29" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D29" s="28">
         <f t="shared" si="1"/>
         <v>68611.389849999992</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="29">
         <v>11506.01224</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="29">
         <v>57105.377609999996</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="19">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="12">
         <v>2022</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C30" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="14">
         <f t="shared" si="1"/>
         <v>68488.553597500009</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="15">
         <v>11633.829370000001</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F30" s="16">
         <v>56854.724227500003</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="17">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="17">
         <v>2022</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C31" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="9">
-        <f t="shared" si="1"/>
-        <v>70349.636145499986</v>
-      </c>
-      <c r="E30" s="7">
+      <c r="D31" s="19">
+        <f t="shared" si="1"/>
+        <v>70349.636145500001</v>
+      </c>
+      <c r="E31" s="20">
         <v>10845.919519999999</v>
       </c>
-      <c r="F30" s="7">
-        <v>59503.71662549999</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="19">
+      <c r="F31" s="20">
+        <v>59503.716625499997</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="12">
         <v>2022</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C32" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="14">
         <f t="shared" si="1"/>
         <v>63724.643873059998</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E32" s="15">
         <v>10054.112030000002</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F32" s="16">
         <v>53670.531843059995</v>
       </c>
     </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="17">
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="17">
         <v>2022</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C33" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="9">
-        <f t="shared" si="1"/>
-        <v>65648.464610800016</v>
-      </c>
-      <c r="E32" s="7">
-        <v>10458.872010000001</v>
-      </c>
-      <c r="F32" s="7">
-        <v>55189.59260080001</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="19">
+      <c r="D33" s="19">
+        <f t="shared" si="1"/>
+        <v>65648.464610800002</v>
+      </c>
+      <c r="E33" s="20">
+        <v>10458.872009999999</v>
+      </c>
+      <c r="F33" s="20">
+        <v>55189.592600800002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="12">
         <v>2022</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C34" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="14">
         <f t="shared" si="1"/>
         <v>71042.030932399997</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E34" s="15">
         <v>10578.089199999999</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F34" s="16">
         <v>60463.941732400002</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="17">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="17">
         <v>2022</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C35" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="19">
         <f t="shared" si="1"/>
         <v>73616.814013199997</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E35" s="20">
         <v>12418.258890000001</v>
       </c>
-      <c r="F34" s="7">
-        <v>61198.5551232</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="19">
+      <c r="F35" s="20">
+        <v>61198.555123199993</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C36" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D36" s="14">
         <f t="shared" si="1"/>
         <v>70521.7755206</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="15">
         <v>10687.704</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F36" s="16">
         <v>59834.071520599995</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="17">
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="17">
         <v>2022</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C37" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="9">
-        <f t="shared" si="1"/>
-        <v>65395.3899361</v>
-      </c>
-      <c r="E36" s="7">
+      <c r="D37" s="19">
+        <f t="shared" si="1"/>
+        <v>65395.389936100008</v>
+      </c>
+      <c r="E37" s="20">
         <v>10009.792879999999</v>
       </c>
-      <c r="F36" s="7">
-        <v>55385.597056099999</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="19">
+      <c r="F37" s="20">
+        <v>55385.597056100007</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C38" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="8">
-        <f t="shared" si="1"/>
-        <v>70663.687067200008</v>
-      </c>
-      <c r="E37" s="4">
+      <c r="D38" s="14">
+        <f t="shared" si="1"/>
+        <v>70663.687067199993</v>
+      </c>
+      <c r="E38" s="15">
         <v>10790.40236</v>
       </c>
-      <c r="F37" s="25">
-        <v>59873.284707200008</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="17">
+      <c r="F38" s="16">
+        <v>59873.2847072</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="17">
         <v>2022</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C39" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="19">
         <f t="shared" si="1"/>
         <v>62248.796398300008</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E39" s="20">
         <v>9503.8195899999992</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F39" s="20">
         <v>52744.976808300009</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="21">
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="21">
         <v>2022</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C40" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D40" s="23">
         <f t="shared" si="1"/>
         <v>58480.2683493</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E40" s="24">
         <v>9164.2659699999986</v>
       </c>
-      <c r="F39" s="26">
+      <c r="F40" s="25">
         <v>49316.0023793</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="23">
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="26">
         <v>2021</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C41" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D41" s="28">
         <f t="shared" si="1"/>
         <v>71058.534132700006</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="29">
         <v>11787.100349999999</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="29">
         <v>59271.433782700005</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="19">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="12">
         <v>2021</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C42" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="14">
         <f t="shared" si="1"/>
         <v>70276.799918899997</v>
       </c>
-      <c r="E41" s="4">
-        <v>11002.488010000001</v>
-      </c>
-      <c r="F41" s="25">
+      <c r="E42" s="15">
+        <v>11002.488009999999</v>
+      </c>
+      <c r="F42" s="16">
         <v>59274.311908899996</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="17">
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="17">
         <v>2021</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C43" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D43" s="19">
         <f t="shared" si="1"/>
         <v>71581.534583699991</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E43" s="20">
         <v>10533.75974</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F43" s="20">
         <v>61047.774843699997</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="19">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="12">
         <v>2021</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C44" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="8">
-        <f t="shared" ref="D43:D74" si="3">SUM(E43:F43)</f>
+      <c r="D44" s="14">
+        <f t="shared" ref="D44:D75" si="3">SUM(E44:F44)</f>
         <v>63210.818573499993</v>
       </c>
-      <c r="E43" s="4">
-        <v>9205.0079699999987</v>
-      </c>
-      <c r="F43" s="25">
+      <c r="E44" s="15">
+        <v>9205.0079700000006</v>
+      </c>
+      <c r="F44" s="16">
         <v>54005.810603499995</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="17">
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="17">
         <v>2021</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C45" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="19">
         <f t="shared" si="3"/>
         <v>64225.819261800003</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E45" s="20">
         <v>9288.4902899999997</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F45" s="20">
         <v>54937.328971800001</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="19">
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="12">
         <v>2021</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C46" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="14">
         <f t="shared" si="3"/>
         <v>68599.738738</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E46" s="15">
         <v>9818.9590200000002</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F46" s="16">
         <v>58780.779718000005</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="17">
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="17">
         <v>2021</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C47" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="19">
         <f t="shared" si="3"/>
         <v>64729.816312399991</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E47" s="20">
         <v>9122.9778799999985</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F47" s="20">
         <v>55606.838432399993</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="19">
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C48" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D48" s="14">
         <f t="shared" si="3"/>
         <v>65852.654150000002</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E48" s="15">
         <v>8949.1877700000005</v>
       </c>
-      <c r="F47" s="25">
-        <v>56903.466380000005</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="17">
+      <c r="F48" s="16">
+        <v>56903.466379999998</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="17">
         <v>2021</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C49" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="9">
-        <f t="shared" si="3"/>
-        <v>63906.943998099996</v>
-      </c>
-      <c r="E48" s="7">
+      <c r="D49" s="19">
+        <f t="shared" si="3"/>
+        <v>63906.943998100003</v>
+      </c>
+      <c r="E49" s="20">
         <v>8684.6848300000001</v>
       </c>
-      <c r="F48" s="7">
-        <v>55222.259168099998</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="19">
+      <c r="F49" s="20">
+        <v>55222.259168100005</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C50" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="8">
-        <f t="shared" si="3"/>
-        <v>70158.308096999986</v>
-      </c>
-      <c r="E49" s="4">
+      <c r="D50" s="14">
+        <f t="shared" si="3"/>
+        <v>70158.308097000001</v>
+      </c>
+      <c r="E50" s="15">
         <v>9170.0568799999983</v>
       </c>
-      <c r="F49" s="25">
-        <v>60988.25121699999</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="17">
+      <c r="F50" s="16">
+        <v>60988.251216999997</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="17">
         <v>2021</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C51" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="19">
         <f t="shared" si="3"/>
         <v>60491.315076000006</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E51" s="20">
         <v>7767.4261999999999</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F51" s="20">
         <v>52723.888876000005</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="21">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="21">
         <v>2021</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C52" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D52" s="23">
         <f t="shared" si="3"/>
         <v>63725.913205999997</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E52" s="24">
         <v>8464.5160599999999</v>
       </c>
-      <c r="F51" s="26">
+      <c r="F52" s="25">
         <v>55261.397145999996</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="23">
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="26">
         <v>2020</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C53" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D53" s="28">
         <f t="shared" si="3"/>
         <v>66303.668197999999</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="29">
         <v>10783.384609999999</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="29">
         <v>55520.283587999998</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="19">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="12">
         <v>2020</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C54" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D54" s="14">
         <f t="shared" si="3"/>
         <v>67964.463443000001</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E54" s="15">
         <v>10277.794900000001</v>
       </c>
-      <c r="F53" s="25">
+      <c r="F54" s="16">
         <v>57686.668543</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="17">
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="17">
         <v>2020</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C55" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D55" s="19">
         <f t="shared" si="3"/>
         <v>66309.962777399996</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E55" s="20">
         <v>9671.3324499999999</v>
       </c>
-      <c r="F54" s="7">
-        <v>56638.630327400002</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="19">
+      <c r="F55" s="20">
+        <v>56638.630327399995</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="12">
         <v>2020</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C56" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="8">
-        <f t="shared" si="3"/>
-        <v>57113.372982200002</v>
-      </c>
-      <c r="E55" s="4">
-        <v>9190.6065300000009</v>
-      </c>
-      <c r="F55" s="25">
-        <v>47922.766452200005</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="17">
+      <c r="D56" s="14">
+        <f t="shared" si="3"/>
+        <v>57113.372982199995</v>
+      </c>
+      <c r="E56" s="15">
+        <v>9190.6065299999991</v>
+      </c>
+      <c r="F56" s="16">
+        <v>47922.766452199998</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="17">
         <v>2020</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C57" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="19">
         <f t="shared" si="3"/>
         <v>52149.208218500004</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E57" s="20">
         <v>7626.2473300000001</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F57" s="20">
         <v>44522.960888500005</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="19">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="12">
         <v>2020</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C58" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D58" s="14">
         <f t="shared" si="3"/>
         <v>46691.5235245</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E58" s="15">
         <v>6651.94434</v>
       </c>
-      <c r="F57" s="25">
+      <c r="F58" s="16">
         <v>40039.579184499999</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="17">
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="17">
         <v>2020</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C59" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="9">
-        <f t="shared" si="3"/>
-        <v>42608.422072200003</v>
-      </c>
-      <c r="E58" s="7">
+      <c r="D59" s="19">
+        <f t="shared" si="3"/>
+        <v>42608.422072199995</v>
+      </c>
+      <c r="E59" s="20">
         <v>5692.9747600000001</v>
       </c>
-      <c r="F58" s="7">
-        <v>36915.447312200005</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="19">
+      <c r="F59" s="20">
+        <v>36915.447312199998</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C60" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D60" s="14">
         <f t="shared" si="3"/>
         <v>38705.075583899998</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E60" s="15">
         <v>4788.3910099999994</v>
       </c>
-      <c r="F59" s="25">
+      <c r="F60" s="16">
         <v>33916.684573899998</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="17">
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="17">
         <v>2020</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C61" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="19">
         <f t="shared" si="3"/>
         <v>33589.608145099999</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E61" s="20">
         <v>4465.3602699999992</v>
       </c>
-      <c r="F60" s="7">
-        <v>29124.247875099998</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="19">
+      <c r="F61" s="20">
+        <v>29124.247875100002</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C62" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D62" s="14">
         <f t="shared" si="3"/>
         <v>55854.879077099999</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E62" s="15">
         <v>7632.2904900000003</v>
       </c>
-      <c r="F61" s="25">
+      <c r="F62" s="16">
         <v>48222.588587099999</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="17">
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="17">
         <v>2020</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C63" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="9">
-        <f t="shared" si="3"/>
-        <v>55217.324218999987</v>
-      </c>
-      <c r="E62" s="7">
-        <v>8133.2827100000004</v>
-      </c>
-      <c r="F62" s="7">
-        <v>47084.041508999988</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="21">
+      <c r="D63" s="19">
+        <f t="shared" si="3"/>
+        <v>55217.324218999995</v>
+      </c>
+      <c r="E63" s="20">
+        <v>8133.2827100000013</v>
+      </c>
+      <c r="F63" s="20">
+        <v>47084.041508999995</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="21">
         <v>2020</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C64" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="10">
-        <f t="shared" si="3"/>
-        <v>58590.469882999998</v>
-      </c>
-      <c r="E63" s="6">
+      <c r="D64" s="23">
+        <f t="shared" si="3"/>
+        <v>58590.469882999991</v>
+      </c>
+      <c r="E64" s="24">
         <v>9265.3395099999998</v>
       </c>
-      <c r="F63" s="26">
-        <v>49325.130373</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="23">
+      <c r="F64" s="25">
+        <v>49325.130372999993</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="26">
         <v>2019</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C65" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D65" s="28">
         <f t="shared" si="3"/>
         <v>66261.243409000002</v>
       </c>
-      <c r="E64" s="13">
-        <v>12436.845439999999</v>
-      </c>
-      <c r="F64" s="13">
+      <c r="E65" s="29">
+        <v>12436.845440000001</v>
+      </c>
+      <c r="F65" s="29">
         <v>53824.397969000005</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="19">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="12">
         <v>2019</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C66" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D66" s="14">
         <f t="shared" si="3"/>
         <v>68605.822660000005</v>
       </c>
-      <c r="E65" s="4">
-        <v>13008.51885</v>
-      </c>
-      <c r="F65" s="25">
+      <c r="E66" s="15">
+        <v>13008.518850000002</v>
+      </c>
+      <c r="F66" s="16">
         <v>55597.303810000005</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="17">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="17">
         <v>2019</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C67" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D67" s="19">
         <f t="shared" si="3"/>
         <v>68729.068468999991</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E67" s="20">
         <v>13397.07763</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F67" s="20">
         <v>55331.990838999998</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="19">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="12">
         <v>2019</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C68" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D68" s="14">
         <f t="shared" si="3"/>
         <v>63953.437825000008</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E68" s="15">
         <v>11041.58344</v>
       </c>
-      <c r="F67" s="25">
+      <c r="F68" s="16">
         <v>52911.854385000006</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="17">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="17">
         <v>2019</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C69" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="9">
-        <f t="shared" si="3"/>
-        <v>64842.325496999998</v>
-      </c>
-      <c r="E68" s="7">
+      <c r="D69" s="19">
+        <f t="shared" si="3"/>
+        <v>64842.325497000005</v>
+      </c>
+      <c r="E69" s="20">
         <v>11467.57286</v>
       </c>
-      <c r="F68" s="7">
-        <v>53374.752636999998</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="19">
+      <c r="F69" s="20">
+        <v>53374.752637000005</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="12">
         <v>2019</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C70" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="8">
-        <f t="shared" si="3"/>
-        <v>65696.806677000015</v>
-      </c>
-      <c r="E69" s="4">
+      <c r="D70" s="14">
+        <f t="shared" si="3"/>
+        <v>65696.806677</v>
+      </c>
+      <c r="E70" s="15">
         <v>11392.176509999999</v>
       </c>
-      <c r="F69" s="25">
-        <v>54304.63016700001</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="17">
+      <c r="F70" s="16">
+        <v>54304.630167000003</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="17">
         <v>2019</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C71" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D71" s="19">
         <f t="shared" si="3"/>
         <v>63546.111140000001</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E71" s="20">
         <v>11094.79</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F71" s="20">
         <v>52451.32114</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="19">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C72" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="8">
-        <f t="shared" si="3"/>
-        <v>65954.178415999995</v>
-      </c>
-      <c r="E71" s="4">
+      <c r="D72" s="14">
+        <f t="shared" si="3"/>
+        <v>65954.17841600001</v>
+      </c>
+      <c r="E72" s="15">
         <v>12257.484480000001</v>
       </c>
-      <c r="F71" s="25">
-        <v>53696.693935999996</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="17">
+      <c r="F72" s="16">
+        <v>53696.693936000003</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="17">
         <v>2019</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C73" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="19">
         <f t="shared" si="3"/>
         <v>66025.018232000002</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E73" s="20">
         <v>12001.947099999999</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F73" s="20">
         <v>54023.071131999997</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="19">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C74" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D74" s="14">
         <f t="shared" si="3"/>
         <v>72963.126033400011</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E74" s="15">
         <v>12358.550210000001</v>
       </c>
-      <c r="F73" s="25">
+      <c r="F74" s="16">
         <v>60604.575823400002</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="17">
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="17">
         <v>2019</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C75" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="9">
-        <f t="shared" si="3"/>
-        <v>62080.146124000006</v>
-      </c>
-      <c r="E74" s="7">
+      <c r="D75" s="19">
+        <f t="shared" si="3"/>
+        <v>62080.146123999999</v>
+      </c>
+      <c r="E75" s="20">
         <v>11336.3799</v>
       </c>
-      <c r="F74" s="7">
-        <v>50743.766224000006</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="21">
+      <c r="F75" s="20">
+        <v>50743.766223999999</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="21">
         <v>2019</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C76" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="10">
-        <f t="shared" ref="D75:D87" si="4">SUM(E75:F75)</f>
-        <v>66069.786819699992</v>
-      </c>
-      <c r="E75" s="6">
+      <c r="D76" s="23">
+        <f t="shared" ref="D76:D88" si="4">SUM(E76:F76)</f>
+        <v>66069.786819700006</v>
+      </c>
+      <c r="E76" s="24">
         <v>13827.258220000002</v>
       </c>
-      <c r="F75" s="26">
-        <v>52242.528599699996</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="18">
+      <c r="F76" s="25">
+        <v>52242.528599700003</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="18">
         <v>2018</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C77" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D77" s="19">
         <f t="shared" si="4"/>
-        <v>66933.16748199999</v>
-      </c>
-      <c r="E76" s="7">
+        <v>66933.167482000004</v>
+      </c>
+      <c r="E77" s="20">
         <v>9081.5239999999994</v>
       </c>
-      <c r="F76" s="7">
-        <v>57851.643481999992</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="20">
+      <c r="F77" s="20">
+        <v>57851.643481999999</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="13">
         <v>2018</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C78" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D78" s="14">
         <f t="shared" si="4"/>
         <v>71177.636041999998</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E78" s="15">
         <v>10497.208000000001</v>
       </c>
-      <c r="F77" s="25">
+      <c r="F78" s="16">
         <v>60680.428042</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="18">
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="18">
         <v>2018</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C79" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D79" s="19">
         <f t="shared" si="4"/>
         <v>71661.010011999999</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E79" s="20">
         <v>9991.6759999999995</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F79" s="20">
         <v>61669.334011999999</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="20">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="13">
         <v>2018</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C80" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D80" s="14">
         <f t="shared" si="4"/>
         <v>66201.479049599991</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E80" s="15">
         <v>8721.2330000000002</v>
       </c>
-      <c r="F79" s="25">
+      <c r="F80" s="16">
         <v>57480.246049599999</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="18">
+    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="18">
         <v>2018</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C81" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="19">
         <f t="shared" si="4"/>
-        <v>65268.30786980001</v>
-      </c>
-      <c r="E80" s="7">
+        <v>65268.307869800003</v>
+      </c>
+      <c r="E81" s="20">
         <v>9262.4320000000007</v>
       </c>
-      <c r="F80" s="7">
-        <v>56005.875869800009</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="20">
+      <c r="F81" s="20">
+        <v>56005.875869800002</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C82" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D82" s="14">
         <f t="shared" si="4"/>
-        <v>67408.03254700001</v>
-      </c>
-      <c r="E81" s="4">
+        <v>67408.032546999995</v>
+      </c>
+      <c r="E82" s="15">
         <v>8453.6</v>
       </c>
-      <c r="F81" s="25">
-        <v>58954.432547000004</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="18">
+      <c r="F82" s="16">
+        <v>58954.432546999997</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="18">
         <v>2018</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C83" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D83" s="19">
         <f t="shared" si="4"/>
         <v>69001.484601999997</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E83" s="20">
         <v>9016.5510999999988</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F83" s="20">
         <v>59984.933502</v>
       </c>
     </row>
-    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="20">
+    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C84" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D84" s="14">
         <f t="shared" si="4"/>
-        <v>68248.467610000007</v>
-      </c>
-      <c r="E83" s="4">
+        <v>68248.467609999992</v>
+      </c>
+      <c r="E84" s="15">
         <v>9692.3696600000003</v>
       </c>
-      <c r="F83" s="25">
-        <v>58556.097950000003</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="18">
+      <c r="F84" s="16">
+        <v>58556.097949999996</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="18">
         <v>2018</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C85" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D85" s="19">
         <f t="shared" si="4"/>
-        <v>71464.309095000004</v>
-      </c>
-      <c r="E84" s="7">
-        <v>9137.2187800000011</v>
-      </c>
-      <c r="F84" s="7">
-        <v>62327.090315000009</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="20">
+        <v>71464.30909499999</v>
+      </c>
+      <c r="E85" s="20">
+        <v>9137.2187799999992</v>
+      </c>
+      <c r="F85" s="20">
+        <v>62327.090314999994</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C86" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D86" s="14">
         <f t="shared" si="4"/>
-        <v>72436.418714999993</v>
-      </c>
-      <c r="E85" s="4">
-        <v>9317.3212800000019</v>
-      </c>
-      <c r="F85" s="25">
-        <v>63119.097434999989</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="18">
+        <v>72436.418715000007</v>
+      </c>
+      <c r="E86" s="15">
+        <v>9317.3212800000001</v>
+      </c>
+      <c r="F86" s="16">
+        <v>63119.097435000003</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="18">
         <v>2018</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C87" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D87" s="19">
         <f t="shared" si="4"/>
         <v>60034.670899299999</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E87" s="20">
         <v>8005.7809000000007</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F87" s="20">
         <v>52028.889999300001</v>
       </c>
     </row>
-    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="20">
+    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="13">
         <v>2018</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C88" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D88" s="14">
         <f t="shared" si="4"/>
         <v>59958.963042999996</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E88" s="15">
         <v>8140.3959999999997</v>
       </c>
-      <c r="F87" s="25">
+      <c r="F88" s="16">
         <v>51818.567042999995</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B89" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B90" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F90" s="3"/>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F91" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D4:F4"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Carga_Total_N_Aero.xlsx
+++ b/Carga_Total_N_Aero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00A2798-5D58-426B-974D-9FDC4282BC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EBBF0F-CD6D-4B30-84FE-B089260595D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_30.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="22">
   <si>
     <t>Internacional</t>
   </si>
@@ -101,7 +101,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -318,15 +318,6 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -373,62 +364,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -528,6 +478,56 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -542,8 +542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F88" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8">
-  <autoFilter ref="B5:F88" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F89" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B5:F89" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -551,13 +551,13 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{C7241031-7544-447E-877A-D3F17F3B37E4}" name="Mes" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{C7241031-7544-447E-877A-D3F17F3B37E4}" name="Mes" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="2">
       <calculatedColumnFormula>SUM(E6:F6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Nacional" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Internacional" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Nacional" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Internacional" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -786,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B1:F91"/>
+  <dimension ref="B1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -819,1535 +819,1553 @@
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="12">
+      <c r="B6" s="14">
         <v>2024</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="16">
+        <f>SUM(E6:F6)</f>
+        <v>64500.590389599995</v>
+      </c>
+      <c r="E6" s="17">
+        <v>10701.994849999999</v>
+      </c>
+      <c r="F6" s="17">
+        <v>53798.595539599999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14">
-        <f>SUM(E6:F6)</f>
+      <c r="D7" s="11">
+        <f>SUM(E7:F7)</f>
         <v>66458.242704000004</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E7" s="12">
         <v>11494.17107</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F7" s="13">
         <v>54964.071634</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="17">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="14">
         <v>2024</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="19">
-        <f t="shared" ref="D7" si="0">SUM(E7:F7)</f>
+      <c r="D8" s="16">
+        <f t="shared" ref="D8" si="0">SUM(E8:F8)</f>
         <v>67764.796745800006</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E8" s="17">
         <v>11457.6875</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F8" s="17">
         <v>56307.109245799998</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="12">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="9">
         <v>2024</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="14">
-        <f>SUM(E8:F8)</f>
+      <c r="D9" s="11">
+        <f>SUM(E9:F9)</f>
         <v>60656.284715400005</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E9" s="12">
         <v>9752.9897600000004</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F9" s="13">
         <v>50903.294955400001</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="17">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="14">
         <v>2024</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="19">
-        <f t="shared" ref="D9:D43" si="1">SUM(E9:F9)</f>
+      <c r="D10" s="16">
+        <f t="shared" ref="D10:D44" si="1">SUM(E10:F10)</f>
         <v>65409.835878400001</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E10" s="17">
         <v>10656.19658</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F10" s="17">
         <v>54753.639298399998</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="12">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="14">
-        <f t="shared" ref="D10:D12" si="2">SUM(E10:F10)</f>
+      <c r="D11" s="11">
+        <f t="shared" ref="D11:D13" si="2">SUM(E11:F11)</f>
         <v>65251.52312564</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E11" s="12">
         <v>10090.788336240001</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F11" s="13">
         <v>55160.734789399998</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="17">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="14">
         <v>2024</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D12" s="16">
         <f t="shared" si="2"/>
         <v>62612.769596599988</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E12" s="17">
         <v>9471.2998499999994</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F12" s="17">
         <v>53141.469746599993</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="12">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D13" s="11">
         <f t="shared" si="2"/>
         <v>67292.033080699999</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E13" s="12">
         <v>10696.546900000001</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F13" s="13">
         <v>56595.486180700005</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="17">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="14">
         <v>2024</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D14" s="16">
         <f t="shared" si="1"/>
         <v>65793.232232400012</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E14" s="17">
         <v>9979.4764199999991</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F14" s="17">
         <v>55813.755812400006</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="12">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D15" s="11">
         <f t="shared" si="1"/>
         <v>66756.576457400006</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E15" s="12">
         <v>9290.8170100000007</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F15" s="13">
         <v>57465.759447400007</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="17">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="14">
         <v>2024</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D16" s="16">
         <f t="shared" si="1"/>
         <v>64183.796049299999</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E16" s="17">
         <v>9254.3675999999996</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F16" s="17">
         <v>54929.428449300001</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="21">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="18">
         <v>2024</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D17" s="20">
         <f t="shared" si="1"/>
         <v>64012.441249099997</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E17" s="21">
         <v>9707.3228199999994</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F17" s="22">
         <v>54305.118429099995</v>
       </c>
     </row>
-    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="26">
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="23">
         <v>2023</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D18" s="25">
         <f t="shared" si="1"/>
         <v>65636.227901699996</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E18" s="26">
         <v>10457.710060000001</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F18" s="26">
         <v>55178.517841699992</v>
       </c>
     </row>
-    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="12">
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="9">
         <v>2023</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D19" s="11">
         <f t="shared" si="1"/>
         <v>66343.772248199995</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E19" s="12">
         <v>11049.623379999999</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F19" s="13">
         <v>55294.148868199998</v>
       </c>
     </row>
-    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="17">
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="14">
         <v>2023</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D20" s="16">
         <f t="shared" si="1"/>
         <v>74538.440707999995</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E20" s="17">
         <v>11064.1852</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F20" s="17">
         <v>63474.255507999995</v>
       </c>
     </row>
-    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="12">
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="9">
         <v>2023</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D21" s="11">
         <f t="shared" si="1"/>
         <v>62577.191087000007</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E21" s="12">
         <v>9698.2422199999983</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F21" s="13">
         <v>52878.948867000006</v>
       </c>
     </row>
-    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="17">
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="14">
         <v>2023</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D22" s="16">
         <f t="shared" si="1"/>
         <v>67812.791455800005</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E22" s="17">
         <v>10523.07332</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F22" s="17">
         <v>57289.718135800002</v>
       </c>
     </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="12">
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="9">
         <v>2023</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D23" s="11">
         <f t="shared" si="1"/>
         <v>67712.269710799999</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E23" s="12">
         <v>9845.1506699999991</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F23" s="13">
         <v>57867.119040799997</v>
       </c>
     </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="17">
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="14">
         <v>2023</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C24" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D24" s="16">
         <f t="shared" si="1"/>
         <v>66844.753326200007</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E24" s="17">
         <v>10335.84496</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F24" s="17">
         <v>56508.908366200005</v>
       </c>
     </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="12">
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="9">
         <v>2023</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D25" s="11">
         <f t="shared" si="1"/>
         <v>66163.140046500004</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E25" s="12">
         <v>10572.075449999998</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F25" s="13">
         <v>55591.064596500008</v>
       </c>
     </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="17">
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="14">
         <v>2023</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C26" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D26" s="16">
         <f t="shared" si="1"/>
         <v>62926.446933799991</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E26" s="17">
         <v>9376.9209200000005</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F26" s="17">
         <v>53549.526013799994</v>
       </c>
     </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="12">
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D27" s="11">
         <f t="shared" si="1"/>
         <v>70380.670155799991</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E27" s="12">
         <v>10595.588189999999</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F27" s="13">
         <v>59785.081965799996</v>
       </c>
     </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="17">
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="14">
         <v>2023</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C28" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D28" s="16">
         <f t="shared" si="1"/>
         <v>61289.109018200004</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E28" s="17">
         <v>8878.071469999999</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F28" s="17">
         <v>52411.037548200002</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="21">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="18">
         <v>2023</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C29" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="23">
-        <f t="shared" si="1"/>
-        <v>60647.248166599988</v>
-      </c>
-      <c r="E28" s="24">
+      <c r="D29" s="20">
+        <f t="shared" si="1"/>
+        <v>60647.248166599995</v>
+      </c>
+      <c r="E29" s="21">
         <v>9596.1618600000002</v>
       </c>
-      <c r="F28" s="25">
-        <v>51051.086306599987</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="26">
+      <c r="F29" s="22">
+        <v>51051.086306599995</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="23">
         <v>2022</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C30" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D30" s="25">
         <f t="shared" si="1"/>
         <v>68611.389849999992</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E30" s="26">
         <v>11506.01224</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F30" s="26">
         <v>57105.377609999996</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="12">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="9">
         <v>2022</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D31" s="11">
         <f t="shared" si="1"/>
         <v>68488.553597500009</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E31" s="12">
         <v>11633.829370000001</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F31" s="13">
         <v>56854.724227500003</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="17">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="14">
         <v>2022</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C32" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="19">
-        <f t="shared" si="1"/>
-        <v>70349.636145500001</v>
-      </c>
-      <c r="E31" s="20">
+      <c r="D32" s="16">
+        <f t="shared" si="1"/>
+        <v>70349.636145499986</v>
+      </c>
+      <c r="E32" s="17">
         <v>10845.919519999999</v>
       </c>
-      <c r="F31" s="20">
-        <v>59503.716625499997</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="12">
+      <c r="F32" s="17">
+        <v>59503.71662549999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="9">
         <v>2022</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D33" s="11">
         <f t="shared" si="1"/>
         <v>63724.643873059998</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E33" s="12">
         <v>10054.112030000002</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F33" s="13">
         <v>53670.531843059995</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="17">
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="14">
         <v>2022</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C34" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D34" s="16">
         <f t="shared" si="1"/>
         <v>65648.464610800002</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E34" s="17">
         <v>10458.872009999999</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F34" s="17">
         <v>55189.592600800002</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="12">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="9">
         <v>2022</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D35" s="11">
         <f t="shared" si="1"/>
         <v>71042.030932399997</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E35" s="12">
         <v>10578.089199999999</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F35" s="13">
         <v>60463.941732400002</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="17">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="14">
         <v>2022</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C36" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D36" s="16">
         <f t="shared" si="1"/>
         <v>73616.814013199997</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E36" s="17">
         <v>12418.258890000001</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F36" s="17">
         <v>61198.555123199993</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="12">
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="9">
         <v>2022</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D37" s="11">
         <f t="shared" si="1"/>
         <v>70521.7755206</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E37" s="12">
         <v>10687.704</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F37" s="13">
         <v>59834.071520599995</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="17">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="14">
         <v>2022</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C38" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D38" s="16">
         <f t="shared" si="1"/>
         <v>65395.389936100008</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E38" s="17">
         <v>10009.792879999999</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F38" s="17">
         <v>55385.597056100007</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="12">
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D39" s="11">
         <f t="shared" si="1"/>
         <v>70663.687067199993</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E39" s="12">
         <v>10790.40236</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F39" s="13">
         <v>59873.2847072</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="17">
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="14">
         <v>2022</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C40" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D40" s="16">
         <f t="shared" si="1"/>
         <v>62248.796398300008</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E40" s="17">
         <v>9503.8195899999992</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F40" s="17">
         <v>52744.976808300009</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="21">
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="18">
         <v>2022</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C41" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D41" s="20">
         <f t="shared" si="1"/>
         <v>58480.2683493</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E41" s="21">
         <v>9164.2659699999986</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F41" s="22">
         <v>49316.0023793</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="26">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="23">
         <v>2021</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C42" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="28">
+      <c r="D42" s="25">
         <f t="shared" si="1"/>
         <v>71058.534132700006</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E42" s="26">
         <v>11787.100349999999</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F42" s="26">
         <v>59271.433782700005</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="12">
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="9">
         <v>2021</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D43" s="11">
         <f t="shared" si="1"/>
         <v>70276.799918899997</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E43" s="12">
         <v>11002.488009999999</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F43" s="13">
         <v>59274.311908899996</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="17">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="14">
         <v>2021</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C44" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D44" s="16">
         <f t="shared" si="1"/>
         <v>71581.534583699991</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E44" s="17">
         <v>10533.75974</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F44" s="17">
         <v>61047.774843699997</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="12">
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="9">
         <v>2021</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C45" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="14">
-        <f t="shared" ref="D44:D75" si="3">SUM(E44:F44)</f>
+      <c r="D45" s="11">
+        <f t="shared" ref="D45:D76" si="3">SUM(E45:F45)</f>
         <v>63210.818573499993</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E45" s="12">
         <v>9205.0079700000006</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F45" s="13">
         <v>54005.810603499995</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="17">
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="14">
         <v>2021</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C46" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D46" s="16">
         <f t="shared" si="3"/>
         <v>64225.819261800003</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E46" s="17">
         <v>9288.4902899999997</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F46" s="17">
         <v>54937.328971800001</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="12">
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="9">
         <v>2021</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D47" s="11">
         <f t="shared" si="3"/>
         <v>68599.738738</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E47" s="12">
         <v>9818.9590200000002</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F47" s="13">
         <v>58780.779718000005</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="17">
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="14">
         <v>2021</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C48" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D48" s="16">
         <f t="shared" si="3"/>
         <v>64729.816312399991</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E48" s="17">
         <v>9122.9778799999985</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F48" s="17">
         <v>55606.838432399993</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="12">
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="9">
         <v>2021</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C49" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D49" s="11">
         <f t="shared" si="3"/>
         <v>65852.654150000002</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E49" s="12">
         <v>8949.1877700000005</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F49" s="13">
         <v>56903.466379999998</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="17">
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="14">
         <v>2021</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C50" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D50" s="16">
         <f t="shared" si="3"/>
         <v>63906.943998100003</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E50" s="17">
         <v>8684.6848300000001</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F50" s="17">
         <v>55222.259168100005</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="12">
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D51" s="11">
         <f t="shared" si="3"/>
         <v>70158.308097000001</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E51" s="12">
         <v>9170.0568799999983</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F51" s="13">
         <v>60988.251216999997</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="17">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="14">
         <v>2021</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C52" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D52" s="16">
         <f t="shared" si="3"/>
         <v>60491.315076000006</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E52" s="17">
         <v>7767.4261999999999</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F52" s="17">
         <v>52723.888876000005</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="21">
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="18">
         <v>2021</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C53" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D53" s="20">
         <f t="shared" si="3"/>
         <v>63725.913205999997</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E53" s="21">
         <v>8464.5160599999999</v>
       </c>
-      <c r="F52" s="25">
+      <c r="F53" s="22">
         <v>55261.397145999996</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="26">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="23">
         <v>2020</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C54" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="28">
+      <c r="D54" s="25">
         <f t="shared" si="3"/>
         <v>66303.668197999999</v>
       </c>
-      <c r="E53" s="29">
+      <c r="E54" s="26">
         <v>10783.384609999999</v>
       </c>
-      <c r="F53" s="29">
+      <c r="F54" s="26">
         <v>55520.283587999998</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="12">
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="9">
         <v>2020</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D55" s="11">
         <f t="shared" si="3"/>
         <v>67964.463443000001</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E55" s="12">
         <v>10277.794900000001</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F55" s="13">
         <v>57686.668543</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="17">
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="14">
         <v>2020</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C56" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D56" s="16">
         <f t="shared" si="3"/>
         <v>66309.962777399996</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E56" s="17">
         <v>9671.3324499999999</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F56" s="17">
         <v>56638.630327399995</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="12">
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="9">
         <v>2020</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D57" s="11">
         <f t="shared" si="3"/>
         <v>57113.372982199995</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E57" s="12">
         <v>9190.6065299999991</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F57" s="13">
         <v>47922.766452199998</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="17">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="14">
         <v>2020</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C58" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D58" s="16">
         <f t="shared" si="3"/>
         <v>52149.208218500004</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E58" s="17">
         <v>7626.2473300000001</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F58" s="17">
         <v>44522.960888500005</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="12">
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="9">
         <v>2020</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D59" s="11">
         <f t="shared" si="3"/>
         <v>46691.5235245</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E59" s="12">
         <v>6651.94434</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F59" s="13">
         <v>40039.579184499999</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="17">
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="14">
         <v>2020</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C60" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D60" s="16">
         <f t="shared" si="3"/>
         <v>42608.422072199995</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E60" s="17">
         <v>5692.9747600000001</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F60" s="17">
         <v>36915.447312199998</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="12">
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="9">
         <v>2020</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D61" s="11">
         <f t="shared" si="3"/>
         <v>38705.075583899998</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E61" s="12">
         <v>4788.3910099999994</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F61" s="13">
         <v>33916.684573899998</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="17">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="14">
         <v>2020</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C62" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="19">
+      <c r="D62" s="16">
         <f t="shared" si="3"/>
         <v>33589.608145099999</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E62" s="17">
         <v>4465.3602699999992</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F62" s="17">
         <v>29124.247875100002</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="12">
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D63" s="11">
         <f t="shared" si="3"/>
         <v>55854.879077099999</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E63" s="12">
         <v>7632.2904900000003</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F63" s="13">
         <v>48222.588587099999</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="17">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="14">
         <v>2020</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C64" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D64" s="16">
         <f t="shared" si="3"/>
         <v>55217.324218999995</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E64" s="17">
         <v>8133.2827100000013</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F64" s="17">
         <v>47084.041508999995</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="21">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="18">
         <v>2020</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C65" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="23">
+      <c r="D65" s="20">
         <f t="shared" si="3"/>
         <v>58590.469882999991</v>
       </c>
-      <c r="E64" s="24">
+      <c r="E65" s="21">
         <v>9265.3395099999998</v>
       </c>
-      <c r="F64" s="25">
+      <c r="F65" s="22">
         <v>49325.130372999993</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="26">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="23">
         <v>2019</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C66" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="28">
+      <c r="D66" s="25">
         <f t="shared" si="3"/>
         <v>66261.243409000002</v>
       </c>
-      <c r="E65" s="29">
+      <c r="E66" s="26">
         <v>12436.845440000001</v>
       </c>
-      <c r="F65" s="29">
+      <c r="F66" s="26">
         <v>53824.397969000005</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="12">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="9">
         <v>2019</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D67" s="11">
         <f t="shared" si="3"/>
         <v>68605.822660000005</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E67" s="12">
         <v>13008.518850000002</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F67" s="13">
         <v>55597.303810000005</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="17">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="14">
         <v>2019</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C68" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D68" s="16">
         <f t="shared" si="3"/>
         <v>68729.068468999991</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E68" s="17">
         <v>13397.07763</v>
       </c>
-      <c r="F67" s="20">
+      <c r="F68" s="17">
         <v>55331.990838999998</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="12">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="9">
         <v>2019</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C69" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D69" s="11">
         <f t="shared" si="3"/>
         <v>63953.437825000008</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E69" s="12">
         <v>11041.58344</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F69" s="13">
         <v>52911.854385000006</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="17">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="14">
         <v>2019</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C70" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D70" s="16">
         <f t="shared" si="3"/>
         <v>64842.325497000005</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E70" s="17">
         <v>11467.57286</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F70" s="17">
         <v>53374.752637000005</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="12">
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="9">
         <v>2019</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D71" s="11">
         <f t="shared" si="3"/>
         <v>65696.806677</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E71" s="12">
         <v>11392.176509999999</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F71" s="13">
         <v>54304.630167000003</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="17">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="14">
         <v>2019</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C72" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D72" s="16">
         <f t="shared" si="3"/>
         <v>63546.111140000001</v>
       </c>
-      <c r="E71" s="20">
+      <c r="E72" s="17">
         <v>11094.79</v>
       </c>
-      <c r="F71" s="20">
+      <c r="F72" s="17">
         <v>52451.32114</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="12">
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="9">
         <v>2019</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D73" s="11">
         <f t="shared" si="3"/>
         <v>65954.17841600001</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E73" s="12">
         <v>12257.484480000001</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F73" s="13">
         <v>53696.693936000003</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="17">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="14">
         <v>2019</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C74" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="19">
+      <c r="D74" s="16">
         <f t="shared" si="3"/>
         <v>66025.018232000002</v>
       </c>
-      <c r="E73" s="20">
+      <c r="E74" s="17">
         <v>12001.947099999999</v>
       </c>
-      <c r="F73" s="20">
+      <c r="F74" s="17">
         <v>54023.071131999997</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="12">
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D75" s="11">
         <f t="shared" si="3"/>
         <v>72963.126033400011</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E75" s="12">
         <v>12358.550210000001</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F75" s="13">
         <v>60604.575823400002</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="17">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="14">
         <v>2019</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C76" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="19">
+      <c r="D76" s="16">
         <f t="shared" si="3"/>
         <v>62080.146123999999</v>
       </c>
-      <c r="E75" s="20">
+      <c r="E76" s="17">
         <v>11336.3799</v>
       </c>
-      <c r="F75" s="20">
+      <c r="F76" s="17">
         <v>50743.766223999999</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="21">
-        <v>2019</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="23">
-        <f t="shared" ref="D76:D88" si="4">SUM(E76:F76)</f>
-        <v>66069.786819700006</v>
-      </c>
-      <c r="E76" s="24">
-        <v>13827.258220000002</v>
-      </c>
-      <c r="F76" s="25">
-        <v>52242.528599700003</v>
       </c>
     </row>
     <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="B77" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="20">
+        <f t="shared" ref="D77:D89" si="4">SUM(E77:F77)</f>
+        <v>66069.786819700006</v>
+      </c>
+      <c r="E77" s="21">
+        <v>13827.258220000002</v>
+      </c>
+      <c r="F77" s="22">
+        <v>52242.528599700003</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="15">
         <v>2018</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C78" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="19">
+      <c r="D78" s="16">
         <f t="shared" si="4"/>
         <v>66933.167482000004</v>
       </c>
-      <c r="E77" s="20">
+      <c r="E78" s="17">
         <v>9081.5239999999994</v>
       </c>
-      <c r="F77" s="20">
+      <c r="F78" s="17">
         <v>57851.643481999999</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="13">
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="10">
         <v>2018</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D79" s="11">
         <f t="shared" si="4"/>
         <v>71177.636041999998</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E79" s="12">
         <v>10497.208000000001</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F79" s="13">
         <v>60680.428042</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="18">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="15">
         <v>2018</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C80" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="19">
+      <c r="D80" s="16">
         <f t="shared" si="4"/>
         <v>71661.010011999999</v>
       </c>
-      <c r="E79" s="20">
+      <c r="E80" s="17">
         <v>9991.6759999999995</v>
       </c>
-      <c r="F79" s="20">
+      <c r="F80" s="17">
         <v>61669.334011999999</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="13">
+    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="10">
         <v>2018</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D81" s="11">
         <f t="shared" si="4"/>
         <v>66201.479049599991</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E81" s="12">
         <v>8721.2330000000002</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F81" s="13">
         <v>57480.246049599999</v>
       </c>
     </row>
-    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="18">
+    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="15">
         <v>2018</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C82" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="19">
+      <c r="D82" s="16">
         <f t="shared" si="4"/>
         <v>65268.307869800003</v>
       </c>
-      <c r="E81" s="20">
+      <c r="E82" s="17">
         <v>9262.4320000000007</v>
       </c>
-      <c r="F81" s="20">
+      <c r="F82" s="17">
         <v>56005.875869800002</v>
       </c>
     </row>
-    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="13">
+    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C83" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D83" s="11">
         <f t="shared" si="4"/>
         <v>67408.032546999995</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E83" s="12">
         <v>8453.6</v>
       </c>
-      <c r="F82" s="16">
+      <c r="F83" s="13">
         <v>58954.432546999997</v>
       </c>
     </row>
-    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="18">
+    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="15">
         <v>2018</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C84" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D84" s="16">
         <f t="shared" si="4"/>
         <v>69001.484601999997</v>
       </c>
-      <c r="E83" s="20">
+      <c r="E84" s="17">
         <v>9016.5510999999988</v>
       </c>
-      <c r="F83" s="20">
+      <c r="F84" s="17">
         <v>59984.933502</v>
       </c>
     </row>
-    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="13">
+    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D85" s="11">
         <f t="shared" si="4"/>
         <v>68248.467609999992</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E85" s="12">
         <v>9692.3696600000003</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F85" s="13">
         <v>58556.097949999996</v>
       </c>
     </row>
-    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="18">
+    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="15">
         <v>2018</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C86" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D86" s="16">
         <f t="shared" si="4"/>
         <v>71464.30909499999</v>
       </c>
-      <c r="E85" s="20">
+      <c r="E86" s="17">
         <v>9137.2187799999992</v>
       </c>
-      <c r="F85" s="20">
+      <c r="F86" s="17">
         <v>62327.090314999994</v>
       </c>
     </row>
-    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="13">
+    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C87" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D87" s="11">
         <f t="shared" si="4"/>
         <v>72436.418715000007</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E87" s="12">
         <v>9317.3212800000001</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F87" s="13">
         <v>63119.097435000003</v>
       </c>
     </row>
-    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="18">
+    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="15">
         <v>2018</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C88" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="19">
+      <c r="D88" s="16">
         <f t="shared" si="4"/>
         <v>60034.670899299999</v>
       </c>
-      <c r="E87" s="20">
+      <c r="E88" s="17">
         <v>8005.7809000000007</v>
       </c>
-      <c r="F87" s="20">
+      <c r="F88" s="17">
         <v>52028.889999300001</v>
       </c>
     </row>
-    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="13">
+    <row r="89" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C89" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D89" s="11">
         <f t="shared" si="4"/>
         <v>59958.963042999996</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E89" s="12">
         <v>8140.3959999999997</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F89" s="13">
         <v>51818.567042999995</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B89" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B90" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B91" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F91" s="30"/>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F92" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Carga_Total_N_Aero.xlsx
+++ b/Carga_Total_N_Aero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EBBF0F-CD6D-4B30-84FE-B089260595D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C18D8A-C920-40D5-BC85-44CCA0E1439B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_30.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="22">
   <si>
     <t>Internacional</t>
   </si>
@@ -101,7 +101,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -303,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -373,6 +373,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -542,8 +551,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F89" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B5:F89" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F90" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B5:F90" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -786,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B1:F92"/>
+  <dimension ref="B1:I93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -843,1529 +852,1565 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="14">
+      <c r="B6" s="31">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="33">
+        <f>SUM(E6:F6)</f>
+        <v>56412.033907099991</v>
+      </c>
+      <c r="E6" s="34">
+        <v>9481.3890399999982</v>
+      </c>
+      <c r="F6" s="35">
+        <v>46930.644867099996</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="14">
         <v>2024</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="16">
-        <f>SUM(E6:F6)</f>
+      <c r="D7" s="16">
+        <f>SUM(E7:F7)</f>
         <v>64500.590389599995</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E7" s="17">
         <v>10701.994849999999</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F7" s="17">
         <v>53798.595539599999</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="9">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="9">
         <v>2024</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="11">
-        <f>SUM(E7:F7)</f>
+      <c r="D8" s="11">
+        <f>SUM(E8:F8)</f>
         <v>66458.242704000004</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E8" s="12">
         <v>11494.17107</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F8" s="13">
         <v>54964.071634</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="14">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="14">
         <v>2024</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="16">
-        <f t="shared" ref="D8" si="0">SUM(E8:F8)</f>
+      <c r="D9" s="16">
+        <f t="shared" ref="D9" si="0">SUM(E9:F9)</f>
         <v>67764.796745800006</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="17">
         <v>11457.6875</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F9" s="17">
         <v>56307.109245799998</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="9">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="9">
         <v>2024</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="11">
-        <f>SUM(E9:F9)</f>
+      <c r="D10" s="11">
+        <f>SUM(E10:F10)</f>
         <v>60656.284715400005</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E10" s="12">
         <v>9752.9897600000004</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>50903.294955400001</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="14">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="14">
         <v>2024</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="16">
-        <f t="shared" ref="D10:D44" si="1">SUM(E10:F10)</f>
+      <c r="D11" s="16">
+        <f t="shared" ref="D11:D45" si="1">SUM(E11:F11)</f>
         <v>65409.835878400001</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E11" s="17">
         <v>10656.19658</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F11" s="17">
         <v>54753.639298399998</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="9">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="9">
         <v>2024</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="11">
-        <f t="shared" ref="D11:D13" si="2">SUM(E11:F11)</f>
+      <c r="D12" s="11">
+        <f t="shared" ref="D12:D14" si="2">SUM(E12:F12)</f>
         <v>65251.52312564</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E12" s="12">
         <v>10090.788336240001</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="13">
         <v>55160.734789399998</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="14">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="14">
         <v>2024</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D13" s="16">
         <f t="shared" si="2"/>
         <v>62612.769596599988</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E13" s="17">
         <v>9471.2998499999994</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F13" s="17">
         <v>53141.469746599993</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="9">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <f t="shared" si="2"/>
         <v>67292.033080699999</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E14" s="12">
         <v>10696.546900000001</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>56595.486180700005</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="14">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="14">
         <v>2024</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D15" s="16">
         <f t="shared" si="1"/>
         <v>65793.232232400012</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E15" s="17">
         <v>9979.4764199999991</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F15" s="17">
         <v>55813.755812400006</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="9">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <f t="shared" si="1"/>
         <v>66756.576457400006</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E16" s="12">
         <v>9290.8170100000007</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>57465.759447400007</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="14">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="14">
         <v>2024</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D17" s="16">
         <f t="shared" si="1"/>
         <v>64183.796049299999</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E17" s="17">
         <v>9254.3675999999996</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F17" s="17">
         <v>54929.428449300001</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="18">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18" s="18">
         <v>2024</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D18" s="20">
         <f t="shared" si="1"/>
         <v>64012.441249099997</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E18" s="21">
         <v>9707.3228199999994</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F18" s="22">
         <v>54305.118429099995</v>
       </c>
     </row>
-    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="23">
+    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="23">
         <v>2023</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C19" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D19" s="25">
         <f t="shared" si="1"/>
         <v>65636.227901699996</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E19" s="26">
         <v>10457.710060000001</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F19" s="26">
         <v>55178.517841699992</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="9">
+      <c r="H19" s="1">
+        <v>55178517.841699995</v>
+      </c>
+      <c r="I19" s="1">
+        <v>10457710.060000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="9">
         <v>2023</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <f t="shared" si="1"/>
         <v>66343.772248199995</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E20" s="12">
         <v>11049.623379999999</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F20" s="13">
         <v>55294.148868199998</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="14">
+      <c r="H20" s="1">
+        <v>55294148.868199997</v>
+      </c>
+      <c r="I20" s="1">
+        <v>11049623.379999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="14">
         <v>2023</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D21" s="16">
         <f t="shared" si="1"/>
         <v>74538.440707999995</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E21" s="17">
         <v>11064.1852</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F21" s="17">
         <v>63474.255507999995</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="9">
+      <c r="H21" s="1">
+        <v>63474255.507999994</v>
+      </c>
+      <c r="I21" s="1">
+        <v>11064185.199999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="9">
         <v>2023</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <f t="shared" si="1"/>
         <v>62577.191087000007</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E22" s="12">
         <v>9698.2422199999983</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>52878.948867000006</v>
       </c>
     </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="14">
+    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="14">
         <v>2023</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D23" s="16">
         <f t="shared" si="1"/>
         <v>67812.791455800005</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E23" s="17">
         <v>10523.07332</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F23" s="17">
         <v>57289.718135800002</v>
       </c>
     </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="9">
+    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="9">
         <v>2023</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <f t="shared" si="1"/>
         <v>67712.269710799999</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E24" s="12">
         <v>9845.1506699999991</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="13">
         <v>57867.119040799997</v>
       </c>
     </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="14">
+    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="14">
         <v>2023</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D25" s="16">
         <f t="shared" si="1"/>
         <v>66844.753326200007</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E25" s="17">
         <v>10335.84496</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F25" s="17">
         <v>56508.908366200005</v>
       </c>
     </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="9">
+    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="9">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <f t="shared" si="1"/>
         <v>66163.140046500004</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E26" s="12">
         <v>10572.075449999998</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>55591.064596500008</v>
       </c>
     </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="14">
+    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="14">
         <v>2023</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D27" s="16">
         <f t="shared" si="1"/>
         <v>62926.446933799991</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E27" s="17">
         <v>9376.9209200000005</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F27" s="17">
         <v>53549.526013799994</v>
       </c>
     </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="9">
+    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="9">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <f t="shared" si="1"/>
         <v>70380.670155799991</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E28" s="12">
         <v>10595.588189999999</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>59785.081965799996</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="14">
+    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="14">
         <v>2023</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D29" s="16">
         <f t="shared" si="1"/>
         <v>61289.109018200004</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E29" s="17">
         <v>8878.071469999999</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F29" s="17">
         <v>52411.037548200002</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="18">
+    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="18">
         <v>2023</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C30" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D30" s="20">
         <f t="shared" si="1"/>
         <v>60647.248166599995</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E30" s="21">
         <v>9596.1618600000002</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F30" s="22">
         <v>51051.086306599995</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="23">
+    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="23">
         <v>2022</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C31" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D31" s="25">
         <f t="shared" si="1"/>
         <v>68611.389849999992</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E31" s="26">
         <v>11506.01224</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F31" s="26">
         <v>57105.377609999996</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="9">
+    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="9">
         <v>2022</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="11">
         <f t="shared" si="1"/>
         <v>68488.553597500009</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E32" s="12">
         <v>11633.829370000001</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F32" s="13">
         <v>56854.724227500003</v>
       </c>
     </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="14">
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="14">
         <v>2022</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D33" s="16">
         <f t="shared" si="1"/>
         <v>70349.636145499986</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E33" s="17">
         <v>10845.919519999999</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F33" s="17">
         <v>59503.71662549999</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="9">
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="9">
         <v>2022</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <f t="shared" si="1"/>
         <v>63724.643873059998</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E34" s="12">
         <v>10054.112030000002</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="13">
         <v>53670.531843059995</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="14">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="14">
         <v>2022</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D35" s="16">
         <f t="shared" si="1"/>
         <v>65648.464610800002</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E35" s="17">
         <v>10458.872009999999</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F35" s="17">
         <v>55189.592600800002</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="9">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="9">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <f t="shared" si="1"/>
         <v>71042.030932399997</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E36" s="12">
         <v>10578.089199999999</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>60463.941732400002</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="14">
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="14">
         <v>2022</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D37" s="16">
         <f t="shared" si="1"/>
         <v>73616.814013199997</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E37" s="17">
         <v>12418.258890000001</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F37" s="17">
         <v>61198.555123199993</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="9">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <f t="shared" si="1"/>
         <v>70521.7755206</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E38" s="12">
         <v>10687.704</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="13">
         <v>59834.071520599995</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="14">
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="14">
         <v>2022</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C39" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D39" s="16">
         <f t="shared" si="1"/>
         <v>65395.389936100008</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E39" s="17">
         <v>10009.792879999999</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F39" s="17">
         <v>55385.597056100007</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="9">
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="9">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <f t="shared" si="1"/>
         <v>70663.687067199993</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E40" s="12">
         <v>10790.40236</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>59873.2847072</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="14">
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="14">
         <v>2022</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D41" s="16">
         <f t="shared" si="1"/>
         <v>62248.796398300008</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E41" s="17">
         <v>9503.8195899999992</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F41" s="17">
         <v>52744.976808300009</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="18">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="18">
         <v>2022</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D42" s="20">
         <f t="shared" si="1"/>
         <v>58480.2683493</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E42" s="21">
         <v>9164.2659699999986</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F42" s="22">
         <v>49316.0023793</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="23">
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="23">
         <v>2021</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D43" s="25">
         <f t="shared" si="1"/>
         <v>71058.534132700006</v>
       </c>
-      <c r="E42" s="26">
+      <c r="E43" s="26">
         <v>11787.100349999999</v>
       </c>
-      <c r="F42" s="26">
+      <c r="F43" s="26">
         <v>59271.433782700005</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="9">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="9">
         <v>2021</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="11">
         <f t="shared" si="1"/>
         <v>70276.799918899997</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E44" s="12">
         <v>11002.488009999999</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F44" s="13">
         <v>59274.311908899996</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="14">
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="14">
         <v>2021</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D45" s="16">
         <f t="shared" si="1"/>
         <v>71581.534583699991</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E45" s="17">
         <v>10533.75974</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F45" s="17">
         <v>61047.774843699997</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="9">
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="9">
         <v>2021</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="11">
-        <f t="shared" ref="D45:D76" si="3">SUM(E45:F45)</f>
+      <c r="D46" s="11">
+        <f t="shared" ref="D46:D77" si="3">SUM(E46:F46)</f>
         <v>63210.818573499993</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E46" s="12">
         <v>9205.0079700000006</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="13">
         <v>54005.810603499995</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="14">
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="14">
         <v>2021</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C47" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D47" s="16">
         <f t="shared" si="3"/>
         <v>64225.819261800003</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E47" s="17">
         <v>9288.4902899999997</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F47" s="17">
         <v>54937.328971800001</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="9">
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="9">
         <v>2021</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="11">
         <f t="shared" si="3"/>
         <v>68599.738738</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E48" s="12">
         <v>9818.9590200000002</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="13">
         <v>58780.779718000005</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="14">
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="14">
         <v>2021</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D49" s="16">
         <f t="shared" si="3"/>
         <v>64729.816312399991</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E49" s="17">
         <v>9122.9778799999985</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F49" s="17">
         <v>55606.838432399993</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="9">
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="9">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <f t="shared" si="3"/>
         <v>65852.654150000002</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E50" s="12">
         <v>8949.1877700000005</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <v>56903.466379999998</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="14">
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="14">
         <v>2021</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C51" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D51" s="16">
         <f t="shared" si="3"/>
         <v>63906.943998100003</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E51" s="17">
         <v>8684.6848300000001</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F51" s="17">
         <v>55222.259168100005</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="9">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="9">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <f t="shared" si="3"/>
         <v>70158.308097000001</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E52" s="12">
         <v>9170.0568799999983</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>60988.251216999997</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="14">
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="14">
         <v>2021</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C53" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D53" s="16">
         <f t="shared" si="3"/>
         <v>60491.315076000006</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E53" s="17">
         <v>7767.4261999999999</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F53" s="17">
         <v>52723.888876000005</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="18">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="18">
         <v>2021</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C54" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D54" s="20">
         <f t="shared" si="3"/>
         <v>63725.913205999997</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E54" s="21">
         <v>8464.5160599999999</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F54" s="22">
         <v>55261.397145999996</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="23">
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="23">
         <v>2020</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="25">
+      <c r="D55" s="25">
         <f t="shared" si="3"/>
         <v>66303.668197999999</v>
       </c>
-      <c r="E54" s="26">
+      <c r="E55" s="26">
         <v>10783.384609999999</v>
       </c>
-      <c r="F54" s="26">
+      <c r="F55" s="26">
         <v>55520.283587999998</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="9">
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="9">
         <v>2020</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <f t="shared" si="3"/>
         <v>67964.463443000001</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E56" s="12">
         <v>10277.794900000001</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F56" s="13">
         <v>57686.668543</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="14">
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="14">
         <v>2020</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D57" s="16">
         <f t="shared" si="3"/>
         <v>66309.962777399996</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E57" s="17">
         <v>9671.3324499999999</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F57" s="17">
         <v>56638.630327399995</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="9">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="9">
         <v>2020</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <f t="shared" si="3"/>
         <v>57113.372982199995</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E58" s="12">
         <v>9190.6065299999991</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F58" s="13">
         <v>47922.766452199998</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="14">
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="14">
         <v>2020</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D59" s="16">
         <f t="shared" si="3"/>
         <v>52149.208218500004</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E59" s="17">
         <v>7626.2473300000001</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F59" s="17">
         <v>44522.960888500005</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="9">
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="9">
         <v>2020</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <f t="shared" si="3"/>
         <v>46691.5235245</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E60" s="12">
         <v>6651.94434</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>40039.579184499999</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="14">
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="14">
         <v>2020</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D61" s="16">
         <f t="shared" si="3"/>
         <v>42608.422072199995</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E61" s="17">
         <v>5692.9747600000001</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F61" s="17">
         <v>36915.447312199998</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="9">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="9">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <f t="shared" si="3"/>
         <v>38705.075583899998</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E62" s="12">
         <v>4788.3910099999994</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F62" s="13">
         <v>33916.684573899998</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="14">
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="14">
         <v>2020</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C63" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D63" s="16">
         <f t="shared" si="3"/>
         <v>33589.608145099999</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E63" s="17">
         <v>4465.3602699999992</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F63" s="17">
         <v>29124.247875100002</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="9">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="9">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <f t="shared" si="3"/>
         <v>55854.879077099999</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E64" s="12">
         <v>7632.2904900000003</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>48222.588587099999</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="14">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="14">
         <v>2020</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C65" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D65" s="16">
         <f t="shared" si="3"/>
         <v>55217.324218999995</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E65" s="17">
         <v>8133.2827100000013</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F65" s="17">
         <v>47084.041508999995</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="18">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="18">
         <v>2020</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C66" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D66" s="20">
         <f t="shared" si="3"/>
         <v>58590.469882999991</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E66" s="21">
         <v>9265.3395099999998</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F66" s="22">
         <v>49325.130372999993</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="23">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="23">
         <v>2019</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="25">
+      <c r="D67" s="25">
         <f t="shared" si="3"/>
         <v>66261.243409000002</v>
       </c>
-      <c r="E66" s="26">
+      <c r="E67" s="26">
         <v>12436.845440000001</v>
       </c>
-      <c r="F66" s="26">
+      <c r="F67" s="26">
         <v>53824.397969000005</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="9">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="9">
         <v>2019</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <f t="shared" si="3"/>
         <v>68605.822660000005</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E68" s="12">
         <v>13008.518850000002</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F68" s="13">
         <v>55597.303810000005</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="14">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="14">
         <v>2019</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D69" s="16">
         <f t="shared" si="3"/>
         <v>68729.068468999991</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E69" s="17">
         <v>13397.07763</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F69" s="17">
         <v>55331.990838999998</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="9">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="9">
         <v>2019</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <f t="shared" si="3"/>
         <v>63953.437825000008</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E70" s="12">
         <v>11041.58344</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F70" s="13">
         <v>52911.854385000006</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="14">
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="14">
         <v>2019</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D71" s="16">
         <f t="shared" si="3"/>
         <v>64842.325497000005</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E71" s="17">
         <v>11467.57286</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F71" s="17">
         <v>53374.752637000005</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="9">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="9">
         <v>2019</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <f t="shared" si="3"/>
         <v>65696.806677</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E72" s="12">
         <v>11392.176509999999</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F72" s="13">
         <v>54304.630167000003</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="14">
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="14">
         <v>2019</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C73" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D73" s="16">
         <f t="shared" si="3"/>
         <v>63546.111140000001</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E73" s="17">
         <v>11094.79</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F73" s="17">
         <v>52451.32114</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="9">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="9">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <f t="shared" si="3"/>
         <v>65954.17841600001</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E74" s="12">
         <v>12257.484480000001</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F74" s="13">
         <v>53696.693936000003</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="14">
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="14">
         <v>2019</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C75" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D75" s="16">
         <f t="shared" si="3"/>
         <v>66025.018232000002</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E75" s="17">
         <v>12001.947099999999</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F75" s="17">
         <v>54023.071131999997</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="9">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="9">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <f t="shared" si="3"/>
         <v>72963.126033400011</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E76" s="12">
         <v>12358.550210000001</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="13">
         <v>60604.575823400002</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="14">
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="14">
         <v>2019</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C77" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D77" s="16">
         <f t="shared" si="3"/>
         <v>62080.146123999999</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E77" s="17">
         <v>11336.3799</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F77" s="17">
         <v>50743.766223999999</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="18">
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="18">
         <v>2019</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C78" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="20">
-        <f t="shared" ref="D77:D89" si="4">SUM(E77:F77)</f>
+      <c r="D78" s="20">
+        <f t="shared" ref="D78:D90" si="4">SUM(E78:F78)</f>
         <v>66069.786819700006</v>
       </c>
-      <c r="E77" s="21">
+      <c r="E78" s="21">
         <v>13827.258220000002</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F78" s="22">
         <v>52242.528599700003</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="15">
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="15">
         <v>2018</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C79" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D79" s="16">
         <f t="shared" si="4"/>
         <v>66933.167482000004</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E79" s="17">
         <v>9081.5239999999994</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F79" s="17">
         <v>57851.643481999999</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="10">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="10">
         <v>2018</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <f t="shared" si="4"/>
         <v>71177.636041999998</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E80" s="12">
         <v>10497.208000000001</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F80" s="13">
         <v>60680.428042</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="15">
+    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="15">
         <v>2018</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C81" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D81" s="16">
         <f t="shared" si="4"/>
         <v>71661.010011999999</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E81" s="17">
         <v>9991.6759999999995</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F81" s="17">
         <v>61669.334011999999</v>
       </c>
     </row>
-    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="10">
+    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <f t="shared" si="4"/>
         <v>66201.479049599991</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E82" s="12">
         <v>8721.2330000000002</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F82" s="13">
         <v>57480.246049599999</v>
       </c>
     </row>
-    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="15">
+    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="15">
         <v>2018</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C83" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D83" s="16">
         <f t="shared" si="4"/>
         <v>65268.307869800003</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E83" s="17">
         <v>9262.4320000000007</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F83" s="17">
         <v>56005.875869800002</v>
       </c>
     </row>
-    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="10">
+    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <f t="shared" si="4"/>
         <v>67408.032546999995</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E84" s="12">
         <v>8453.6</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F84" s="13">
         <v>58954.432546999997</v>
       </c>
     </row>
-    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="15">
+    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="15">
         <v>2018</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C85" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D85" s="16">
         <f t="shared" si="4"/>
         <v>69001.484601999997</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E85" s="17">
         <v>9016.5510999999988</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F85" s="17">
         <v>59984.933502</v>
       </c>
     </row>
-    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="10">
+    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <f t="shared" si="4"/>
         <v>68248.467609999992</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E86" s="12">
         <v>9692.3696600000003</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F86" s="13">
         <v>58556.097949999996</v>
       </c>
     </row>
-    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="15">
+    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="15">
         <v>2018</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C87" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="16">
+      <c r="D87" s="16">
         <f t="shared" si="4"/>
         <v>71464.30909499999</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E87" s="17">
         <v>9137.2187799999992</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F87" s="17">
         <v>62327.090314999994</v>
       </c>
     </row>
-    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="10">
+    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <f t="shared" si="4"/>
         <v>72436.418715000007</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E88" s="12">
         <v>9317.3212800000001</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F88" s="13">
         <v>63119.097435000003</v>
       </c>
     </row>
-    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="15">
+    <row r="89" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="15">
         <v>2018</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C89" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D89" s="16">
         <f t="shared" si="4"/>
         <v>60034.670899299999</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E89" s="17">
         <v>8005.7809000000007</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F89" s="17">
         <v>52028.889999300001</v>
       </c>
     </row>
-    <row r="89" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="10">
+    <row r="90" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="10">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="11">
         <f t="shared" si="4"/>
         <v>59958.963042999996</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E90" s="12">
         <v>8140.3959999999997</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F90" s="13">
         <v>51818.567042999995</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B90" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B91" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B92" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F92" s="27"/>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F93" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Carga_Total_N_Aero.xlsx
+++ b/Carga_Total_N_Aero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C18D8A-C920-40D5-BC85-44CCA0E1439B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22F88EA-24A3-4582-9294-A64C1B9F6876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_30.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="22">
   <si>
     <t>Internacional</t>
   </si>
@@ -101,7 +101,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
@@ -111,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -373,15 +373,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -468,7 +464,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -551,8 +547,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F90" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B5:F90" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F91" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B5:F91" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -795,13 +791,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B1:I93"/>
+  <dimension ref="B1:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.25" style="1" customWidth="1"/>
@@ -812,20 +808,20 @@
     <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:6" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:6" ht="15" customHeight="1"/>
+    <row r="2" spans="2:6" ht="18">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="28" t="s">
@@ -834,7 +830,7 @@
       <c r="E4" s="29"/>
       <c r="F4" s="30"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6">
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
@@ -851,1566 +847,1584 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6">
       <c r="B6" s="31">
         <v>2025</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="32">
+        <f>SUM(E6:F6)</f>
+        <v>58549.759313595176</v>
+      </c>
+      <c r="E6" s="33">
+        <v>9040.4374190100007</v>
+      </c>
+      <c r="F6" s="33">
+        <v>49509.321894585177</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="18">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="33">
-        <f>SUM(E6:F6)</f>
-        <v>56412.033907099991</v>
-      </c>
-      <c r="E6" s="34">
-        <v>9481.3890399999982</v>
-      </c>
-      <c r="F6" s="35">
-        <v>46930.644867099996</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="14">
+      <c r="D7" s="20">
+        <f>SUM(E7:F7)</f>
+        <v>56412.033907040895</v>
+      </c>
+      <c r="E7" s="21">
+        <v>9481.3890400000037</v>
+      </c>
+      <c r="F7" s="22">
+        <v>46930.644867040894</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="14">
         <v>2024</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="16">
-        <f>SUM(E7:F7)</f>
-        <v>64500.590389599995</v>
-      </c>
-      <c r="E7" s="17">
-        <v>10701.994849999999</v>
-      </c>
-      <c r="F7" s="17">
-        <v>53798.595539599999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="9">
+      <c r="D8" s="16">
+        <f>SUM(E8:F8)</f>
+        <v>64500.590390157522</v>
+      </c>
+      <c r="E8" s="17">
+        <v>10701.994849999997</v>
+      </c>
+      <c r="F8" s="17">
+        <v>53798.595540157527</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="9">
         <v>2024</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11">
-        <f>SUM(E8:F8)</f>
-        <v>66458.242704000004</v>
-      </c>
-      <c r="E8" s="12">
-        <v>11494.17107</v>
-      </c>
-      <c r="F8" s="13">
-        <v>54964.071634</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="14">
+      <c r="D9" s="11">
+        <f>SUM(E9:F9)</f>
+        <v>66458.242703832133</v>
+      </c>
+      <c r="E9" s="12">
+        <v>11494.171069999997</v>
+      </c>
+      <c r="F9" s="13">
+        <v>54964.071633832144</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="14">
         <v>2024</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="16">
-        <f t="shared" ref="D9" si="0">SUM(E9:F9)</f>
-        <v>67764.796745800006</v>
-      </c>
-      <c r="E9" s="17">
+      <c r="D10" s="16">
+        <f t="shared" ref="D10" si="0">SUM(E10:F10)</f>
+        <v>67764.796745573578</v>
+      </c>
+      <c r="E10" s="17">
         <v>11457.6875</v>
       </c>
-      <c r="F9" s="17">
-        <v>56307.109245799998</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="9">
+      <c r="F10" s="17">
+        <v>56307.109245573578</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="11">
-        <f>SUM(E10:F10)</f>
-        <v>60656.284715400005</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="D11" s="11">
+        <f>SUM(E11:F11)</f>
+        <v>60656.284715460308</v>
+      </c>
+      <c r="E11" s="12">
         <v>9752.9897600000004</v>
       </c>
-      <c r="F10" s="13">
-        <v>50903.294955400001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="14">
+      <c r="F11" s="13">
+        <v>50903.294955460311</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="14">
         <v>2024</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="16">
-        <f t="shared" ref="D11:D45" si="1">SUM(E11:F11)</f>
-        <v>65409.835878400001</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="D12" s="16">
+        <f t="shared" ref="D12:D46" si="1">SUM(E12:F12)</f>
+        <v>65409.835878821003</v>
+      </c>
+      <c r="E12" s="17">
         <v>10656.19658</v>
       </c>
-      <c r="F11" s="17">
-        <v>54753.639298399998</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="9">
+      <c r="F12" s="17">
+        <v>54753.639298821006</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="11">
-        <f t="shared" ref="D12:D14" si="2">SUM(E12:F12)</f>
-        <v>65251.52312564</v>
-      </c>
-      <c r="E12" s="12">
-        <v>10090.788336240001</v>
-      </c>
-      <c r="F12" s="13">
-        <v>55160.734789399998</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="14">
+      <c r="D13" s="11">
+        <f t="shared" ref="D13:D15" si="2">SUM(E13:F13)</f>
+        <v>65251.523125742053</v>
+      </c>
+      <c r="E13" s="12">
+        <v>10090.788336235837</v>
+      </c>
+      <c r="F13" s="13">
+        <v>55160.734789506212</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="14">
         <v>2024</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D14" s="16">
         <f t="shared" si="2"/>
-        <v>62612.769596599988</v>
-      </c>
-      <c r="E13" s="17">
-        <v>9471.2998499999994</v>
-      </c>
-      <c r="F13" s="17">
-        <v>53141.469746599993</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="9">
+        <v>62612.769596581908</v>
+      </c>
+      <c r="E14" s="17">
+        <v>9471.2998499999976</v>
+      </c>
+      <c r="F14" s="17">
+        <v>53141.469746581912</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <f t="shared" si="2"/>
-        <v>67292.033080699999</v>
-      </c>
-      <c r="E14" s="12">
+        <v>67292.033080706242</v>
+      </c>
+      <c r="E15" s="12">
         <v>10696.546900000001</v>
       </c>
-      <c r="F14" s="13">
-        <v>56595.486180700005</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="14">
+      <c r="F15" s="13">
+        <v>56595.486180706241</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="14">
         <v>2024</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="16">
-        <f t="shared" si="1"/>
-        <v>65793.232232400012</v>
-      </c>
-      <c r="E15" s="17">
-        <v>9979.4764199999991</v>
-      </c>
-      <c r="F15" s="17">
-        <v>55813.755812400006</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="9">
+      <c r="D16" s="16">
+        <f t="shared" si="1"/>
+        <v>65793.232232409835</v>
+      </c>
+      <c r="E16" s="17">
+        <v>9979.4764199999972</v>
+      </c>
+      <c r="F16" s="17">
+        <v>55813.755812409843</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="9">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="11">
-        <f t="shared" si="1"/>
-        <v>66756.576457400006</v>
-      </c>
-      <c r="E16" s="12">
-        <v>9290.8170100000007</v>
-      </c>
-      <c r="F16" s="13">
-        <v>57465.759447400007</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B17" s="14">
+      <c r="D17" s="11">
+        <f t="shared" si="1"/>
+        <v>66756.57645741482</v>
+      </c>
+      <c r="E17" s="12">
+        <v>9290.8170100000025</v>
+      </c>
+      <c r="F17" s="13">
+        <v>57465.759447414814</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="14">
         <v>2024</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="16">
-        <f t="shared" si="1"/>
-        <v>64183.796049299999</v>
-      </c>
-      <c r="E17" s="17">
-        <v>9254.3675999999996</v>
-      </c>
-      <c r="F17" s="17">
-        <v>54929.428449300001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B18" s="18">
+      <c r="D18" s="16">
+        <f t="shared" si="1"/>
+        <v>64183.796049296361</v>
+      </c>
+      <c r="E18" s="17">
+        <v>9254.3676000000014</v>
+      </c>
+      <c r="F18" s="17">
+        <v>54929.428449296363</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="18">
         <v>2024</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="20">
-        <f t="shared" si="1"/>
-        <v>64012.441249099997</v>
-      </c>
-      <c r="E18" s="21">
+      <c r="D19" s="20">
+        <f t="shared" si="1"/>
+        <v>64012.44124909024</v>
+      </c>
+      <c r="E19" s="21">
         <v>9707.3228199999994</v>
       </c>
-      <c r="F18" s="22">
-        <v>54305.118429099995</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="23">
+      <c r="F19" s="22">
+        <v>54305.118429090238</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" hidden="1">
+      <c r="B20" s="23">
         <v>2023</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C20" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="25">
-        <f t="shared" si="1"/>
-        <v>65636.227901699996</v>
-      </c>
-      <c r="E19" s="26">
+      <c r="D20" s="25">
+        <f t="shared" si="1"/>
+        <v>65636.227902030922</v>
+      </c>
+      <c r="E20" s="26">
         <v>10457.710060000001</v>
       </c>
-      <c r="F19" s="26">
-        <v>55178.517841699992</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="F20" s="26">
+        <v>55178.517842030924</v>
+      </c>
+      <c r="H20" s="1">
         <v>55178517.841699995</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I20" s="1">
         <v>10457710.060000001</v>
       </c>
     </row>
-    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="9">
+    <row r="21" spans="2:9" hidden="1">
+      <c r="B21" s="9">
         <v>2023</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="11">
-        <f t="shared" si="1"/>
-        <v>66343.772248199995</v>
-      </c>
-      <c r="E20" s="12">
-        <v>11049.623379999999</v>
-      </c>
-      <c r="F20" s="13">
-        <v>55294.148868199998</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="D21" s="11">
+        <f t="shared" si="1"/>
+        <v>66343.772248230161</v>
+      </c>
+      <c r="E21" s="12">
+        <v>11049.623379999995</v>
+      </c>
+      <c r="F21" s="13">
+        <v>55294.148868230172</v>
+      </c>
+      <c r="H21" s="1">
         <v>55294148.868199997</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I21" s="1">
         <v>11049623.379999999</v>
       </c>
     </row>
-    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="14">
+    <row r="22" spans="2:9" hidden="1">
+      <c r="B22" s="14">
         <v>2023</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="16">
-        <f t="shared" si="1"/>
-        <v>74538.440707999995</v>
-      </c>
-      <c r="E21" s="17">
-        <v>11064.1852</v>
-      </c>
-      <c r="F21" s="17">
-        <v>63474.255507999995</v>
-      </c>
-      <c r="H21" s="1">
+      <c r="D22" s="16">
+        <f t="shared" si="1"/>
+        <v>74538.440708327311</v>
+      </c>
+      <c r="E22" s="17">
+        <v>11064.185199999994</v>
+      </c>
+      <c r="F22" s="17">
+        <v>63474.255508327318</v>
+      </c>
+      <c r="H22" s="1">
         <v>63474255.507999994</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I22" s="1">
         <v>11064185.199999999</v>
       </c>
     </row>
-    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="9">
+    <row r="23" spans="2:9" hidden="1">
+      <c r="B23" s="9">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="11">
-        <f t="shared" si="1"/>
-        <v>62577.191087000007</v>
-      </c>
-      <c r="E22" s="12">
-        <v>9698.2422199999983</v>
-      </c>
-      <c r="F22" s="13">
-        <v>52878.948867000006</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="14">
+      <c r="D23" s="11">
+        <f t="shared" si="1"/>
+        <v>62577.19108720139</v>
+      </c>
+      <c r="E23" s="12">
+        <v>9698.2422200000001</v>
+      </c>
+      <c r="F23" s="13">
+        <v>52878.94886720139</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" hidden="1">
+      <c r="B24" s="14">
         <v>2023</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="16">
-        <f t="shared" si="1"/>
-        <v>67812.791455800005</v>
-      </c>
-      <c r="E23" s="17">
-        <v>10523.07332</v>
-      </c>
-      <c r="F23" s="17">
-        <v>57289.718135800002</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="9">
+      <c r="D24" s="16">
+        <f t="shared" si="1"/>
+        <v>67812.791455821265</v>
+      </c>
+      <c r="E24" s="17">
+        <v>10523.073319999998</v>
+      </c>
+      <c r="F24" s="17">
+        <v>57289.718135821262</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" hidden="1">
+      <c r="B25" s="9">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="11">
-        <f t="shared" si="1"/>
-        <v>67712.269710799999</v>
-      </c>
-      <c r="E24" s="12">
-        <v>9845.1506699999991</v>
-      </c>
-      <c r="F24" s="13">
-        <v>57867.119040799997</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="14">
+      <c r="D25" s="11">
+        <f t="shared" si="1"/>
+        <v>67712.269710793204</v>
+      </c>
+      <c r="E25" s="12">
+        <v>9845.1506699999973</v>
+      </c>
+      <c r="F25" s="13">
+        <v>57867.119040793208</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" hidden="1">
+      <c r="B26" s="14">
         <v>2023</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="16">
-        <f t="shared" si="1"/>
-        <v>66844.753326200007</v>
-      </c>
-      <c r="E25" s="17">
-        <v>10335.84496</v>
-      </c>
-      <c r="F25" s="17">
-        <v>56508.908366200005</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="9">
+      <c r="D26" s="16">
+        <f t="shared" si="1"/>
+        <v>66844.753326239559</v>
+      </c>
+      <c r="E26" s="17">
+        <v>10335.844959999999</v>
+      </c>
+      <c r="F26" s="17">
+        <v>56508.908366239557</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" hidden="1">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="11">
-        <f t="shared" si="1"/>
-        <v>66163.140046500004</v>
-      </c>
-      <c r="E26" s="12">
+      <c r="D27" s="11">
+        <f t="shared" si="1"/>
+        <v>66163.140046463639</v>
+      </c>
+      <c r="E27" s="12">
         <v>10572.075449999998</v>
       </c>
-      <c r="F26" s="13">
-        <v>55591.064596500008</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="14">
+      <c r="F27" s="13">
+        <v>55591.064596463635</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" hidden="1">
+      <c r="B28" s="14">
         <v>2023</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="16">
-        <f t="shared" si="1"/>
-        <v>62926.446933799991</v>
-      </c>
-      <c r="E27" s="17">
+      <c r="D28" s="16">
+        <f t="shared" si="1"/>
+        <v>62926.446933830361</v>
+      </c>
+      <c r="E28" s="17">
         <v>9376.9209200000005</v>
       </c>
-      <c r="F27" s="17">
-        <v>53549.526013799994</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="9">
+      <c r="F28" s="17">
+        <v>53549.526013830357</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" hidden="1">
+      <c r="B29" s="9">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="11">
-        <f t="shared" si="1"/>
-        <v>70380.670155799991</v>
-      </c>
-      <c r="E28" s="12">
+      <c r="D29" s="11">
+        <f t="shared" si="1"/>
+        <v>70380.670155785672</v>
+      </c>
+      <c r="E29" s="12">
         <v>10595.588189999999</v>
       </c>
-      <c r="F28" s="13">
-        <v>59785.081965799996</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="14">
+      <c r="F29" s="13">
+        <v>59785.08196578567</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" hidden="1">
+      <c r="B30" s="14">
         <v>2023</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="16">
-        <f t="shared" si="1"/>
-        <v>61289.109018200004</v>
-      </c>
-      <c r="E29" s="17">
-        <v>8878.071469999999</v>
-      </c>
-      <c r="F29" s="17">
-        <v>52411.037548200002</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="18">
+      <c r="D30" s="16">
+        <f t="shared" si="1"/>
+        <v>61289.109018179544</v>
+      </c>
+      <c r="E30" s="17">
+        <v>8878.0714700000008</v>
+      </c>
+      <c r="F30" s="17">
+        <v>52411.037548179542</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" hidden="1">
+      <c r="B31" s="18">
         <v>2023</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C31" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="20">
-        <f t="shared" si="1"/>
-        <v>60647.248166599995</v>
-      </c>
-      <c r="E30" s="21">
+      <c r="D31" s="20">
+        <f t="shared" si="1"/>
+        <v>60647.248166616067</v>
+      </c>
+      <c r="E31" s="21">
         <v>9596.1618600000002</v>
       </c>
-      <c r="F30" s="22">
-        <v>51051.086306599995</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="23">
+      <c r="F31" s="22">
+        <v>51051.086306616067</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" hidden="1">
+      <c r="B32" s="23">
         <v>2022</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C32" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="25">
-        <f t="shared" si="1"/>
-        <v>68611.389849999992</v>
-      </c>
-      <c r="E31" s="26">
+      <c r="D32" s="25">
+        <f t="shared" si="1"/>
+        <v>68588.044349950811</v>
+      </c>
+      <c r="E32" s="26">
         <v>11506.01224</v>
       </c>
-      <c r="F31" s="26">
-        <v>57105.377609999996</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="9">
+      <c r="F32" s="26">
+        <v>57082.032109950815</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="9">
         <v>2022</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="11">
-        <f t="shared" si="1"/>
-        <v>68488.553597500009</v>
-      </c>
-      <c r="E32" s="12">
-        <v>11633.829370000001</v>
-      </c>
-      <c r="F32" s="13">
-        <v>56854.724227500003</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="14">
+      <c r="D33" s="11">
+        <f t="shared" si="1"/>
+        <v>68464.795097486145</v>
+      </c>
+      <c r="E33" s="12">
+        <v>11633.829369999999</v>
+      </c>
+      <c r="F33" s="13">
+        <v>56830.965727486146</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="14">
         <v>2022</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C34" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="16">
-        <f t="shared" si="1"/>
-        <v>70349.636145499986</v>
-      </c>
-      <c r="E33" s="17">
-        <v>10845.919519999999</v>
-      </c>
-      <c r="F33" s="17">
-        <v>59503.71662549999</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="9">
+      <c r="D34" s="16">
+        <f t="shared" si="1"/>
+        <v>70337.920445471551</v>
+      </c>
+      <c r="E34" s="17">
+        <v>10845.919520000005</v>
+      </c>
+      <c r="F34" s="17">
+        <v>59492.000925471548</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35" s="9">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="11">
-        <f t="shared" si="1"/>
-        <v>63724.643873059998</v>
-      </c>
-      <c r="E34" s="12">
+      <c r="D35" s="11">
+        <f t="shared" si="1"/>
+        <v>63717.495873095577</v>
+      </c>
+      <c r="E35" s="12">
         <v>10054.112030000002</v>
       </c>
-      <c r="F34" s="13">
-        <v>53670.531843059995</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="14">
+      <c r="F35" s="13">
+        <v>53663.383843095573</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36" s="14">
         <v>2022</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C36" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="16">
-        <f t="shared" si="1"/>
-        <v>65648.464610800002</v>
-      </c>
-      <c r="E35" s="17">
-        <v>10458.872009999999</v>
-      </c>
-      <c r="F35" s="17">
-        <v>55189.592600800002</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="9">
+      <c r="D36" s="16">
+        <f t="shared" si="1"/>
+        <v>65644.980710849399</v>
+      </c>
+      <c r="E36" s="17">
+        <v>10458.872009999997</v>
+      </c>
+      <c r="F36" s="17">
+        <v>55186.1087008494</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" hidden="1">
+      <c r="B37" s="9">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="11">
-        <f t="shared" si="1"/>
-        <v>71042.030932399997</v>
-      </c>
-      <c r="E36" s="12">
-        <v>10578.089199999999</v>
-      </c>
-      <c r="F36" s="13">
-        <v>60463.941732400002</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="14">
+      <c r="D37" s="11">
+        <f t="shared" si="1"/>
+        <v>71001.646432407404</v>
+      </c>
+      <c r="E37" s="12">
+        <v>10578.0892</v>
+      </c>
+      <c r="F37" s="13">
+        <v>60423.557232407409</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" hidden="1">
+      <c r="B38" s="14">
         <v>2022</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C38" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="16">
-        <f t="shared" si="1"/>
-        <v>73616.814013199997</v>
-      </c>
-      <c r="E37" s="17">
-        <v>12418.258890000001</v>
-      </c>
-      <c r="F37" s="17">
-        <v>61198.555123199993</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="9">
+      <c r="D38" s="16">
+        <f t="shared" si="1"/>
+        <v>73576.613353201523</v>
+      </c>
+      <c r="E38" s="17">
+        <v>12418.258889999999</v>
+      </c>
+      <c r="F38" s="17">
+        <v>61158.354463201526</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" hidden="1">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="11">
-        <f t="shared" si="1"/>
-        <v>70521.7755206</v>
-      </c>
-      <c r="E38" s="12">
-        <v>10687.704</v>
-      </c>
-      <c r="F38" s="13">
-        <v>59834.071520599995</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="14">
+      <c r="D39" s="11">
+        <f t="shared" si="1"/>
+        <v>70478.224170624977</v>
+      </c>
+      <c r="E39" s="12">
+        <v>10687.703999999998</v>
+      </c>
+      <c r="F39" s="13">
+        <v>59790.520170624986</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" hidden="1">
+      <c r="B40" s="14">
         <v>2022</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C40" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D40" s="16">
         <f t="shared" si="1"/>
         <v>65395.389936100008</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E40" s="17">
         <v>10009.792879999999</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F40" s="17">
         <v>55385.597056100007</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="9">
+    <row r="41" spans="2:6" hidden="1">
+      <c r="B41" s="9">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <f t="shared" si="1"/>
         <v>70663.687067199993</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E41" s="12">
         <v>10790.40236</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>59873.2847072</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="14">
+    <row r="42" spans="2:6" hidden="1">
+      <c r="B42" s="14">
         <v>2022</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D42" s="16">
         <f t="shared" si="1"/>
         <v>62248.796398300008</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E42" s="17">
         <v>9503.8195899999992</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F42" s="17">
         <v>52744.976808300009</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="18">
+    <row r="43" spans="2:6" hidden="1">
+      <c r="B43" s="18">
         <v>2022</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C43" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D43" s="20">
         <f t="shared" si="1"/>
         <v>58480.2683493</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E43" s="21">
         <v>9164.2659699999986</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F43" s="22">
         <v>49316.0023793</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="23">
+    <row r="44" spans="2:6" hidden="1">
+      <c r="B44" s="23">
         <v>2021</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C44" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D44" s="25">
         <f t="shared" si="1"/>
         <v>71058.534132700006</v>
       </c>
-      <c r="E43" s="26">
+      <c r="E44" s="26">
         <v>11787.100349999999</v>
       </c>
-      <c r="F43" s="26">
+      <c r="F44" s="26">
         <v>59271.433782700005</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="9">
+    <row r="45" spans="2:6" hidden="1">
+      <c r="B45" s="9">
         <v>2021</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <f t="shared" si="1"/>
         <v>70276.799918899997</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E45" s="12">
         <v>11002.488009999999</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="13">
         <v>59274.311908899996</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="14">
+    <row r="46" spans="2:6" hidden="1">
+      <c r="B46" s="14">
         <v>2021</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C46" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D46" s="16">
         <f t="shared" si="1"/>
         <v>71581.534583699991</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E46" s="17">
         <v>10533.75974</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F46" s="17">
         <v>61047.774843699997</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="9">
+    <row r="47" spans="2:6" hidden="1">
+      <c r="B47" s="9">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="11">
-        <f t="shared" ref="D46:D77" si="3">SUM(E46:F46)</f>
+      <c r="D47" s="11">
+        <f t="shared" ref="D47:D78" si="3">SUM(E47:F47)</f>
         <v>63210.818573499993</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E47" s="12">
         <v>9205.0079700000006</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>54005.810603499995</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="14">
+    <row r="48" spans="2:6" hidden="1">
+      <c r="B48" s="14">
         <v>2021</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C48" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D48" s="16">
         <f t="shared" si="3"/>
         <v>64225.819261800003</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E48" s="17">
         <v>9288.4902899999997</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F48" s="17">
         <v>54937.328971800001</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="9">
+    <row r="49" spans="2:6" hidden="1">
+      <c r="B49" s="9">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="11">
         <f t="shared" si="3"/>
         <v>68599.738738</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E49" s="12">
         <v>9818.9590200000002</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F49" s="13">
         <v>58780.779718000005</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="14">
+    <row r="50" spans="2:6" hidden="1">
+      <c r="B50" s="14">
         <v>2021</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D50" s="16">
         <f t="shared" si="3"/>
         <v>64729.816312399991</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E50" s="17">
         <v>9122.9778799999985</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F50" s="17">
         <v>55606.838432399993</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="9">
+    <row r="51" spans="2:6" hidden="1">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <f t="shared" si="3"/>
         <v>65852.654150000002</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E51" s="12">
         <v>8949.1877700000005</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="13">
         <v>56903.466379999998</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="14">
+    <row r="52" spans="2:6" hidden="1">
+      <c r="B52" s="14">
         <v>2021</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C52" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D52" s="16">
         <f t="shared" si="3"/>
         <v>63906.943998100003</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E52" s="17">
         <v>8684.6848300000001</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F52" s="17">
         <v>55222.259168100005</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="9">
+    <row r="53" spans="2:6" hidden="1">
+      <c r="B53" s="9">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="11">
         <f t="shared" si="3"/>
         <v>70158.308097000001</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E53" s="12">
         <v>9170.0568799999983</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <v>60988.251216999997</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="14">
+    <row r="54" spans="2:6" hidden="1">
+      <c r="B54" s="14">
         <v>2021</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C54" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D54" s="16">
         <f t="shared" si="3"/>
         <v>60491.315076000006</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E54" s="17">
         <v>7767.4261999999999</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F54" s="17">
         <v>52723.888876000005</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="18">
+    <row r="55" spans="2:6" hidden="1">
+      <c r="B55" s="18">
         <v>2021</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C55" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D55" s="20">
         <f t="shared" si="3"/>
         <v>63725.913205999997</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E55" s="21">
         <v>8464.5160599999999</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F55" s="22">
         <v>55261.397145999996</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="23">
+    <row r="56" spans="2:6" hidden="1">
+      <c r="B56" s="23">
         <v>2020</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C56" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="25">
+      <c r="D56" s="25">
         <f t="shared" si="3"/>
         <v>66303.668197999999</v>
       </c>
-      <c r="E55" s="26">
+      <c r="E56" s="26">
         <v>10783.384609999999</v>
       </c>
-      <c r="F55" s="26">
+      <c r="F56" s="26">
         <v>55520.283587999998</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="9">
+    <row r="57" spans="2:6" hidden="1">
+      <c r="B57" s="9">
         <v>2020</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <f t="shared" si="3"/>
         <v>67964.463443000001</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E57" s="12">
         <v>10277.794900000001</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F57" s="13">
         <v>57686.668543</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="14">
+    <row r="58" spans="2:6" hidden="1">
+      <c r="B58" s="14">
         <v>2020</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C58" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D58" s="16">
         <f t="shared" si="3"/>
         <v>66309.962777399996</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E58" s="17">
         <v>9671.3324499999999</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F58" s="17">
         <v>56638.630327399995</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="9">
+    <row r="59" spans="2:6" hidden="1">
+      <c r="B59" s="9">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <f t="shared" si="3"/>
         <v>57113.372982199995</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E59" s="12">
         <v>9190.6065299999991</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>47922.766452199998</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="14">
+    <row r="60" spans="2:6" hidden="1">
+      <c r="B60" s="14">
         <v>2020</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C60" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D60" s="16">
         <f t="shared" si="3"/>
         <v>52149.208218500004</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E60" s="17">
         <v>7626.2473300000001</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F60" s="17">
         <v>44522.960888500005</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="9">
+    <row r="61" spans="2:6" hidden="1">
+      <c r="B61" s="9">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <f t="shared" si="3"/>
         <v>46691.5235245</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E61" s="12">
         <v>6651.94434</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F61" s="13">
         <v>40039.579184499999</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="14">
+    <row r="62" spans="2:6" hidden="1">
+      <c r="B62" s="14">
         <v>2020</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C62" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D62" s="16">
         <f t="shared" si="3"/>
         <v>42608.422072199995</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E62" s="17">
         <v>5692.9747600000001</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F62" s="17">
         <v>36915.447312199998</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="9">
+    <row r="63" spans="2:6" hidden="1">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <f t="shared" si="3"/>
         <v>38705.075583899998</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E63" s="12">
         <v>4788.3910099999994</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="13">
         <v>33916.684573899998</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="14">
+    <row r="64" spans="2:6" hidden="1">
+      <c r="B64" s="14">
         <v>2020</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C64" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D64" s="16">
         <f t="shared" si="3"/>
         <v>33589.608145099999</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E64" s="17">
         <v>4465.3602699999992</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F64" s="17">
         <v>29124.247875100002</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="9">
+    <row r="65" spans="2:6" hidden="1">
+      <c r="B65" s="9">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <f t="shared" si="3"/>
         <v>55854.879077099999</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E65" s="12">
         <v>7632.2904900000003</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="13">
         <v>48222.588587099999</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="14">
+    <row r="66" spans="2:6" hidden="1">
+      <c r="B66" s="14">
         <v>2020</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C66" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D66" s="16">
         <f t="shared" si="3"/>
         <v>55217.324218999995</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E66" s="17">
         <v>8133.2827100000013</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F66" s="17">
         <v>47084.041508999995</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="18">
+    <row r="67" spans="2:6" hidden="1">
+      <c r="B67" s="18">
         <v>2020</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C67" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="20">
+      <c r="D67" s="20">
         <f t="shared" si="3"/>
         <v>58590.469882999991</v>
       </c>
-      <c r="E66" s="21">
+      <c r="E67" s="21">
         <v>9265.3395099999998</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F67" s="22">
         <v>49325.130372999993</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="23">
+    <row r="68" spans="2:6" hidden="1">
+      <c r="B68" s="23">
         <v>2019</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C68" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="25">
+      <c r="D68" s="25">
         <f t="shared" si="3"/>
         <v>66261.243409000002</v>
       </c>
-      <c r="E67" s="26">
+      <c r="E68" s="26">
         <v>12436.845440000001</v>
       </c>
-      <c r="F67" s="26">
+      <c r="F68" s="26">
         <v>53824.397969000005</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="9">
+    <row r="69" spans="2:6" hidden="1">
+      <c r="B69" s="9">
         <v>2019</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <f t="shared" si="3"/>
         <v>68605.822660000005</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E69" s="12">
         <v>13008.518850000002</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F69" s="13">
         <v>55597.303810000005</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="14">
+    <row r="70" spans="2:6" hidden="1">
+      <c r="B70" s="14">
         <v>2019</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C70" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D70" s="16">
         <f t="shared" si="3"/>
         <v>68729.068468999991</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E70" s="17">
         <v>13397.07763</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F70" s="17">
         <v>55331.990838999998</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="9">
+    <row r="71" spans="2:6" hidden="1">
+      <c r="B71" s="9">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <f t="shared" si="3"/>
         <v>63953.437825000008</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E71" s="12">
         <v>11041.58344</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="13">
         <v>52911.854385000006</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="14">
+    <row r="72" spans="2:6" hidden="1">
+      <c r="B72" s="14">
         <v>2019</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D72" s="16">
         <f t="shared" si="3"/>
         <v>64842.325497000005</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E72" s="17">
         <v>11467.57286</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F72" s="17">
         <v>53374.752637000005</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="9">
+    <row r="73" spans="2:6" hidden="1">
+      <c r="B73" s="9">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <f t="shared" si="3"/>
         <v>65696.806677</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E73" s="12">
         <v>11392.176509999999</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F73" s="13">
         <v>54304.630167000003</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="14">
+    <row r="74" spans="2:6" hidden="1">
+      <c r="B74" s="14">
         <v>2019</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C74" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D74" s="16">
         <f t="shared" si="3"/>
         <v>63546.111140000001</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E74" s="17">
         <v>11094.79</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F74" s="17">
         <v>52451.32114</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="9">
+    <row r="75" spans="2:6" hidden="1">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <f t="shared" si="3"/>
         <v>65954.17841600001</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E75" s="12">
         <v>12257.484480000001</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F75" s="13">
         <v>53696.693936000003</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="14">
+    <row r="76" spans="2:6" hidden="1">
+      <c r="B76" s="14">
         <v>2019</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C76" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D76" s="16">
         <f t="shared" si="3"/>
         <v>66025.018232000002</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E76" s="17">
         <v>12001.947099999999</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F76" s="17">
         <v>54023.071131999997</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="9">
+    <row r="77" spans="2:6" hidden="1">
+      <c r="B77" s="9">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <f t="shared" si="3"/>
         <v>72963.126033400011</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E77" s="12">
         <v>12358.550210000001</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F77" s="13">
         <v>60604.575823400002</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="14">
+    <row r="78" spans="2:6" hidden="1">
+      <c r="B78" s="14">
         <v>2019</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C78" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D78" s="16">
         <f t="shared" si="3"/>
         <v>62080.146123999999</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E78" s="17">
         <v>11336.3799</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F78" s="17">
         <v>50743.766223999999</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="18">
+    <row r="79" spans="2:6" hidden="1">
+      <c r="B79" s="18">
         <v>2019</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C79" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="20">
-        <f t="shared" ref="D78:D90" si="4">SUM(E78:F78)</f>
+      <c r="D79" s="20">
+        <f t="shared" ref="D79:D91" si="4">SUM(E79:F79)</f>
         <v>66069.786819700006</v>
       </c>
-      <c r="E78" s="21">
+      <c r="E79" s="21">
         <v>13827.258220000002</v>
       </c>
-      <c r="F78" s="22">
+      <c r="F79" s="22">
         <v>52242.528599700003</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="15">
+    <row r="80" spans="2:6" hidden="1">
+      <c r="B80" s="15">
         <v>2018</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C80" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D80" s="16">
         <f t="shared" si="4"/>
         <v>66933.167482000004</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E80" s="17">
         <v>9081.5239999999994</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F80" s="17">
         <v>57851.643481999999</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="10">
+    <row r="81" spans="2:6" hidden="1">
+      <c r="B81" s="10">
         <v>2018</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <f t="shared" si="4"/>
         <v>71177.636041999998</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E81" s="12">
         <v>10497.208000000001</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F81" s="13">
         <v>60680.428042</v>
       </c>
     </row>
-    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="15">
+    <row r="82" spans="2:6" hidden="1">
+      <c r="B82" s="15">
         <v>2018</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C82" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D82" s="16">
         <f t="shared" si="4"/>
         <v>71661.010011999999</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E82" s="17">
         <v>9991.6759999999995</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F82" s="17">
         <v>61669.334011999999</v>
       </c>
     </row>
-    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="10">
+    <row r="83" spans="2:6" hidden="1">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <f t="shared" si="4"/>
         <v>66201.479049599991</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E83" s="12">
         <v>8721.2330000000002</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F83" s="13">
         <v>57480.246049599999</v>
       </c>
     </row>
-    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="15">
+    <row r="84" spans="2:6" hidden="1">
+      <c r="B84" s="15">
         <v>2018</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C84" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D84" s="16">
         <f t="shared" si="4"/>
         <v>65268.307869800003</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E84" s="17">
         <v>9262.4320000000007</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F84" s="17">
         <v>56005.875869800002</v>
       </c>
     </row>
-    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="10">
+    <row r="85" spans="2:6" hidden="1">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <f t="shared" si="4"/>
         <v>67408.032546999995</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E85" s="12">
         <v>8453.6</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F85" s="13">
         <v>58954.432546999997</v>
       </c>
     </row>
-    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="15">
+    <row r="86" spans="2:6" hidden="1">
+      <c r="B86" s="15">
         <v>2018</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C86" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D86" s="16">
         <f t="shared" si="4"/>
         <v>69001.484601999997</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E86" s="17">
         <v>9016.5510999999988</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F86" s="17">
         <v>59984.933502</v>
       </c>
     </row>
-    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="10">
+    <row r="87" spans="2:6" hidden="1">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <f t="shared" si="4"/>
         <v>68248.467609999992</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E87" s="12">
         <v>9692.3696600000003</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F87" s="13">
         <v>58556.097949999996</v>
       </c>
     </row>
-    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="15">
+    <row r="88" spans="2:6" hidden="1">
+      <c r="B88" s="15">
         <v>2018</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C88" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D88" s="16">
         <f t="shared" si="4"/>
         <v>71464.30909499999</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E88" s="17">
         <v>9137.2187799999992</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F88" s="17">
         <v>62327.090314999994</v>
       </c>
     </row>
-    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="10">
+    <row r="89" spans="2:6" hidden="1">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <f t="shared" si="4"/>
         <v>72436.418715000007</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E89" s="12">
         <v>9317.3212800000001</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F89" s="13">
         <v>63119.097435000003</v>
       </c>
     </row>
-    <row r="89" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="15">
+    <row r="90" spans="2:6" hidden="1">
+      <c r="B90" s="15">
         <v>2018</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C90" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D90" s="16">
         <f t="shared" si="4"/>
         <v>60034.670899299999</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E90" s="17">
         <v>8005.7809000000007</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F90" s="17">
         <v>52028.889999300001</v>
       </c>
     </row>
-    <row r="90" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="10">
+    <row r="91" spans="2:6" hidden="1">
+      <c r="B91" s="10">
         <v>2018</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D91" s="11">
         <f t="shared" si="4"/>
         <v>59958.963042999996</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E91" s="12">
         <v>8140.3959999999997</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F91" s="13">
         <v>51818.567042999995</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B91" s="1" t="s">
+    <row r="92" spans="2:6">
+      <c r="B92" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B92" s="1" t="s">
+    <row r="93" spans="2:6">
+      <c r="B93" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F93" s="27"/>
+    <row r="94" spans="2:6">
+      <c r="F94" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Carga_Total_N_Aero.xlsx
+++ b/Carga_Total_N_Aero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22F88EA-24A3-4582-9294-A64C1B9F6876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE500B9-15BB-488E-BB30-2CE8340E66E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_30.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="22">
   <si>
     <t>Internacional</t>
   </si>
@@ -101,7 +101,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -303,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -373,11 +373,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -547,8 +542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F91" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B5:F91" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F92" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B5:F92" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -791,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B1:I94"/>
+  <dimension ref="B1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -848,1583 +843,1583 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="31">
+      <c r="B6" s="9">
         <v>2025</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="11">
+        <f>SUM(E6:F6)</f>
+        <v>66899.188512835943</v>
+      </c>
+      <c r="E6" s="12">
+        <v>9838.3982400000004</v>
+      </c>
+      <c r="F6" s="13">
+        <v>57060.79027283594</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="15">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="32">
-        <f>SUM(E6:F6)</f>
+      <c r="D7" s="16">
+        <f>SUM(E7:F7)</f>
         <v>58549.759313595176</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E7" s="17">
         <v>9040.4374190100007</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F7" s="17">
         <v>49509.321894585177</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="18">
+    <row r="8" spans="2:6">
+      <c r="B8" s="18">
         <v>2025</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="20">
-        <f>SUM(E7:F7)</f>
+      <c r="D8" s="20">
+        <f>SUM(E8:F8)</f>
         <v>56412.033907040895</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E8" s="21">
         <v>9481.3890400000037</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F8" s="22">
         <v>46930.644867040894</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="14">
+    <row r="9" spans="2:6">
+      <c r="B9" s="14">
         <v>2024</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="16">
-        <f>SUM(E8:F8)</f>
+      <c r="D9" s="16">
+        <f>SUM(E9:F9)</f>
         <v>64500.590390157522</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="17">
         <v>10701.994849999997</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F9" s="17">
         <v>53798.595540157527</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="9">
+    <row r="10" spans="2:6">
+      <c r="B10" s="9">
         <v>2024</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="11">
-        <f>SUM(E9:F9)</f>
+      <c r="D10" s="11">
+        <f>SUM(E10:F10)</f>
         <v>66458.242703832133</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E10" s="12">
         <v>11494.171069999997</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>54964.071633832144</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="14">
+    <row r="11" spans="2:6">
+      <c r="B11" s="14">
         <v>2024</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="16">
-        <f t="shared" ref="D10" si="0">SUM(E10:F10)</f>
+      <c r="D11" s="16">
+        <f t="shared" ref="D11" si="0">SUM(E11:F11)</f>
         <v>67764.796745573578</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E11" s="17">
         <v>11457.6875</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F11" s="17">
         <v>56307.109245573578</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="9">
+    <row r="12" spans="2:6">
+      <c r="B12" s="9">
         <v>2024</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="11">
-        <f>SUM(E11:F11)</f>
+      <c r="D12" s="11">
+        <f>SUM(E12:F12)</f>
         <v>60656.284715460308</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E12" s="12">
         <v>9752.9897600000004</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="13">
         <v>50903.294955460311</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="14">
+    <row r="13" spans="2:6">
+      <c r="B13" s="14">
         <v>2024</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="16">
-        <f t="shared" ref="D12:D46" si="1">SUM(E12:F12)</f>
+      <c r="D13" s="16">
+        <f t="shared" ref="D13:D47" si="1">SUM(E13:F13)</f>
         <v>65409.835878821003</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E13" s="17">
         <v>10656.19658</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F13" s="17">
         <v>54753.639298821006</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="9">
+    <row r="14" spans="2:6">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="11">
-        <f t="shared" ref="D13:D15" si="2">SUM(E13:F13)</f>
+      <c r="D14" s="11">
+        <f t="shared" ref="D14:D16" si="2">SUM(E14:F14)</f>
         <v>65251.523125742053</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E14" s="12">
         <v>10090.788336235837</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>55160.734789506212</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="14">
+    <row r="15" spans="2:6">
+      <c r="B15" s="14">
         <v>2024</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D15" s="16">
         <f t="shared" si="2"/>
         <v>62612.769596581908</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E15" s="17">
         <v>9471.2998499999976</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F15" s="17">
         <v>53141.469746581912</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="9">
+    <row r="16" spans="2:6">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <f t="shared" si="2"/>
         <v>67292.033080706242</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E16" s="12">
         <v>10696.546900000001</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>56595.486180706241</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="14">
+    <row r="17" spans="2:6">
+      <c r="B17" s="14">
         <v>2024</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D17" s="16">
         <f t="shared" si="1"/>
         <v>65793.232232409835</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E17" s="17">
         <v>9979.4764199999972</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F17" s="17">
         <v>55813.755812409843</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="9">
+    <row r="18" spans="2:6">
+      <c r="B18" s="9">
         <v>2024</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D18" s="11">
         <f t="shared" si="1"/>
         <v>66756.57645741482</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E18" s="12">
         <v>9290.8170100000025</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="13">
         <v>57465.759447414814</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="14">
+    <row r="19" spans="2:6">
+      <c r="B19" s="14">
         <v>2024</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D19" s="16">
         <f t="shared" si="1"/>
         <v>64183.796049296361</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E19" s="17">
         <v>9254.3676000000014</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F19" s="17">
         <v>54929.428449296363</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="18">
+    <row r="20" spans="2:6">
+      <c r="B20" s="18">
         <v>2024</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D20" s="20">
         <f t="shared" si="1"/>
         <v>64012.44124909024</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E20" s="21">
         <v>9707.3228199999994</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F20" s="22">
         <v>54305.118429090238</v>
       </c>
     </row>
-    <row r="20" spans="2:9" hidden="1">
-      <c r="B20" s="23">
+    <row r="21" spans="2:6" hidden="1">
+      <c r="B21" s="23">
         <v>2023</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D21" s="25">
         <f t="shared" si="1"/>
         <v>65636.227902030922</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E21" s="26">
         <v>10457.710060000001</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F21" s="26">
         <v>55178.517842030924</v>
       </c>
-      <c r="H20" s="1">
-        <v>55178517.841699995</v>
-      </c>
-      <c r="I20" s="1">
-        <v>10457710.060000001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" hidden="1">
-      <c r="B21" s="9">
+    </row>
+    <row r="22" spans="2:6" hidden="1">
+      <c r="B22" s="9">
         <v>2023</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <f t="shared" si="1"/>
         <v>66343.772248230161</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E22" s="12">
         <v>11049.623379999995</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>55294.148868230172</v>
       </c>
-      <c r="H21" s="1">
-        <v>55294148.868199997</v>
-      </c>
-      <c r="I21" s="1">
-        <v>11049623.379999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" hidden="1">
-      <c r="B22" s="14">
+    </row>
+    <row r="23" spans="2:6" hidden="1">
+      <c r="B23" s="14">
         <v>2023</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D23" s="16">
         <f t="shared" si="1"/>
         <v>74538.440708327311</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E23" s="17">
         <v>11064.185199999994</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F23" s="17">
         <v>63474.255508327318</v>
       </c>
-      <c r="H22" s="1">
-        <v>63474255.507999994</v>
-      </c>
-      <c r="I22" s="1">
-        <v>11064185.199999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" hidden="1">
-      <c r="B23" s="9">
+    </row>
+    <row r="24" spans="2:6" hidden="1">
+      <c r="B24" s="9">
         <v>2023</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <f t="shared" si="1"/>
         <v>62577.19108720139</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E24" s="12">
         <v>9698.2422200000001</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="13">
         <v>52878.94886720139</v>
       </c>
     </row>
-    <row r="24" spans="2:9" hidden="1">
-      <c r="B24" s="14">
+    <row r="25" spans="2:6" hidden="1">
+      <c r="B25" s="14">
         <v>2023</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D25" s="16">
         <f t="shared" si="1"/>
         <v>67812.791455821265</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E25" s="17">
         <v>10523.073319999998</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F25" s="17">
         <v>57289.718135821262</v>
       </c>
     </row>
-    <row r="25" spans="2:9" hidden="1">
-      <c r="B25" s="9">
+    <row r="26" spans="2:6" hidden="1">
+      <c r="B26" s="9">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <f t="shared" si="1"/>
         <v>67712.269710793204</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E26" s="12">
         <v>9845.1506699999973</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>57867.119040793208</v>
       </c>
     </row>
-    <row r="26" spans="2:9" hidden="1">
-      <c r="B26" s="14">
+    <row r="27" spans="2:6" hidden="1">
+      <c r="B27" s="14">
         <v>2023</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D27" s="16">
         <f t="shared" si="1"/>
         <v>66844.753326239559</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E27" s="17">
         <v>10335.844959999999</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F27" s="17">
         <v>56508.908366239557</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1">
-      <c r="B27" s="9">
+    <row r="28" spans="2:6" hidden="1">
+      <c r="B28" s="9">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <f t="shared" si="1"/>
         <v>66163.140046463639</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E28" s="12">
         <v>10572.075449999998</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>55591.064596463635</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1">
-      <c r="B28" s="14">
+    <row r="29" spans="2:6" hidden="1">
+      <c r="B29" s="14">
         <v>2023</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D29" s="16">
         <f t="shared" si="1"/>
         <v>62926.446933830361</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E29" s="17">
         <v>9376.9209200000005</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F29" s="17">
         <v>53549.526013830357</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1">
-      <c r="B29" s="9">
+    <row r="30" spans="2:6" hidden="1">
+      <c r="B30" s="9">
         <v>2023</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <f t="shared" si="1"/>
         <v>70380.670155785672</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E30" s="12">
         <v>10595.588189999999</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="13">
         <v>59785.08196578567</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1">
-      <c r="B30" s="14">
+    <row r="31" spans="2:6" hidden="1">
+      <c r="B31" s="14">
         <v>2023</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D31" s="16">
         <f t="shared" si="1"/>
         <v>61289.109018179544</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E31" s="17">
         <v>8878.0714700000008</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F31" s="17">
         <v>52411.037548179542</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1">
-      <c r="B31" s="18">
+    <row r="32" spans="2:6" hidden="1">
+      <c r="B32" s="18">
         <v>2023</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D32" s="20">
         <f t="shared" si="1"/>
         <v>60647.248166616067</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E32" s="21">
         <v>9596.1618600000002</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F32" s="22">
         <v>51051.086306616067</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1">
-      <c r="B32" s="23">
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="23">
         <v>2022</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D33" s="25">
         <f t="shared" si="1"/>
         <v>68588.044349950811</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E33" s="26">
         <v>11506.01224</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F33" s="26">
         <v>57082.032109950815</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1">
-      <c r="B33" s="9">
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="9">
         <v>2022</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <f t="shared" si="1"/>
         <v>68464.795097486145</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E34" s="12">
         <v>11633.829369999999</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="13">
         <v>56830.965727486146</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1">
-      <c r="B34" s="14">
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35" s="14">
         <v>2022</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D35" s="16">
         <f t="shared" si="1"/>
         <v>70337.920445471551</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E35" s="17">
         <v>10845.919520000005</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F35" s="17">
         <v>59492.000925471548</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1">
-      <c r="B35" s="9">
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36" s="9">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <f t="shared" si="1"/>
         <v>63717.495873095577</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E36" s="12">
         <v>10054.112030000002</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>53663.383843095573</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1">
-      <c r="B36" s="14">
+    <row r="37" spans="2:6" hidden="1">
+      <c r="B37" s="14">
         <v>2022</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D37" s="16">
         <f t="shared" si="1"/>
         <v>65644.980710849399</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E37" s="17">
         <v>10458.872009999997</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F37" s="17">
         <v>55186.1087008494</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1">
-      <c r="B37" s="9">
+    <row r="38" spans="2:6" hidden="1">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <f t="shared" si="1"/>
         <v>71001.646432407404</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E38" s="12">
         <v>10578.0892</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="13">
         <v>60423.557232407409</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1">
-      <c r="B38" s="14">
+    <row r="39" spans="2:6" hidden="1">
+      <c r="B39" s="14">
         <v>2022</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C39" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D39" s="16">
         <f t="shared" si="1"/>
         <v>73576.613353201523</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E39" s="17">
         <v>12418.258889999999</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F39" s="17">
         <v>61158.354463201526</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1">
-      <c r="B39" s="9">
+    <row r="40" spans="2:6" hidden="1">
+      <c r="B40" s="9">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <f t="shared" si="1"/>
         <v>70478.224170624977</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E40" s="12">
         <v>10687.703999999998</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>59790.520170624986</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1">
-      <c r="B40" s="14">
+    <row r="41" spans="2:6" hidden="1">
+      <c r="B41" s="14">
         <v>2022</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D41" s="16">
         <f t="shared" si="1"/>
         <v>65395.389936100008</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E41" s="17">
         <v>10009.792879999999</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F41" s="17">
         <v>55385.597056100007</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1">
-      <c r="B41" s="9">
+    <row r="42" spans="2:6" hidden="1">
+      <c r="B42" s="9">
         <v>2022</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="11">
         <f t="shared" si="1"/>
         <v>70663.687067199993</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E42" s="12">
         <v>10790.40236</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="13">
         <v>59873.2847072</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1">
-      <c r="B42" s="14">
+    <row r="43" spans="2:6" hidden="1">
+      <c r="B43" s="14">
         <v>2022</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D43" s="16">
         <f t="shared" si="1"/>
         <v>62248.796398300008</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E43" s="17">
         <v>9503.8195899999992</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F43" s="17">
         <v>52744.976808300009</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1">
-      <c r="B43" s="18">
+    <row r="44" spans="2:6" hidden="1">
+      <c r="B44" s="18">
         <v>2022</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C44" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D44" s="20">
         <f t="shared" si="1"/>
         <v>58480.2683493</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E44" s="21">
         <v>9164.2659699999986</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F44" s="22">
         <v>49316.0023793</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1">
-      <c r="B44" s="23">
+    <row r="45" spans="2:6" hidden="1">
+      <c r="B45" s="23">
         <v>2021</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C45" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D45" s="25">
         <f t="shared" si="1"/>
         <v>71058.534132700006</v>
       </c>
-      <c r="E44" s="26">
+      <c r="E45" s="26">
         <v>11787.100349999999</v>
       </c>
-      <c r="F44" s="26">
+      <c r="F45" s="26">
         <v>59271.433782700005</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1">
-      <c r="B45" s="9">
+    <row r="46" spans="2:6" hidden="1">
+      <c r="B46" s="9">
         <v>2021</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <f t="shared" si="1"/>
         <v>70276.799918899997</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E46" s="12">
         <v>11002.488009999999</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="13">
         <v>59274.311908899996</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1">
-      <c r="B46" s="14">
+    <row r="47" spans="2:6" hidden="1">
+      <c r="B47" s="14">
         <v>2021</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C47" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D47" s="16">
         <f t="shared" si="1"/>
         <v>71581.534583699991</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E47" s="17">
         <v>10533.75974</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F47" s="17">
         <v>61047.774843699997</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1">
-      <c r="B47" s="9">
+    <row r="48" spans="2:6" hidden="1">
+      <c r="B48" s="9">
         <v>2021</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="11">
-        <f t="shared" ref="D47:D78" si="3">SUM(E47:F47)</f>
+      <c r="D48" s="11">
+        <f t="shared" ref="D48:D79" si="3">SUM(E48:F48)</f>
         <v>63210.818573499993</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E48" s="12">
         <v>9205.0079700000006</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="13">
         <v>54005.810603499995</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1">
-      <c r="B48" s="14">
+    <row r="49" spans="2:6" hidden="1">
+      <c r="B49" s="14">
         <v>2021</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D49" s="16">
         <f t="shared" si="3"/>
         <v>64225.819261800003</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E49" s="17">
         <v>9288.4902899999997</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F49" s="17">
         <v>54937.328971800001</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1">
-      <c r="B49" s="9">
+    <row r="50" spans="2:6" hidden="1">
+      <c r="B50" s="9">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <f t="shared" si="3"/>
         <v>68599.738738</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E50" s="12">
         <v>9818.9590200000002</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <v>58780.779718000005</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1">
-      <c r="B50" s="14">
+    <row r="51" spans="2:6" hidden="1">
+      <c r="B51" s="14">
         <v>2021</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C51" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D51" s="16">
         <f t="shared" si="3"/>
         <v>64729.816312399991</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E51" s="17">
         <v>9122.9778799999985</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F51" s="17">
         <v>55606.838432399993</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1">
-      <c r="B51" s="9">
+    <row r="52" spans="2:6" hidden="1">
+      <c r="B52" s="9">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <f t="shared" si="3"/>
         <v>65852.654150000002</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E52" s="12">
         <v>8949.1877700000005</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>56903.466379999998</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1">
-      <c r="B52" s="14">
+    <row r="53" spans="2:6" hidden="1">
+      <c r="B53" s="14">
         <v>2021</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C53" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D53" s="16">
         <f t="shared" si="3"/>
         <v>63906.943998100003</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E53" s="17">
         <v>8684.6848300000001</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F53" s="17">
         <v>55222.259168100005</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1">
-      <c r="B53" s="9">
+    <row r="54" spans="2:6" hidden="1">
+      <c r="B54" s="9">
         <v>2021</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="11">
         <f t="shared" si="3"/>
         <v>70158.308097000001</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E54" s="12">
         <v>9170.0568799999983</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="13">
         <v>60988.251216999997</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1">
-      <c r="B54" s="14">
+    <row r="55" spans="2:6" hidden="1">
+      <c r="B55" s="14">
         <v>2021</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D55" s="16">
         <f t="shared" si="3"/>
         <v>60491.315076000006</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E55" s="17">
         <v>7767.4261999999999</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F55" s="17">
         <v>52723.888876000005</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1">
-      <c r="B55" s="18">
+    <row r="56" spans="2:6" hidden="1">
+      <c r="B56" s="18">
         <v>2021</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C56" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D56" s="20">
         <f t="shared" si="3"/>
         <v>63725.913205999997</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E56" s="21">
         <v>8464.5160599999999</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F56" s="22">
         <v>55261.397145999996</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1">
-      <c r="B56" s="23">
+    <row r="57" spans="2:6" hidden="1">
+      <c r="B57" s="23">
         <v>2020</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C57" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="25">
+      <c r="D57" s="25">
         <f t="shared" si="3"/>
         <v>66303.668197999999</v>
       </c>
-      <c r="E56" s="26">
+      <c r="E57" s="26">
         <v>10783.384609999999</v>
       </c>
-      <c r="F56" s="26">
+      <c r="F57" s="26">
         <v>55520.283587999998</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1">
-      <c r="B57" s="9">
+    <row r="58" spans="2:6" hidden="1">
+      <c r="B58" s="9">
         <v>2020</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <f t="shared" si="3"/>
         <v>67964.463443000001</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E58" s="12">
         <v>10277.794900000001</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F58" s="13">
         <v>57686.668543</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1">
-      <c r="B58" s="14">
+    <row r="59" spans="2:6" hidden="1">
+      <c r="B59" s="14">
         <v>2020</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D59" s="16">
         <f t="shared" si="3"/>
         <v>66309.962777399996</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E59" s="17">
         <v>9671.3324499999999</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F59" s="17">
         <v>56638.630327399995</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1">
-      <c r="B59" s="9">
+    <row r="60" spans="2:6" hidden="1">
+      <c r="B60" s="9">
         <v>2020</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <f t="shared" si="3"/>
         <v>57113.372982199995</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E60" s="12">
         <v>9190.6065299999991</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>47922.766452199998</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1">
-      <c r="B60" s="14">
+    <row r="61" spans="2:6" hidden="1">
+      <c r="B61" s="14">
         <v>2020</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D61" s="16">
         <f t="shared" si="3"/>
         <v>52149.208218500004</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E61" s="17">
         <v>7626.2473300000001</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F61" s="17">
         <v>44522.960888500005</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1">
-      <c r="B61" s="9">
+    <row r="62" spans="2:6" hidden="1">
+      <c r="B62" s="9">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <f t="shared" si="3"/>
         <v>46691.5235245</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E62" s="12">
         <v>6651.94434</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F62" s="13">
         <v>40039.579184499999</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1">
-      <c r="B62" s="14">
+    <row r="63" spans="2:6" hidden="1">
+      <c r="B63" s="14">
         <v>2020</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C63" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D63" s="16">
         <f t="shared" si="3"/>
         <v>42608.422072199995</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E63" s="17">
         <v>5692.9747600000001</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F63" s="17">
         <v>36915.447312199998</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1">
-      <c r="B63" s="9">
+    <row r="64" spans="2:6" hidden="1">
+      <c r="B64" s="9">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <f t="shared" si="3"/>
         <v>38705.075583899998</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E64" s="12">
         <v>4788.3910099999994</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>33916.684573899998</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1">
-      <c r="B64" s="14">
+    <row r="65" spans="2:6" hidden="1">
+      <c r="B65" s="14">
         <v>2020</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C65" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D65" s="16">
         <f t="shared" si="3"/>
         <v>33589.608145099999</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E65" s="17">
         <v>4465.3602699999992</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F65" s="17">
         <v>29124.247875100002</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1">
-      <c r="B65" s="9">
+    <row r="66" spans="2:6" hidden="1">
+      <c r="B66" s="9">
         <v>2020</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="11">
         <f t="shared" si="3"/>
         <v>55854.879077099999</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E66" s="12">
         <v>7632.2904900000003</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F66" s="13">
         <v>48222.588587099999</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1">
-      <c r="B66" s="14">
+    <row r="67" spans="2:6" hidden="1">
+      <c r="B67" s="14">
         <v>2020</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C67" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D67" s="16">
         <f t="shared" si="3"/>
         <v>55217.324218999995</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E67" s="17">
         <v>8133.2827100000013</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F67" s="17">
         <v>47084.041508999995</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1">
-      <c r="B67" s="18">
+    <row r="68" spans="2:6" hidden="1">
+      <c r="B68" s="18">
         <v>2020</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C68" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D68" s="20">
         <f t="shared" si="3"/>
         <v>58590.469882999991</v>
       </c>
-      <c r="E67" s="21">
+      <c r="E68" s="21">
         <v>9265.3395099999998</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F68" s="22">
         <v>49325.130372999993</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1">
-      <c r="B68" s="23">
+    <row r="69" spans="2:6" hidden="1">
+      <c r="B69" s="23">
         <v>2019</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C69" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="25">
+      <c r="D69" s="25">
         <f t="shared" si="3"/>
         <v>66261.243409000002</v>
       </c>
-      <c r="E68" s="26">
+      <c r="E69" s="26">
         <v>12436.845440000001</v>
       </c>
-      <c r="F68" s="26">
+      <c r="F69" s="26">
         <v>53824.397969000005</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1">
-      <c r="B69" s="9">
+    <row r="70" spans="2:6" hidden="1">
+      <c r="B70" s="9">
         <v>2019</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <f t="shared" si="3"/>
         <v>68605.822660000005</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E70" s="12">
         <v>13008.518850000002</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F70" s="13">
         <v>55597.303810000005</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1">
-      <c r="B70" s="14">
+    <row r="71" spans="2:6" hidden="1">
+      <c r="B71" s="14">
         <v>2019</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D71" s="16">
         <f t="shared" si="3"/>
         <v>68729.068468999991</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E71" s="17">
         <v>13397.07763</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F71" s="17">
         <v>55331.990838999998</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1">
-      <c r="B71" s="9">
+    <row r="72" spans="2:6" hidden="1">
+      <c r="B72" s="9">
         <v>2019</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <f t="shared" si="3"/>
         <v>63953.437825000008</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E72" s="12">
         <v>11041.58344</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F72" s="13">
         <v>52911.854385000006</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1">
-      <c r="B72" s="14">
+    <row r="73" spans="2:6" hidden="1">
+      <c r="B73" s="14">
         <v>2019</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C73" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D73" s="16">
         <f t="shared" si="3"/>
         <v>64842.325497000005</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E73" s="17">
         <v>11467.57286</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F73" s="17">
         <v>53374.752637000005</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1">
-      <c r="B73" s="9">
+    <row r="74" spans="2:6" hidden="1">
+      <c r="B74" s="9">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <f t="shared" si="3"/>
         <v>65696.806677</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E74" s="12">
         <v>11392.176509999999</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F74" s="13">
         <v>54304.630167000003</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1">
-      <c r="B74" s="14">
+    <row r="75" spans="2:6" hidden="1">
+      <c r="B75" s="14">
         <v>2019</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C75" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D75" s="16">
         <f t="shared" si="3"/>
         <v>63546.111140000001</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E75" s="17">
         <v>11094.79</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F75" s="17">
         <v>52451.32114</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1">
-      <c r="B75" s="9">
+    <row r="76" spans="2:6" hidden="1">
+      <c r="B76" s="9">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <f t="shared" si="3"/>
         <v>65954.17841600001</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E76" s="12">
         <v>12257.484480000001</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="13">
         <v>53696.693936000003</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1">
-      <c r="B76" s="14">
+    <row r="77" spans="2:6" hidden="1">
+      <c r="B77" s="14">
         <v>2019</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C77" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D77" s="16">
         <f t="shared" si="3"/>
         <v>66025.018232000002</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E77" s="17">
         <v>12001.947099999999</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F77" s="17">
         <v>54023.071131999997</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1">
-      <c r="B77" s="9">
+    <row r="78" spans="2:6" hidden="1">
+      <c r="B78" s="9">
         <v>2019</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <f t="shared" si="3"/>
         <v>72963.126033400011</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E78" s="12">
         <v>12358.550210000001</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F78" s="13">
         <v>60604.575823400002</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1">
-      <c r="B78" s="14">
+    <row r="79" spans="2:6" hidden="1">
+      <c r="B79" s="14">
         <v>2019</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C79" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D79" s="16">
         <f t="shared" si="3"/>
         <v>62080.146123999999</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E79" s="17">
         <v>11336.3799</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F79" s="17">
         <v>50743.766223999999</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1">
-      <c r="B79" s="18">
+    <row r="80" spans="2:6" hidden="1">
+      <c r="B80" s="18">
         <v>2019</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C80" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="20">
-        <f t="shared" ref="D79:D91" si="4">SUM(E79:F79)</f>
+      <c r="D80" s="20">
+        <f t="shared" ref="D80:D92" si="4">SUM(E80:F80)</f>
         <v>66069.786819700006</v>
       </c>
-      <c r="E79" s="21">
+      <c r="E80" s="21">
         <v>13827.258220000002</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F80" s="22">
         <v>52242.528599700003</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1">
-      <c r="B80" s="15">
+    <row r="81" spans="2:6" hidden="1">
+      <c r="B81" s="15">
         <v>2018</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C81" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D81" s="16">
         <f t="shared" si="4"/>
         <v>66933.167482000004</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E81" s="17">
         <v>9081.5239999999994</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F81" s="17">
         <v>57851.643481999999</v>
       </c>
     </row>
-    <row r="81" spans="2:6" hidden="1">
-      <c r="B81" s="10">
+    <row r="82" spans="2:6" hidden="1">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <f t="shared" si="4"/>
         <v>71177.636041999998</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E82" s="12">
         <v>10497.208000000001</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F82" s="13">
         <v>60680.428042</v>
       </c>
     </row>
-    <row r="82" spans="2:6" hidden="1">
-      <c r="B82" s="15">
+    <row r="83" spans="2:6" hidden="1">
+      <c r="B83" s="15">
         <v>2018</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C83" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D83" s="16">
         <f t="shared" si="4"/>
         <v>71661.010011999999</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E83" s="17">
         <v>9991.6759999999995</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F83" s="17">
         <v>61669.334011999999</v>
       </c>
     </row>
-    <row r="83" spans="2:6" hidden="1">
-      <c r="B83" s="10">
+    <row r="84" spans="2:6" hidden="1">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <f t="shared" si="4"/>
         <v>66201.479049599991</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E84" s="12">
         <v>8721.2330000000002</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F84" s="13">
         <v>57480.246049599999</v>
       </c>
     </row>
-    <row r="84" spans="2:6" hidden="1">
-      <c r="B84" s="15">
+    <row r="85" spans="2:6" hidden="1">
+      <c r="B85" s="15">
         <v>2018</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C85" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D85" s="16">
         <f t="shared" si="4"/>
         <v>65268.307869800003</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E85" s="17">
         <v>9262.4320000000007</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F85" s="17">
         <v>56005.875869800002</v>
       </c>
     </row>
-    <row r="85" spans="2:6" hidden="1">
-      <c r="B85" s="10">
+    <row r="86" spans="2:6" hidden="1">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <f t="shared" si="4"/>
         <v>67408.032546999995</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E86" s="12">
         <v>8453.6</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F86" s="13">
         <v>58954.432546999997</v>
       </c>
     </row>
-    <row r="86" spans="2:6" hidden="1">
-      <c r="B86" s="15">
+    <row r="87" spans="2:6" hidden="1">
+      <c r="B87" s="15">
         <v>2018</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C87" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="16">
+      <c r="D87" s="16">
         <f t="shared" si="4"/>
         <v>69001.484601999997</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E87" s="17">
         <v>9016.5510999999988</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F87" s="17">
         <v>59984.933502</v>
       </c>
     </row>
-    <row r="87" spans="2:6" hidden="1">
-      <c r="B87" s="10">
+    <row r="88" spans="2:6" hidden="1">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <f t="shared" si="4"/>
         <v>68248.467609999992</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E88" s="12">
         <v>9692.3696600000003</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F88" s="13">
         <v>58556.097949999996</v>
       </c>
     </row>
-    <row r="88" spans="2:6" hidden="1">
-      <c r="B88" s="15">
+    <row r="89" spans="2:6" hidden="1">
+      <c r="B89" s="15">
         <v>2018</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C89" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D89" s="16">
         <f t="shared" si="4"/>
         <v>71464.30909499999</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E89" s="17">
         <v>9137.2187799999992</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F89" s="17">
         <v>62327.090314999994</v>
       </c>
     </row>
-    <row r="89" spans="2:6" hidden="1">
-      <c r="B89" s="10">
+    <row r="90" spans="2:6" hidden="1">
+      <c r="B90" s="10">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="11">
         <f t="shared" si="4"/>
         <v>72436.418715000007</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E90" s="12">
         <v>9317.3212800000001</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F90" s="13">
         <v>63119.097435000003</v>
       </c>
     </row>
-    <row r="90" spans="2:6" hidden="1">
-      <c r="B90" s="15">
+    <row r="91" spans="2:6" hidden="1">
+      <c r="B91" s="15">
         <v>2018</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C91" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="16">
+      <c r="D91" s="16">
         <f t="shared" si="4"/>
         <v>60034.670899299999</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E91" s="17">
         <v>8005.7809000000007</v>
       </c>
-      <c r="F90" s="17">
+      <c r="F91" s="17">
         <v>52028.889999300001</v>
       </c>
     </row>
-    <row r="91" spans="2:6" hidden="1">
-      <c r="B91" s="10">
+    <row r="92" spans="2:6" hidden="1">
+      <c r="B92" s="10">
         <v>2018</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D92" s="11">
         <f t="shared" si="4"/>
         <v>59958.963042999996</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E92" s="12">
         <v>8140.3959999999997</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F92" s="13">
         <v>51818.567042999995</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6">
-      <c r="B92" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="93" spans="2:6">
       <c r="B93" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="2:6">
-      <c r="F94" s="27"/>
+    <row r="95" spans="2:6">
+      <c r="F95" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Carga_Total_N_Aero.xlsx
+++ b/Carga_Total_N_Aero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE500B9-15BB-488E-BB30-2CE8340E66E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D44F62-6CE4-4D96-A70F-73419A32F3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_30.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="22">
   <si>
     <t>Internacional</t>
   </si>
@@ -101,7 +101,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -542,8 +542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F92" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B5:F92" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F93" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B5:F93" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -786,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B1:F95"/>
+  <dimension ref="B1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -843,1583 +843,1601 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="9">
+      <c r="B6" s="15">
         <v>2025</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="16">
+        <f>SUM(E6:F6)</f>
+        <v>60440.968873084203</v>
+      </c>
+      <c r="E6" s="17">
+        <v>10011.761319999998</v>
+      </c>
+      <c r="F6" s="17">
+        <v>50429.207553084205</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="11">
-        <f>SUM(E6:F6)</f>
+      <c r="D7" s="11">
+        <f>SUM(E7:F7)</f>
         <v>66899.188512835943</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E7" s="12">
         <v>9838.3982400000004</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="13">
         <v>57060.79027283594</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="15">
+    <row r="8" spans="2:6">
+      <c r="B8" s="15">
         <v>2025</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="16">
-        <f>SUM(E7:F7)</f>
+      <c r="D8" s="16">
+        <f>SUM(E8:F8)</f>
         <v>58549.759313595176</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E8" s="17">
         <v>9040.4374190100007</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F8" s="17">
         <v>49509.321894585177</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="18">
+    <row r="9" spans="2:6">
+      <c r="B9" s="18">
         <v>2025</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="20">
-        <f>SUM(E8:F8)</f>
+      <c r="D9" s="20">
+        <f>SUM(E9:F9)</f>
         <v>56412.033907040895</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E9" s="21">
         <v>9481.3890400000037</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F9" s="22">
         <v>46930.644867040894</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="14">
+    <row r="10" spans="2:6">
+      <c r="B10" s="14">
         <v>2024</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="16">
-        <f>SUM(E9:F9)</f>
+      <c r="D10" s="16">
+        <f>SUM(E10:F10)</f>
         <v>64500.590390157522</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E10" s="17">
         <v>10701.994849999997</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F10" s="17">
         <v>53798.595540157527</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="9">
+    <row r="11" spans="2:6">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="11">
-        <f>SUM(E10:F10)</f>
+      <c r="D11" s="11">
+        <f>SUM(E11:F11)</f>
         <v>66458.242703832133</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E11" s="12">
         <v>11494.171069999997</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>54964.071633832144</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="14">
+    <row r="12" spans="2:6">
+      <c r="B12" s="14">
         <v>2024</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="16">
-        <f t="shared" ref="D11" si="0">SUM(E11:F11)</f>
+      <c r="D12" s="16">
+        <f t="shared" ref="D12" si="0">SUM(E12:F12)</f>
         <v>67764.796745573578</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E12" s="17">
         <v>11457.6875</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F12" s="17">
         <v>56307.109245573578</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="9">
+    <row r="13" spans="2:6">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="11">
-        <f>SUM(E12:F12)</f>
+      <c r="D13" s="11">
+        <f>SUM(E13:F13)</f>
         <v>60656.284715460308</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E13" s="12">
         <v>9752.9897600000004</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F13" s="13">
         <v>50903.294955460311</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="14">
+    <row r="14" spans="2:6">
+      <c r="B14" s="14">
         <v>2024</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="16">
-        <f t="shared" ref="D13:D47" si="1">SUM(E13:F13)</f>
+      <c r="D14" s="16">
+        <f t="shared" ref="D14:D48" si="1">SUM(E14:F14)</f>
         <v>65409.835878821003</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E14" s="17">
         <v>10656.19658</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F14" s="17">
         <v>54753.639298821006</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="9">
+    <row r="15" spans="2:6">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="11">
-        <f t="shared" ref="D14:D16" si="2">SUM(E14:F14)</f>
+      <c r="D15" s="11">
+        <f t="shared" ref="D15:D17" si="2">SUM(E15:F15)</f>
         <v>65251.523125742053</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E15" s="12">
         <v>10090.788336235837</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="13">
         <v>55160.734789506212</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="14">
+    <row r="16" spans="2:6">
+      <c r="B16" s="14">
         <v>2024</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D16" s="16">
         <f t="shared" si="2"/>
         <v>62612.769596581908</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E16" s="17">
         <v>9471.2998499999976</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F16" s="17">
         <v>53141.469746581912</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="9">
+    <row r="17" spans="2:6">
+      <c r="B17" s="9">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <f t="shared" si="2"/>
         <v>67292.033080706242</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E17" s="12">
         <v>10696.546900000001</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>56595.486180706241</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="14">
+    <row r="18" spans="2:6">
+      <c r="B18" s="14">
         <v>2024</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D18" s="16">
         <f t="shared" si="1"/>
         <v>65793.232232409835</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E18" s="17">
         <v>9979.4764199999972</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F18" s="17">
         <v>55813.755812409843</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="9">
+    <row r="19" spans="2:6">
+      <c r="B19" s="9">
         <v>2024</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <f t="shared" si="1"/>
         <v>66756.57645741482</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E19" s="12">
         <v>9290.8170100000025</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="13">
         <v>57465.759447414814</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="14">
+    <row r="20" spans="2:6">
+      <c r="B20" s="14">
         <v>2024</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D20" s="16">
         <f t="shared" si="1"/>
         <v>64183.796049296361</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E20" s="17">
         <v>9254.3676000000014</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F20" s="17">
         <v>54929.428449296363</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="18">
+    <row r="21" spans="2:6">
+      <c r="B21" s="18">
         <v>2024</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C21" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D21" s="20">
         <f t="shared" si="1"/>
         <v>64012.44124909024</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E21" s="21">
         <v>9707.3228199999994</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F21" s="22">
         <v>54305.118429090238</v>
       </c>
     </row>
-    <row r="21" spans="2:6" hidden="1">
-      <c r="B21" s="23">
+    <row r="22" spans="2:6" hidden="1">
+      <c r="B22" s="23">
         <v>2023</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C22" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D22" s="25">
         <f t="shared" si="1"/>
         <v>65636.227902030922</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E22" s="26">
         <v>10457.710060000001</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F22" s="26">
         <v>55178.517842030924</v>
       </c>
     </row>
-    <row r="22" spans="2:6" hidden="1">
-      <c r="B22" s="9">
+    <row r="23" spans="2:6" hidden="1">
+      <c r="B23" s="9">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <f t="shared" si="1"/>
         <v>66343.772248230161</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E23" s="12">
         <v>11049.623379999995</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>55294.148868230172</v>
       </c>
     </row>
-    <row r="23" spans="2:6" hidden="1">
-      <c r="B23" s="14">
+    <row r="24" spans="2:6" hidden="1">
+      <c r="B24" s="14">
         <v>2023</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C24" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D24" s="16">
         <f t="shared" si="1"/>
         <v>74538.440708327311</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E24" s="17">
         <v>11064.185199999994</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F24" s="17">
         <v>63474.255508327318</v>
       </c>
     </row>
-    <row r="24" spans="2:6" hidden="1">
-      <c r="B24" s="9">
+    <row r="25" spans="2:6" hidden="1">
+      <c r="B25" s="9">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11">
         <f t="shared" si="1"/>
         <v>62577.19108720139</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E25" s="12">
         <v>9698.2422200000001</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F25" s="13">
         <v>52878.94886720139</v>
       </c>
     </row>
-    <row r="25" spans="2:6" hidden="1">
-      <c r="B25" s="14">
+    <row r="26" spans="2:6" hidden="1">
+      <c r="B26" s="14">
         <v>2023</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D26" s="16">
         <f t="shared" si="1"/>
         <v>67812.791455821265</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E26" s="17">
         <v>10523.073319999998</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F26" s="17">
         <v>57289.718135821262</v>
       </c>
     </row>
-    <row r="26" spans="2:6" hidden="1">
-      <c r="B26" s="9">
+    <row r="27" spans="2:6" hidden="1">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <f t="shared" si="1"/>
         <v>67712.269710793204</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E27" s="12">
         <v>9845.1506699999973</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>57867.119040793208</v>
       </c>
     </row>
-    <row r="27" spans="2:6" hidden="1">
-      <c r="B27" s="14">
+    <row r="28" spans="2:6" hidden="1">
+      <c r="B28" s="14">
         <v>2023</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D28" s="16">
         <f t="shared" si="1"/>
         <v>66844.753326239559</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E28" s="17">
         <v>10335.844959999999</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F28" s="17">
         <v>56508.908366239557</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1">
-      <c r="B28" s="9">
+    <row r="29" spans="2:6" hidden="1">
+      <c r="B29" s="9">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <f t="shared" si="1"/>
         <v>66163.140046463639</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E29" s="12">
         <v>10572.075449999998</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>55591.064596463635</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1">
-      <c r="B29" s="14">
+    <row r="30" spans="2:6" hidden="1">
+      <c r="B30" s="14">
         <v>2023</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D30" s="16">
         <f t="shared" si="1"/>
         <v>62926.446933830361</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E30" s="17">
         <v>9376.9209200000005</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F30" s="17">
         <v>53549.526013830357</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1">
-      <c r="B30" s="9">
+    <row r="31" spans="2:6" hidden="1">
+      <c r="B31" s="9">
         <v>2023</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <f t="shared" si="1"/>
         <v>70380.670155785672</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E31" s="12">
         <v>10595.588189999999</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="13">
         <v>59785.08196578567</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1">
-      <c r="B31" s="14">
+    <row r="32" spans="2:6" hidden="1">
+      <c r="B32" s="14">
         <v>2023</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D32" s="16">
         <f t="shared" si="1"/>
         <v>61289.109018179544</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E32" s="17">
         <v>8878.0714700000008</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F32" s="17">
         <v>52411.037548179542</v>
       </c>
     </row>
-    <row r="32" spans="2:6" hidden="1">
-      <c r="B32" s="18">
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="18">
         <v>2023</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C33" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D33" s="20">
         <f t="shared" si="1"/>
         <v>60647.248166616067</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E33" s="21">
         <v>9596.1618600000002</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F33" s="22">
         <v>51051.086306616067</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1">
-      <c r="B33" s="23">
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="23">
         <v>2022</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C34" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D34" s="25">
         <f t="shared" si="1"/>
         <v>68588.044349950811</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E34" s="26">
         <v>11506.01224</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F34" s="26">
         <v>57082.032109950815</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1">
-      <c r="B34" s="9">
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35" s="9">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <f t="shared" si="1"/>
         <v>68464.795097486145</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E35" s="12">
         <v>11633.829369999999</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>56830.965727486146</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1">
-      <c r="B35" s="14">
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36" s="14">
         <v>2022</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C36" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D36" s="16">
         <f t="shared" si="1"/>
         <v>70337.920445471551</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E36" s="17">
         <v>10845.919520000005</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F36" s="17">
         <v>59492.000925471548</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1">
-      <c r="B36" s="9">
+    <row r="37" spans="2:6" hidden="1">
+      <c r="B37" s="9">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <f t="shared" si="1"/>
         <v>63717.495873095577</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E37" s="12">
         <v>10054.112030000002</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F37" s="13">
         <v>53663.383843095573</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1">
-      <c r="B37" s="14">
+    <row r="38" spans="2:6" hidden="1">
+      <c r="B38" s="14">
         <v>2022</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C38" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D38" s="16">
         <f t="shared" si="1"/>
         <v>65644.980710849399</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E38" s="17">
         <v>10458.872009999997</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F38" s="17">
         <v>55186.1087008494</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1">
-      <c r="B38" s="9">
+    <row r="39" spans="2:6" hidden="1">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <f t="shared" si="1"/>
         <v>71001.646432407404</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E39" s="12">
         <v>10578.0892</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="13">
         <v>60423.557232407409</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1">
-      <c r="B39" s="14">
+    <row r="40" spans="2:6" hidden="1">
+      <c r="B40" s="14">
         <v>2022</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C40" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D40" s="16">
         <f t="shared" si="1"/>
         <v>73576.613353201523</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E40" s="17">
         <v>12418.258889999999</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F40" s="17">
         <v>61158.354463201526</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1">
-      <c r="B40" s="9">
+    <row r="41" spans="2:6" hidden="1">
+      <c r="B41" s="9">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <f t="shared" si="1"/>
         <v>70478.224170624977</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E41" s="12">
         <v>10687.703999999998</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>59790.520170624986</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1">
-      <c r="B41" s="14">
+    <row r="42" spans="2:6" hidden="1">
+      <c r="B42" s="14">
         <v>2022</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D42" s="16">
         <f t="shared" si="1"/>
         <v>65395.389936100008</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E42" s="17">
         <v>10009.792879999999</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F42" s="17">
         <v>55385.597056100007</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1">
-      <c r="B42" s="9">
+    <row r="43" spans="2:6" hidden="1">
+      <c r="B43" s="9">
         <v>2022</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <f t="shared" si="1"/>
         <v>70663.687067199993</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E43" s="12">
         <v>10790.40236</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F43" s="13">
         <v>59873.2847072</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1">
-      <c r="B43" s="14">
+    <row r="44" spans="2:6" hidden="1">
+      <c r="B44" s="14">
         <v>2022</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D44" s="16">
         <f t="shared" si="1"/>
         <v>62248.796398300008</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E44" s="17">
         <v>9503.8195899999992</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F44" s="17">
         <v>52744.976808300009</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1">
-      <c r="B44" s="18">
+    <row r="45" spans="2:6" hidden="1">
+      <c r="B45" s="18">
         <v>2022</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C45" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D45" s="20">
         <f t="shared" si="1"/>
         <v>58480.2683493</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E45" s="21">
         <v>9164.2659699999986</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F45" s="22">
         <v>49316.0023793</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1">
-      <c r="B45" s="23">
+    <row r="46" spans="2:6" hidden="1">
+      <c r="B46" s="23">
         <v>2021</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C46" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D46" s="25">
         <f t="shared" si="1"/>
         <v>71058.534132700006</v>
       </c>
-      <c r="E45" s="26">
+      <c r="E46" s="26">
         <v>11787.100349999999</v>
       </c>
-      <c r="F45" s="26">
+      <c r="F46" s="26">
         <v>59271.433782700005</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1">
-      <c r="B46" s="9">
+    <row r="47" spans="2:6" hidden="1">
+      <c r="B47" s="9">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <f t="shared" si="1"/>
         <v>70276.799918899997</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E47" s="12">
         <v>11002.488009999999</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>59274.311908899996</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1">
-      <c r="B47" s="14">
+    <row r="48" spans="2:6" hidden="1">
+      <c r="B48" s="14">
         <v>2021</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C48" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D48" s="16">
         <f t="shared" si="1"/>
         <v>71581.534583699991</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E48" s="17">
         <v>10533.75974</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F48" s="17">
         <v>61047.774843699997</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1">
-      <c r="B48" s="9">
+    <row r="49" spans="2:6" hidden="1">
+      <c r="B49" s="9">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="11">
-        <f t="shared" ref="D48:D79" si="3">SUM(E48:F48)</f>
+      <c r="D49" s="11">
+        <f t="shared" ref="D49:D80" si="3">SUM(E49:F49)</f>
         <v>63210.818573499993</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E49" s="12">
         <v>9205.0079700000006</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F49" s="13">
         <v>54005.810603499995</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1">
-      <c r="B49" s="14">
+    <row r="50" spans="2:6" hidden="1">
+      <c r="B50" s="14">
         <v>2021</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D50" s="16">
         <f t="shared" si="3"/>
         <v>64225.819261800003</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E50" s="17">
         <v>9288.4902899999997</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F50" s="17">
         <v>54937.328971800001</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1">
-      <c r="B50" s="9">
+    <row r="51" spans="2:6" hidden="1">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <f t="shared" si="3"/>
         <v>68599.738738</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E51" s="12">
         <v>9818.9590200000002</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="13">
         <v>58780.779718000005</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1">
-      <c r="B51" s="14">
+    <row r="52" spans="2:6" hidden="1">
+      <c r="B52" s="14">
         <v>2021</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C52" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D52" s="16">
         <f t="shared" si="3"/>
         <v>64729.816312399991</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E52" s="17">
         <v>9122.9778799999985</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F52" s="17">
         <v>55606.838432399993</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1">
-      <c r="B52" s="9">
+    <row r="53" spans="2:6" hidden="1">
+      <c r="B53" s="9">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="11">
         <f t="shared" si="3"/>
         <v>65852.654150000002</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E53" s="12">
         <v>8949.1877700000005</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <v>56903.466379999998</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1">
-      <c r="B53" s="14">
+    <row r="54" spans="2:6" hidden="1">
+      <c r="B54" s="14">
         <v>2021</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C54" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D54" s="16">
         <f t="shared" si="3"/>
         <v>63906.943998100003</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E54" s="17">
         <v>8684.6848300000001</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F54" s="17">
         <v>55222.259168100005</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1">
-      <c r="B54" s="9">
+    <row r="55" spans="2:6" hidden="1">
+      <c r="B55" s="9">
         <v>2021</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <f t="shared" si="3"/>
         <v>70158.308097000001</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E55" s="12">
         <v>9170.0568799999983</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="13">
         <v>60988.251216999997</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1">
-      <c r="B55" s="14">
+    <row r="56" spans="2:6" hidden="1">
+      <c r="B56" s="14">
         <v>2021</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C56" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D56" s="16">
         <f t="shared" si="3"/>
         <v>60491.315076000006</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E56" s="17">
         <v>7767.4261999999999</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F56" s="17">
         <v>52723.888876000005</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1">
-      <c r="B56" s="18">
+    <row r="57" spans="2:6" hidden="1">
+      <c r="B57" s="18">
         <v>2021</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D57" s="20">
         <f t="shared" si="3"/>
         <v>63725.913205999997</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E57" s="21">
         <v>8464.5160599999999</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F57" s="22">
         <v>55261.397145999996</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1">
-      <c r="B57" s="23">
+    <row r="58" spans="2:6" hidden="1">
+      <c r="B58" s="23">
         <v>2020</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="25">
+      <c r="D58" s="25">
         <f t="shared" si="3"/>
         <v>66303.668197999999</v>
       </c>
-      <c r="E57" s="26">
+      <c r="E58" s="26">
         <v>10783.384609999999</v>
       </c>
-      <c r="F57" s="26">
+      <c r="F58" s="26">
         <v>55520.283587999998</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1">
-      <c r="B58" s="9">
+    <row r="59" spans="2:6" hidden="1">
+      <c r="B59" s="9">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <f t="shared" si="3"/>
         <v>67964.463443000001</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E59" s="12">
         <v>10277.794900000001</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>57686.668543</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1">
-      <c r="B59" s="14">
+    <row r="60" spans="2:6" hidden="1">
+      <c r="B60" s="14">
         <v>2020</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C60" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D60" s="16">
         <f t="shared" si="3"/>
         <v>66309.962777399996</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E60" s="17">
         <v>9671.3324499999999</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F60" s="17">
         <v>56638.630327399995</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1">
-      <c r="B60" s="9">
+    <row r="61" spans="2:6" hidden="1">
+      <c r="B61" s="9">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <f t="shared" si="3"/>
         <v>57113.372982199995</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E61" s="12">
         <v>9190.6065299999991</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F61" s="13">
         <v>47922.766452199998</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1">
-      <c r="B61" s="14">
+    <row r="62" spans="2:6" hidden="1">
+      <c r="B62" s="14">
         <v>2020</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C62" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D62" s="16">
         <f t="shared" si="3"/>
         <v>52149.208218500004</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E62" s="17">
         <v>7626.2473300000001</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F62" s="17">
         <v>44522.960888500005</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1">
-      <c r="B62" s="9">
+    <row r="63" spans="2:6" hidden="1">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <f t="shared" si="3"/>
         <v>46691.5235245</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E63" s="12">
         <v>6651.94434</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="13">
         <v>40039.579184499999</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1">
-      <c r="B63" s="14">
+    <row r="64" spans="2:6" hidden="1">
+      <c r="B64" s="14">
         <v>2020</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C64" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D64" s="16">
         <f t="shared" si="3"/>
         <v>42608.422072199995</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E64" s="17">
         <v>5692.9747600000001</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F64" s="17">
         <v>36915.447312199998</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1">
-      <c r="B64" s="9">
+    <row r="65" spans="2:6" hidden="1">
+      <c r="B65" s="9">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <f t="shared" si="3"/>
         <v>38705.075583899998</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E65" s="12">
         <v>4788.3910099999994</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="13">
         <v>33916.684573899998</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1">
-      <c r="B65" s="14">
+    <row r="66" spans="2:6" hidden="1">
+      <c r="B66" s="14">
         <v>2020</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C66" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D66" s="16">
         <f t="shared" si="3"/>
         <v>33589.608145099999</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E66" s="17">
         <v>4465.3602699999992</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F66" s="17">
         <v>29124.247875100002</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1">
-      <c r="B66" s="9">
+    <row r="67" spans="2:6" hidden="1">
+      <c r="B67" s="9">
         <v>2020</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <f t="shared" si="3"/>
         <v>55854.879077099999</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E67" s="12">
         <v>7632.2904900000003</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F67" s="13">
         <v>48222.588587099999</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1">
-      <c r="B67" s="14">
+    <row r="68" spans="2:6" hidden="1">
+      <c r="B68" s="14">
         <v>2020</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C68" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D68" s="16">
         <f t="shared" si="3"/>
         <v>55217.324218999995</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E68" s="17">
         <v>8133.2827100000013</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F68" s="17">
         <v>47084.041508999995</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1">
-      <c r="B68" s="18">
+    <row r="69" spans="2:6" hidden="1">
+      <c r="B69" s="18">
         <v>2020</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C69" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D69" s="20">
         <f t="shared" si="3"/>
         <v>58590.469882999991</v>
       </c>
-      <c r="E68" s="21">
+      <c r="E69" s="21">
         <v>9265.3395099999998</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F69" s="22">
         <v>49325.130372999993</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1">
-      <c r="B69" s="23">
+    <row r="70" spans="2:6" hidden="1">
+      <c r="B70" s="23">
         <v>2019</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C70" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="25">
+      <c r="D70" s="25">
         <f t="shared" si="3"/>
         <v>66261.243409000002</v>
       </c>
-      <c r="E69" s="26">
+      <c r="E70" s="26">
         <v>12436.845440000001</v>
       </c>
-      <c r="F69" s="26">
+      <c r="F70" s="26">
         <v>53824.397969000005</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1">
-      <c r="B70" s="9">
+    <row r="71" spans="2:6" hidden="1">
+      <c r="B71" s="9">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <f t="shared" si="3"/>
         <v>68605.822660000005</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E71" s="12">
         <v>13008.518850000002</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="13">
         <v>55597.303810000005</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1">
-      <c r="B71" s="14">
+    <row r="72" spans="2:6" hidden="1">
+      <c r="B72" s="14">
         <v>2019</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D72" s="16">
         <f t="shared" si="3"/>
         <v>68729.068468999991</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E72" s="17">
         <v>13397.07763</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F72" s="17">
         <v>55331.990838999998</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1">
-      <c r="B72" s="9">
+    <row r="73" spans="2:6" hidden="1">
+      <c r="B73" s="9">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <f t="shared" si="3"/>
         <v>63953.437825000008</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E73" s="12">
         <v>11041.58344</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F73" s="13">
         <v>52911.854385000006</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1">
-      <c r="B73" s="14">
+    <row r="74" spans="2:6" hidden="1">
+      <c r="B74" s="14">
         <v>2019</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C74" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D74" s="16">
         <f t="shared" si="3"/>
         <v>64842.325497000005</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E74" s="17">
         <v>11467.57286</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F74" s="17">
         <v>53374.752637000005</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1">
-      <c r="B74" s="9">
+    <row r="75" spans="2:6" hidden="1">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <f t="shared" si="3"/>
         <v>65696.806677</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E75" s="12">
         <v>11392.176509999999</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F75" s="13">
         <v>54304.630167000003</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1">
-      <c r="B75" s="14">
+    <row r="76" spans="2:6" hidden="1">
+      <c r="B76" s="14">
         <v>2019</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C76" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D76" s="16">
         <f t="shared" si="3"/>
         <v>63546.111140000001</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E76" s="17">
         <v>11094.79</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F76" s="17">
         <v>52451.32114</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1">
-      <c r="B76" s="9">
+    <row r="77" spans="2:6" hidden="1">
+      <c r="B77" s="9">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <f t="shared" si="3"/>
         <v>65954.17841600001</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E77" s="12">
         <v>12257.484480000001</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F77" s="13">
         <v>53696.693936000003</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1">
-      <c r="B77" s="14">
+    <row r="78" spans="2:6" hidden="1">
+      <c r="B78" s="14">
         <v>2019</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C78" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D78" s="16">
         <f t="shared" si="3"/>
         <v>66025.018232000002</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E78" s="17">
         <v>12001.947099999999</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F78" s="17">
         <v>54023.071131999997</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1">
-      <c r="B78" s="9">
+    <row r="79" spans="2:6" hidden="1">
+      <c r="B79" s="9">
         <v>2019</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <f t="shared" si="3"/>
         <v>72963.126033400011</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E79" s="12">
         <v>12358.550210000001</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F79" s="13">
         <v>60604.575823400002</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1">
-      <c r="B79" s="14">
+    <row r="80" spans="2:6" hidden="1">
+      <c r="B80" s="14">
         <v>2019</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C80" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D80" s="16">
         <f t="shared" si="3"/>
         <v>62080.146123999999</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E80" s="17">
         <v>11336.3799</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F80" s="17">
         <v>50743.766223999999</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1">
-      <c r="B80" s="18">
+    <row r="81" spans="2:6" hidden="1">
+      <c r="B81" s="18">
         <v>2019</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C81" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="20">
-        <f t="shared" ref="D80:D92" si="4">SUM(E80:F80)</f>
+      <c r="D81" s="20">
+        <f t="shared" ref="D81:D93" si="4">SUM(E81:F81)</f>
         <v>66069.786819700006</v>
       </c>
-      <c r="E80" s="21">
+      <c r="E81" s="21">
         <v>13827.258220000002</v>
       </c>
-      <c r="F80" s="22">
+      <c r="F81" s="22">
         <v>52242.528599700003</v>
       </c>
     </row>
-    <row r="81" spans="2:6" hidden="1">
-      <c r="B81" s="15">
+    <row r="82" spans="2:6" hidden="1">
+      <c r="B82" s="15">
         <v>2018</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C82" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D82" s="16">
         <f t="shared" si="4"/>
         <v>66933.167482000004</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E82" s="17">
         <v>9081.5239999999994</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F82" s="17">
         <v>57851.643481999999</v>
       </c>
     </row>
-    <row r="82" spans="2:6" hidden="1">
-      <c r="B82" s="10">
+    <row r="83" spans="2:6" hidden="1">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <f t="shared" si="4"/>
         <v>71177.636041999998</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E83" s="12">
         <v>10497.208000000001</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F83" s="13">
         <v>60680.428042</v>
       </c>
     </row>
-    <row r="83" spans="2:6" hidden="1">
-      <c r="B83" s="15">
+    <row r="84" spans="2:6" hidden="1">
+      <c r="B84" s="15">
         <v>2018</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C84" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D84" s="16">
         <f t="shared" si="4"/>
         <v>71661.010011999999</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E84" s="17">
         <v>9991.6759999999995</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F84" s="17">
         <v>61669.334011999999</v>
       </c>
     </row>
-    <row r="84" spans="2:6" hidden="1">
-      <c r="B84" s="10">
+    <row r="85" spans="2:6" hidden="1">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <f t="shared" si="4"/>
         <v>66201.479049599991</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E85" s="12">
         <v>8721.2330000000002</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F85" s="13">
         <v>57480.246049599999</v>
       </c>
     </row>
-    <row r="85" spans="2:6" hidden="1">
-      <c r="B85" s="15">
+    <row r="86" spans="2:6" hidden="1">
+      <c r="B86" s="15">
         <v>2018</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C86" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D86" s="16">
         <f t="shared" si="4"/>
         <v>65268.307869800003</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E86" s="17">
         <v>9262.4320000000007</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F86" s="17">
         <v>56005.875869800002</v>
       </c>
     </row>
-    <row r="86" spans="2:6" hidden="1">
-      <c r="B86" s="10">
+    <row r="87" spans="2:6" hidden="1">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <f t="shared" si="4"/>
         <v>67408.032546999995</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E87" s="12">
         <v>8453.6</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F87" s="13">
         <v>58954.432546999997</v>
       </c>
     </row>
-    <row r="87" spans="2:6" hidden="1">
-      <c r="B87" s="15">
+    <row r="88" spans="2:6" hidden="1">
+      <c r="B88" s="15">
         <v>2018</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C88" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D88" s="16">
         <f t="shared" si="4"/>
         <v>69001.484601999997</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E88" s="17">
         <v>9016.5510999999988</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F88" s="17">
         <v>59984.933502</v>
       </c>
     </row>
-    <row r="88" spans="2:6" hidden="1">
-      <c r="B88" s="10">
+    <row r="89" spans="2:6" hidden="1">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <f t="shared" si="4"/>
         <v>68248.467609999992</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E89" s="12">
         <v>9692.3696600000003</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F89" s="13">
         <v>58556.097949999996</v>
       </c>
     </row>
-    <row r="89" spans="2:6" hidden="1">
-      <c r="B89" s="15">
+    <row r="90" spans="2:6" hidden="1">
+      <c r="B90" s="15">
         <v>2018</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C90" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D90" s="16">
         <f t="shared" si="4"/>
         <v>71464.30909499999</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E90" s="17">
         <v>9137.2187799999992</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F90" s="17">
         <v>62327.090314999994</v>
       </c>
     </row>
-    <row r="90" spans="2:6" hidden="1">
-      <c r="B90" s="10">
+    <row r="91" spans="2:6" hidden="1">
+      <c r="B91" s="10">
         <v>2018</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D91" s="11">
         <f t="shared" si="4"/>
         <v>72436.418715000007</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E91" s="12">
         <v>9317.3212800000001</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F91" s="13">
         <v>63119.097435000003</v>
       </c>
     </row>
-    <row r="91" spans="2:6" hidden="1">
-      <c r="B91" s="15">
+    <row r="92" spans="2:6" hidden="1">
+      <c r="B92" s="15">
         <v>2018</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C92" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="16">
+      <c r="D92" s="16">
         <f t="shared" si="4"/>
         <v>60034.670899299999</v>
       </c>
-      <c r="E91" s="17">
+      <c r="E92" s="17">
         <v>8005.7809000000007</v>
       </c>
-      <c r="F91" s="17">
+      <c r="F92" s="17">
         <v>52028.889999300001</v>
       </c>
     </row>
-    <row r="92" spans="2:6" hidden="1">
-      <c r="B92" s="10">
+    <row r="93" spans="2:6" hidden="1">
+      <c r="B93" s="10">
         <v>2018</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C93" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D93" s="11">
         <f t="shared" si="4"/>
         <v>59958.963042999996</v>
       </c>
-      <c r="E92" s="12">
+      <c r="E93" s="12">
         <v>8140.3959999999997</v>
       </c>
-      <c r="F92" s="13">
+      <c r="F93" s="13">
         <v>51818.567042999995</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6">
-      <c r="B93" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="94" spans="2:6">
       <c r="B94" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="2:6">
-      <c r="F95" s="27"/>
+    <row r="96" spans="2:6">
+      <c r="F96" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Carga_Total_N_Aero.xlsx
+++ b/Carga_Total_N_Aero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D44F62-6CE4-4D96-A70F-73419A32F3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709A980A-6ACB-4E29-A9DD-60A649A72B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_30.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="22">
   <si>
     <t>Internacional</t>
   </si>
@@ -101,7 +101,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -542,11 +542,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F93" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B5:F93" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F95" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B5:F95" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
+        <filter val="2025"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -786,7 +787,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B1:F96"/>
+  <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -847,17 +848,17 @@
         <v>2025</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="16">
         <f>SUM(E6:F6)</f>
-        <v>60440.968873084203</v>
+        <v>66462.845157584423</v>
       </c>
       <c r="E6" s="17">
-        <v>10011.761319999998</v>
+        <v>10030.901829999999</v>
       </c>
       <c r="F6" s="17">
-        <v>50429.207553084205</v>
+        <v>56431.94332758442</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -865,17 +866,17 @@
         <v>2025</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="11">
         <f>SUM(E7:F7)</f>
-        <v>66899.188512835943</v>
+        <v>66225.10957632956</v>
       </c>
       <c r="E7" s="12">
-        <v>9838.3982400000004</v>
+        <v>10746.452795019999</v>
       </c>
       <c r="F7" s="13">
-        <v>57060.79027283594</v>
+        <v>55478.656781309568</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -883,71 +884,71 @@
         <v>2025</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" ref="D8:D13" si="0">SUM(E8:F8)</f>
+        <v>60440.968873084203</v>
+      </c>
+      <c r="E8" s="17">
+        <v>10011.761319999998</v>
+      </c>
+      <c r="F8" s="17">
+        <v>50429.207553084205</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>66899.188512835943</v>
+      </c>
+      <c r="E9" s="12">
+        <v>9838.3982400000004</v>
+      </c>
+      <c r="F9" s="13">
+        <v>57060.79027283594</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="15">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="16">
-        <f>SUM(E8:F8)</f>
+      <c r="D10" s="16">
+        <f t="shared" si="0"/>
         <v>58549.759313595176</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E10" s="17">
         <v>9040.4374190100007</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F10" s="17">
         <v>49509.321894585177</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="18">
+    <row r="11" spans="2:6">
+      <c r="B11" s="18">
         <v>2025</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="20">
-        <f>SUM(E9:F9)</f>
+      <c r="D11" s="20">
+        <f t="shared" si="0"/>
         <v>56412.033907040895</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E11" s="21">
         <v>9481.3890400000037</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F11" s="22">
         <v>46930.644867040894</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="14">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="16">
-        <f>SUM(E10:F10)</f>
-        <v>64500.590390157522</v>
-      </c>
-      <c r="E10" s="17">
-        <v>10701.994849999997</v>
-      </c>
-      <c r="F10" s="17">
-        <v>53798.595540157527</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="9">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="11">
-        <f>SUM(E11:F11)</f>
-        <v>66458.242703832133</v>
-      </c>
-      <c r="E11" s="12">
-        <v>11494.171069999997</v>
-      </c>
-      <c r="F11" s="13">
-        <v>54964.071633832144</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -955,17 +956,17 @@
         <v>2024</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="16">
-        <f t="shared" ref="D12" si="0">SUM(E12:F12)</f>
-        <v>67764.796745573578</v>
+        <f t="shared" si="0"/>
+        <v>64250.428390157533</v>
       </c>
       <c r="E12" s="17">
-        <v>11457.6875</v>
+        <v>10701.994849999997</v>
       </c>
       <c r="F12" s="17">
-        <v>56307.109245573578</v>
+        <v>53548.433540157537</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -973,17 +974,17 @@
         <v>2024</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="11">
-        <f>SUM(E13:F13)</f>
-        <v>60656.284715460308</v>
+        <f t="shared" si="0"/>
+        <v>67242.603703832137</v>
       </c>
       <c r="E13" s="12">
-        <v>9752.9897600000004</v>
+        <v>11494.171069999997</v>
       </c>
       <c r="F13" s="13">
-        <v>50903.294955460311</v>
+        <v>55748.432633832141</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -991,17 +992,17 @@
         <v>2024</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D14" s="16">
-        <f t="shared" ref="D14:D48" si="1">SUM(E14:F14)</f>
-        <v>65409.835878821003</v>
+        <f t="shared" ref="D14" si="1">SUM(E14:F14)</f>
+        <v>69206.521745573584</v>
       </c>
       <c r="E14" s="17">
-        <v>10656.19658</v>
+        <v>11457.6875</v>
       </c>
       <c r="F14" s="17">
-        <v>54753.639298821006</v>
+        <v>57748.834245573584</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -1009,17 +1010,17 @@
         <v>2024</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" ref="D15:D17" si="2">SUM(E15:F15)</f>
-        <v>65251.523125742053</v>
+        <f>SUM(E15:F15)</f>
+        <v>62030.163715460309</v>
       </c>
       <c r="E15" s="12">
-        <v>10090.788336235837</v>
+        <v>9752.9897600000004</v>
       </c>
       <c r="F15" s="13">
-        <v>55160.734789506212</v>
+        <v>52277.173955460312</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -1027,17 +1028,17 @@
         <v>2024</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="16">
-        <f t="shared" si="2"/>
-        <v>62612.769596581908</v>
+        <f t="shared" ref="D16:D50" si="2">SUM(E16:F16)</f>
+        <v>65259.126878821015</v>
       </c>
       <c r="E16" s="17">
-        <v>9471.2998499999976</v>
+        <v>10656.19658</v>
       </c>
       <c r="F16" s="17">
-        <v>53141.469746581912</v>
+        <v>54602.930298821011</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -1045,17 +1046,17 @@
         <v>2024</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" si="2"/>
-        <v>67292.033080706242</v>
+        <f t="shared" ref="D17:D19" si="3">SUM(E17:F17)</f>
+        <v>66121.667125742053</v>
       </c>
       <c r="E17" s="12">
-        <v>10696.546900000001</v>
+        <v>10090.788336235837</v>
       </c>
       <c r="F17" s="13">
-        <v>56595.486180706241</v>
+        <v>56030.878789506212</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -1063,17 +1064,17 @@
         <v>2024</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" s="16">
-        <f t="shared" si="1"/>
-        <v>65793.232232409835</v>
+        <f t="shared" si="3"/>
+        <v>62938.58459658191</v>
       </c>
       <c r="E18" s="17">
-        <v>9979.4764199999972</v>
+        <v>9471.2998499999976</v>
       </c>
       <c r="F18" s="17">
-        <v>55813.755812409843</v>
+        <v>53467.284746581914</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -1081,17 +1082,17 @@
         <v>2024</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" s="11">
-        <f t="shared" si="1"/>
-        <v>66756.57645741482</v>
+        <f t="shared" si="3"/>
+        <v>67406.691080706252</v>
       </c>
       <c r="E19" s="12">
-        <v>9290.8170100000025</v>
+        <v>10696.546900000001</v>
       </c>
       <c r="F19" s="13">
-        <v>57465.759447414814</v>
+        <v>56710.144180706244</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -1099,89 +1100,89 @@
         <v>2024</v>
       </c>
       <c r="C20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" si="2"/>
+        <v>65792.956232409837</v>
+      </c>
+      <c r="E20" s="17">
+        <v>9979.4764199999972</v>
+      </c>
+      <c r="F20" s="17">
+        <v>55813.479812409838</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="2"/>
+        <v>66758.094457414816</v>
+      </c>
+      <c r="E21" s="12">
+        <v>9290.8170100000025</v>
+      </c>
+      <c r="F21" s="13">
+        <v>57467.277447414817</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="16">
-        <f t="shared" si="1"/>
-        <v>64183.796049296361</v>
-      </c>
-      <c r="E20" s="17">
+      <c r="D22" s="16">
+        <f t="shared" si="2"/>
+        <v>64256.670049296357</v>
+      </c>
+      <c r="E22" s="17">
         <v>9254.3676000000014</v>
       </c>
-      <c r="F20" s="17">
-        <v>54929.428449296363</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="18">
+      <c r="F22" s="17">
+        <v>55002.30244929636</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="18">
         <v>2024</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C23" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="20">
-        <f t="shared" si="1"/>
-        <v>64012.44124909024</v>
-      </c>
-      <c r="E21" s="21">
+      <c r="D23" s="20">
+        <f t="shared" si="2"/>
+        <v>63954.918249090239</v>
+      </c>
+      <c r="E23" s="21">
         <v>9707.3228199999994</v>
       </c>
-      <c r="F21" s="22">
-        <v>54305.118429090238</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" hidden="1">
-      <c r="B22" s="23">
+      <c r="F23" s="22">
+        <v>54247.595429090237</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" hidden="1">
+      <c r="B24" s="23">
         <v>2023</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C24" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="25">
-        <f t="shared" si="1"/>
+      <c r="D24" s="25">
+        <f t="shared" si="2"/>
         <v>65636.227902030922</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E24" s="26">
         <v>10457.710060000001</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F24" s="26">
         <v>55178.517842030924</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" hidden="1">
-      <c r="B23" s="9">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="11">
-        <f t="shared" si="1"/>
-        <v>66343.772248230161</v>
-      </c>
-      <c r="E23" s="12">
-        <v>11049.623379999995</v>
-      </c>
-      <c r="F23" s="13">
-        <v>55294.148868230172</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" hidden="1">
-      <c r="B24" s="14">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="16">
-        <f t="shared" si="1"/>
-        <v>74538.440708327311</v>
-      </c>
-      <c r="E24" s="17">
-        <v>11064.185199999994</v>
-      </c>
-      <c r="F24" s="17">
-        <v>63474.255508327318</v>
       </c>
     </row>
     <row r="25" spans="2:6" hidden="1">
@@ -1189,17 +1190,17 @@
         <v>2023</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25" s="11">
-        <f t="shared" si="1"/>
-        <v>62577.19108720139</v>
+        <f t="shared" si="2"/>
+        <v>66343.772248230161</v>
       </c>
       <c r="E25" s="12">
-        <v>9698.2422200000001</v>
+        <v>11049.623379999995</v>
       </c>
       <c r="F25" s="13">
-        <v>52878.94886720139</v>
+        <v>55294.148868230172</v>
       </c>
     </row>
     <row r="26" spans="2:6" hidden="1">
@@ -1207,17 +1208,17 @@
         <v>2023</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D26" s="16">
-        <f t="shared" si="1"/>
-        <v>67812.791455821265</v>
+        <f t="shared" si="2"/>
+        <v>74538.440708327311</v>
       </c>
       <c r="E26" s="17">
-        <v>10523.073319999998</v>
+        <v>11064.185199999994</v>
       </c>
       <c r="F26" s="17">
-        <v>57289.718135821262</v>
+        <v>63474.255508327318</v>
       </c>
     </row>
     <row r="27" spans="2:6" hidden="1">
@@ -1225,17 +1226,17 @@
         <v>2023</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D27" s="11">
-        <f t="shared" si="1"/>
-        <v>67712.269710793204</v>
+        <f t="shared" si="2"/>
+        <v>62577.19108720139</v>
       </c>
       <c r="E27" s="12">
-        <v>9845.1506699999973</v>
+        <v>9698.2422200000001</v>
       </c>
       <c r="F27" s="13">
-        <v>57867.119040793208</v>
+        <v>52878.94886720139</v>
       </c>
     </row>
     <row r="28" spans="2:6" hidden="1">
@@ -1243,17 +1244,17 @@
         <v>2023</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" s="16">
-        <f t="shared" si="1"/>
-        <v>66844.753326239559</v>
+        <f t="shared" si="2"/>
+        <v>67812.791455821265</v>
       </c>
       <c r="E28" s="17">
-        <v>10335.844959999999</v>
+        <v>10523.073319999998</v>
       </c>
       <c r="F28" s="17">
-        <v>56508.908366239557</v>
+        <v>57289.718135821262</v>
       </c>
     </row>
     <row r="29" spans="2:6" hidden="1">
@@ -1261,17 +1262,17 @@
         <v>2023</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D29" s="11">
-        <f t="shared" si="1"/>
-        <v>66163.140046463639</v>
+        <f t="shared" si="2"/>
+        <v>67712.269710793204</v>
       </c>
       <c r="E29" s="12">
-        <v>10572.075449999998</v>
+        <v>9845.1506699999973</v>
       </c>
       <c r="F29" s="13">
-        <v>55591.064596463635</v>
+        <v>57867.119040793208</v>
       </c>
     </row>
     <row r="30" spans="2:6" hidden="1">
@@ -1279,17 +1280,17 @@
         <v>2023</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30" s="16">
-        <f t="shared" si="1"/>
-        <v>62926.446933830361</v>
+        <f t="shared" si="2"/>
+        <v>66844.753326239559</v>
       </c>
       <c r="E30" s="17">
-        <v>9376.9209200000005</v>
+        <v>10335.844959999999</v>
       </c>
       <c r="F30" s="17">
-        <v>53549.526013830357</v>
+        <v>56508.908366239557</v>
       </c>
     </row>
     <row r="31" spans="2:6" hidden="1">
@@ -1297,17 +1298,17 @@
         <v>2023</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" s="11">
-        <f t="shared" si="1"/>
-        <v>70380.670155785672</v>
+        <f t="shared" si="2"/>
+        <v>66163.140046463639</v>
       </c>
       <c r="E31" s="12">
-        <v>10595.588189999999</v>
+        <v>10572.075449999998</v>
       </c>
       <c r="F31" s="13">
-        <v>59785.08196578567</v>
+        <v>55591.064596463635</v>
       </c>
     </row>
     <row r="32" spans="2:6" hidden="1">
@@ -1315,89 +1316,89 @@
         <v>2023</v>
       </c>
       <c r="C32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="16">
+        <f t="shared" si="2"/>
+        <v>62926.446933830361</v>
+      </c>
+      <c r="E32" s="17">
+        <v>9376.9209200000005</v>
+      </c>
+      <c r="F32" s="17">
+        <v>53549.526013830357</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="11">
+        <f t="shared" si="2"/>
+        <v>70380.670155785672</v>
+      </c>
+      <c r="E33" s="12">
+        <v>10595.588189999999</v>
+      </c>
+      <c r="F33" s="13">
+        <v>59785.08196578567</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="16">
-        <f t="shared" si="1"/>
+      <c r="D34" s="16">
+        <f t="shared" si="2"/>
         <v>61289.109018179544</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E34" s="17">
         <v>8878.0714700000008</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F34" s="17">
         <v>52411.037548179542</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1">
-      <c r="B33" s="18">
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35" s="18">
         <v>2023</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C35" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="20">
-        <f t="shared" si="1"/>
+      <c r="D35" s="20">
+        <f t="shared" si="2"/>
         <v>60647.248166616067</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E35" s="21">
         <v>9596.1618600000002</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F35" s="22">
         <v>51051.086306616067</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1">
-      <c r="B34" s="23">
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36" s="23">
         <v>2022</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C36" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="25">
-        <f t="shared" si="1"/>
+      <c r="D36" s="25">
+        <f t="shared" si="2"/>
         <v>68588.044349950811</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E36" s="26">
         <v>11506.01224</v>
       </c>
-      <c r="F34" s="26">
+      <c r="F36" s="26">
         <v>57082.032109950815</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" hidden="1">
-      <c r="B35" s="9">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="11">
-        <f t="shared" si="1"/>
-        <v>68464.795097486145</v>
-      </c>
-      <c r="E35" s="12">
-        <v>11633.829369999999</v>
-      </c>
-      <c r="F35" s="13">
-        <v>56830.965727486146</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" hidden="1">
-      <c r="B36" s="14">
-        <v>2022</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="16">
-        <f t="shared" si="1"/>
-        <v>70337.920445471551</v>
-      </c>
-      <c r="E36" s="17">
-        <v>10845.919520000005</v>
-      </c>
-      <c r="F36" s="17">
-        <v>59492.000925471548</v>
       </c>
     </row>
     <row r="37" spans="2:6" hidden="1">
@@ -1405,17 +1406,17 @@
         <v>2022</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D37" s="11">
-        <f t="shared" si="1"/>
-        <v>63717.495873095577</v>
+        <f t="shared" si="2"/>
+        <v>68464.795097486145</v>
       </c>
       <c r="E37" s="12">
-        <v>10054.112030000002</v>
+        <v>11633.829369999999</v>
       </c>
       <c r="F37" s="13">
-        <v>53663.383843095573</v>
+        <v>56830.965727486146</v>
       </c>
     </row>
     <row r="38" spans="2:6" hidden="1">
@@ -1423,17 +1424,17 @@
         <v>2022</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D38" s="16">
-        <f t="shared" si="1"/>
-        <v>65644.980710849399</v>
+        <f t="shared" si="2"/>
+        <v>70337.920445471551</v>
       </c>
       <c r="E38" s="17">
-        <v>10458.872009999997</v>
+        <v>10845.919520000005</v>
       </c>
       <c r="F38" s="17">
-        <v>55186.1087008494</v>
+        <v>59492.000925471548</v>
       </c>
     </row>
     <row r="39" spans="2:6" hidden="1">
@@ -1441,17 +1442,17 @@
         <v>2022</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D39" s="11">
-        <f t="shared" si="1"/>
-        <v>71001.646432407404</v>
+        <f t="shared" si="2"/>
+        <v>63717.495873095577</v>
       </c>
       <c r="E39" s="12">
-        <v>10578.0892</v>
+        <v>10054.112030000002</v>
       </c>
       <c r="F39" s="13">
-        <v>60423.557232407409</v>
+        <v>53663.383843095573</v>
       </c>
     </row>
     <row r="40" spans="2:6" hidden="1">
@@ -1459,17 +1460,17 @@
         <v>2022</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" s="16">
-        <f t="shared" si="1"/>
-        <v>73576.613353201523</v>
+        <f t="shared" si="2"/>
+        <v>65644.980710849399</v>
       </c>
       <c r="E40" s="17">
-        <v>12418.258889999999</v>
+        <v>10458.872009999997</v>
       </c>
       <c r="F40" s="17">
-        <v>61158.354463201526</v>
+        <v>55186.1087008494</v>
       </c>
     </row>
     <row r="41" spans="2:6" hidden="1">
@@ -1477,17 +1478,17 @@
         <v>2022</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D41" s="11">
-        <f t="shared" si="1"/>
-        <v>70478.224170624977</v>
+        <f t="shared" si="2"/>
+        <v>71001.646432407404</v>
       </c>
       <c r="E41" s="12">
-        <v>10687.703999999998</v>
+        <v>10578.0892</v>
       </c>
       <c r="F41" s="13">
-        <v>59790.520170624986</v>
+        <v>60423.557232407409</v>
       </c>
     </row>
     <row r="42" spans="2:6" hidden="1">
@@ -1495,17 +1496,17 @@
         <v>2022</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D42" s="16">
-        <f t="shared" si="1"/>
-        <v>65395.389936100008</v>
+        <f t="shared" si="2"/>
+        <v>73576.613353201523</v>
       </c>
       <c r="E42" s="17">
-        <v>10009.792879999999</v>
+        <v>12418.258889999999</v>
       </c>
       <c r="F42" s="17">
-        <v>55385.597056100007</v>
+        <v>61158.354463201526</v>
       </c>
     </row>
     <row r="43" spans="2:6" hidden="1">
@@ -1513,17 +1514,17 @@
         <v>2022</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D43" s="11">
-        <f t="shared" si="1"/>
-        <v>70663.687067199993</v>
+        <f t="shared" si="2"/>
+        <v>70478.224170624977</v>
       </c>
       <c r="E43" s="12">
-        <v>10790.40236</v>
+        <v>10687.703999999998</v>
       </c>
       <c r="F43" s="13">
-        <v>59873.2847072</v>
+        <v>59790.520170624986</v>
       </c>
     </row>
     <row r="44" spans="2:6" hidden="1">
@@ -1531,89 +1532,89 @@
         <v>2022</v>
       </c>
       <c r="C44" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="16">
+        <f t="shared" si="2"/>
+        <v>65395.389936100008</v>
+      </c>
+      <c r="E44" s="17">
+        <v>10009.792879999999</v>
+      </c>
+      <c r="F44" s="17">
+        <v>55385.597056100007</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" hidden="1">
+      <c r="B45" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="11">
+        <f t="shared" si="2"/>
+        <v>70663.687067199993</v>
+      </c>
+      <c r="E45" s="12">
+        <v>10790.40236</v>
+      </c>
+      <c r="F45" s="13">
+        <v>59873.2847072</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" hidden="1">
+      <c r="B46" s="14">
+        <v>2022</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="16">
-        <f t="shared" si="1"/>
+      <c r="D46" s="16">
+        <f t="shared" si="2"/>
         <v>62248.796398300008</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E46" s="17">
         <v>9503.8195899999992</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F46" s="17">
         <v>52744.976808300009</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1">
-      <c r="B45" s="18">
+    <row r="47" spans="2:6" hidden="1">
+      <c r="B47" s="18">
         <v>2022</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="20">
-        <f t="shared" si="1"/>
+      <c r="D47" s="20">
+        <f t="shared" si="2"/>
         <v>58480.2683493</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E47" s="21">
         <v>9164.2659699999986</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F47" s="22">
         <v>49316.0023793</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1">
-      <c r="B46" s="23">
+    <row r="48" spans="2:6" hidden="1">
+      <c r="B48" s="23">
         <v>2021</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="25">
-        <f t="shared" si="1"/>
+      <c r="D48" s="25">
+        <f t="shared" si="2"/>
         <v>71058.534132700006</v>
       </c>
-      <c r="E46" s="26">
+      <c r="E48" s="26">
         <v>11787.100349999999</v>
       </c>
-      <c r="F46" s="26">
+      <c r="F48" s="26">
         <v>59271.433782700005</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" hidden="1">
-      <c r="B47" s="9">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="11">
-        <f t="shared" si="1"/>
-        <v>70276.799918899997</v>
-      </c>
-      <c r="E47" s="12">
-        <v>11002.488009999999</v>
-      </c>
-      <c r="F47" s="13">
-        <v>59274.311908899996</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" hidden="1">
-      <c r="B48" s="14">
-        <v>2021</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="16">
-        <f t="shared" si="1"/>
-        <v>71581.534583699991</v>
-      </c>
-      <c r="E48" s="17">
-        <v>10533.75974</v>
-      </c>
-      <c r="F48" s="17">
-        <v>61047.774843699997</v>
       </c>
     </row>
     <row r="49" spans="2:6" hidden="1">
@@ -1621,17 +1622,17 @@
         <v>2021</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D49" s="11">
-        <f t="shared" ref="D49:D80" si="3">SUM(E49:F49)</f>
-        <v>63210.818573499993</v>
+        <f t="shared" si="2"/>
+        <v>70276.799918899997</v>
       </c>
       <c r="E49" s="12">
-        <v>9205.0079700000006</v>
+        <v>11002.488009999999</v>
       </c>
       <c r="F49" s="13">
-        <v>54005.810603499995</v>
+        <v>59274.311908899996</v>
       </c>
     </row>
     <row r="50" spans="2:6" hidden="1">
@@ -1639,17 +1640,17 @@
         <v>2021</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D50" s="16">
-        <f t="shared" si="3"/>
-        <v>64225.819261800003</v>
+        <f t="shared" si="2"/>
+        <v>71581.534583699991</v>
       </c>
       <c r="E50" s="17">
-        <v>9288.4902899999997</v>
+        <v>10533.75974</v>
       </c>
       <c r="F50" s="17">
-        <v>54937.328971800001</v>
+        <v>61047.774843699997</v>
       </c>
     </row>
     <row r="51" spans="2:6" hidden="1">
@@ -1657,17 +1658,17 @@
         <v>2021</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D51" s="11">
-        <f t="shared" si="3"/>
-        <v>68599.738738</v>
+        <f t="shared" ref="D51:D82" si="4">SUM(E51:F51)</f>
+        <v>63210.818573499993</v>
       </c>
       <c r="E51" s="12">
-        <v>9818.9590200000002</v>
+        <v>9205.0079700000006</v>
       </c>
       <c r="F51" s="13">
-        <v>58780.779718000005</v>
+        <v>54005.810603499995</v>
       </c>
     </row>
     <row r="52" spans="2:6" hidden="1">
@@ -1675,17 +1676,17 @@
         <v>2021</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D52" s="16">
-        <f t="shared" si="3"/>
-        <v>64729.816312399991</v>
+        <f t="shared" si="4"/>
+        <v>64225.819261800003</v>
       </c>
       <c r="E52" s="17">
-        <v>9122.9778799999985</v>
+        <v>9288.4902899999997</v>
       </c>
       <c r="F52" s="17">
-        <v>55606.838432399993</v>
+        <v>54937.328971800001</v>
       </c>
     </row>
     <row r="53" spans="2:6" hidden="1">
@@ -1693,17 +1694,17 @@
         <v>2021</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D53" s="11">
-        <f t="shared" si="3"/>
-        <v>65852.654150000002</v>
+        <f t="shared" si="4"/>
+        <v>68599.738738</v>
       </c>
       <c r="E53" s="12">
-        <v>8949.1877700000005</v>
+        <v>9818.9590200000002</v>
       </c>
       <c r="F53" s="13">
-        <v>56903.466379999998</v>
+        <v>58780.779718000005</v>
       </c>
     </row>
     <row r="54" spans="2:6" hidden="1">
@@ -1711,17 +1712,17 @@
         <v>2021</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D54" s="16">
-        <f t="shared" si="3"/>
-        <v>63906.943998100003</v>
+        <f t="shared" si="4"/>
+        <v>64729.816312399991</v>
       </c>
       <c r="E54" s="17">
-        <v>8684.6848300000001</v>
+        <v>9122.9778799999985</v>
       </c>
       <c r="F54" s="17">
-        <v>55222.259168100005</v>
+        <v>55606.838432399993</v>
       </c>
     </row>
     <row r="55" spans="2:6" hidden="1">
@@ -1729,17 +1730,17 @@
         <v>2021</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D55" s="11">
-        <f t="shared" si="3"/>
-        <v>70158.308097000001</v>
+        <f t="shared" si="4"/>
+        <v>65852.654150000002</v>
       </c>
       <c r="E55" s="12">
-        <v>9170.0568799999983</v>
+        <v>8949.1877700000005</v>
       </c>
       <c r="F55" s="13">
-        <v>60988.251216999997</v>
+        <v>56903.466379999998</v>
       </c>
     </row>
     <row r="56" spans="2:6" hidden="1">
@@ -1747,89 +1748,89 @@
         <v>2021</v>
       </c>
       <c r="C56" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="16">
+        <f t="shared" si="4"/>
+        <v>63906.943998100003</v>
+      </c>
+      <c r="E56" s="17">
+        <v>8684.6848300000001</v>
+      </c>
+      <c r="F56" s="17">
+        <v>55222.259168100005</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" hidden="1">
+      <c r="B57" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="11">
+        <f t="shared" si="4"/>
+        <v>70158.308097000001</v>
+      </c>
+      <c r="E57" s="12">
+        <v>9170.0568799999983</v>
+      </c>
+      <c r="F57" s="13">
+        <v>60988.251216999997</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" hidden="1">
+      <c r="B58" s="14">
+        <v>2021</v>
+      </c>
+      <c r="C58" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="16">
-        <f t="shared" si="3"/>
+      <c r="D58" s="16">
+        <f t="shared" si="4"/>
         <v>60491.315076000006</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E58" s="17">
         <v>7767.4261999999999</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F58" s="17">
         <v>52723.888876000005</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1">
-      <c r="B57" s="18">
+    <row r="59" spans="2:6" hidden="1">
+      <c r="B59" s="18">
         <v>2021</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C59" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="20">
-        <f t="shared" si="3"/>
+      <c r="D59" s="20">
+        <f t="shared" si="4"/>
         <v>63725.913205999997</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E59" s="21">
         <v>8464.5160599999999</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F59" s="22">
         <v>55261.397145999996</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1">
-      <c r="B58" s="23">
+    <row r="60" spans="2:6" hidden="1">
+      <c r="B60" s="23">
         <v>2020</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C60" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="25">
-        <f t="shared" si="3"/>
+      <c r="D60" s="25">
+        <f t="shared" si="4"/>
         <v>66303.668197999999</v>
       </c>
-      <c r="E58" s="26">
+      <c r="E60" s="26">
         <v>10783.384609999999</v>
       </c>
-      <c r="F58" s="26">
+      <c r="F60" s="26">
         <v>55520.283587999998</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" hidden="1">
-      <c r="B59" s="9">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="11">
-        <f t="shared" si="3"/>
-        <v>67964.463443000001</v>
-      </c>
-      <c r="E59" s="12">
-        <v>10277.794900000001</v>
-      </c>
-      <c r="F59" s="13">
-        <v>57686.668543</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" hidden="1">
-      <c r="B60" s="14">
-        <v>2020</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="16">
-        <f t="shared" si="3"/>
-        <v>66309.962777399996</v>
-      </c>
-      <c r="E60" s="17">
-        <v>9671.3324499999999</v>
-      </c>
-      <c r="F60" s="17">
-        <v>56638.630327399995</v>
       </c>
     </row>
     <row r="61" spans="2:6" hidden="1">
@@ -1837,17 +1838,17 @@
         <v>2020</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D61" s="11">
-        <f t="shared" si="3"/>
-        <v>57113.372982199995</v>
+        <f t="shared" si="4"/>
+        <v>67964.463443000001</v>
       </c>
       <c r="E61" s="12">
-        <v>9190.6065299999991</v>
+        <v>10277.794900000001</v>
       </c>
       <c r="F61" s="13">
-        <v>47922.766452199998</v>
+        <v>57686.668543</v>
       </c>
     </row>
     <row r="62" spans="2:6" hidden="1">
@@ -1855,17 +1856,17 @@
         <v>2020</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D62" s="16">
-        <f t="shared" si="3"/>
-        <v>52149.208218500004</v>
+        <f t="shared" si="4"/>
+        <v>66309.962777399996</v>
       </c>
       <c r="E62" s="17">
-        <v>7626.2473300000001</v>
+        <v>9671.3324499999999</v>
       </c>
       <c r="F62" s="17">
-        <v>44522.960888500005</v>
+        <v>56638.630327399995</v>
       </c>
     </row>
     <row r="63" spans="2:6" hidden="1">
@@ -1873,17 +1874,17 @@
         <v>2020</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D63" s="11">
-        <f t="shared" si="3"/>
-        <v>46691.5235245</v>
+        <f t="shared" si="4"/>
+        <v>57113.372982199995</v>
       </c>
       <c r="E63" s="12">
-        <v>6651.94434</v>
+        <v>9190.6065299999991</v>
       </c>
       <c r="F63" s="13">
-        <v>40039.579184499999</v>
+        <v>47922.766452199998</v>
       </c>
     </row>
     <row r="64" spans="2:6" hidden="1">
@@ -1891,17 +1892,17 @@
         <v>2020</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D64" s="16">
-        <f t="shared" si="3"/>
-        <v>42608.422072199995</v>
+        <f t="shared" si="4"/>
+        <v>52149.208218500004</v>
       </c>
       <c r="E64" s="17">
-        <v>5692.9747600000001</v>
+        <v>7626.2473300000001</v>
       </c>
       <c r="F64" s="17">
-        <v>36915.447312199998</v>
+        <v>44522.960888500005</v>
       </c>
     </row>
     <row r="65" spans="2:6" hidden="1">
@@ -1909,17 +1910,17 @@
         <v>2020</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D65" s="11">
-        <f t="shared" si="3"/>
-        <v>38705.075583899998</v>
+        <f t="shared" si="4"/>
+        <v>46691.5235245</v>
       </c>
       <c r="E65" s="12">
-        <v>4788.3910099999994</v>
+        <v>6651.94434</v>
       </c>
       <c r="F65" s="13">
-        <v>33916.684573899998</v>
+        <v>40039.579184499999</v>
       </c>
     </row>
     <row r="66" spans="2:6" hidden="1">
@@ -1927,17 +1928,17 @@
         <v>2020</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D66" s="16">
-        <f t="shared" si="3"/>
-        <v>33589.608145099999</v>
+        <f t="shared" si="4"/>
+        <v>42608.422072199995</v>
       </c>
       <c r="E66" s="17">
-        <v>4465.3602699999992</v>
+        <v>5692.9747600000001</v>
       </c>
       <c r="F66" s="17">
-        <v>29124.247875100002</v>
+        <v>36915.447312199998</v>
       </c>
     </row>
     <row r="67" spans="2:6" hidden="1">
@@ -1945,17 +1946,17 @@
         <v>2020</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D67" s="11">
-        <f t="shared" si="3"/>
-        <v>55854.879077099999</v>
+        <f t="shared" si="4"/>
+        <v>38705.075583899998</v>
       </c>
       <c r="E67" s="12">
-        <v>7632.2904900000003</v>
+        <v>4788.3910099999994</v>
       </c>
       <c r="F67" s="13">
-        <v>48222.588587099999</v>
+        <v>33916.684573899998</v>
       </c>
     </row>
     <row r="68" spans="2:6" hidden="1">
@@ -1963,89 +1964,89 @@
         <v>2020</v>
       </c>
       <c r="C68" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="16">
+        <f t="shared" si="4"/>
+        <v>33589.608145099999</v>
+      </c>
+      <c r="E68" s="17">
+        <v>4465.3602699999992</v>
+      </c>
+      <c r="F68" s="17">
+        <v>29124.247875100002</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" hidden="1">
+      <c r="B69" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="11">
+        <f t="shared" si="4"/>
+        <v>55854.879077099999</v>
+      </c>
+      <c r="E69" s="12">
+        <v>7632.2904900000003</v>
+      </c>
+      <c r="F69" s="13">
+        <v>48222.588587099999</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" hidden="1">
+      <c r="B70" s="14">
+        <v>2020</v>
+      </c>
+      <c r="C70" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="16">
-        <f t="shared" si="3"/>
+      <c r="D70" s="16">
+        <f t="shared" si="4"/>
         <v>55217.324218999995</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E70" s="17">
         <v>8133.2827100000013</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F70" s="17">
         <v>47084.041508999995</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1">
-      <c r="B69" s="18">
+    <row r="71" spans="2:6" hidden="1">
+      <c r="B71" s="18">
         <v>2020</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C71" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="20">
-        <f t="shared" si="3"/>
+      <c r="D71" s="20">
+        <f t="shared" si="4"/>
         <v>58590.469882999991</v>
       </c>
-      <c r="E69" s="21">
+      <c r="E71" s="21">
         <v>9265.3395099999998</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F71" s="22">
         <v>49325.130372999993</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1">
-      <c r="B70" s="23">
+    <row r="72" spans="2:6" hidden="1">
+      <c r="B72" s="23">
         <v>2019</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C72" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="25">
-        <f t="shared" si="3"/>
+      <c r="D72" s="25">
+        <f t="shared" si="4"/>
         <v>66261.243409000002</v>
       </c>
-      <c r="E70" s="26">
+      <c r="E72" s="26">
         <v>12436.845440000001</v>
       </c>
-      <c r="F70" s="26">
+      <c r="F72" s="26">
         <v>53824.397969000005</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" hidden="1">
-      <c r="B71" s="9">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="11">
-        <f t="shared" si="3"/>
-        <v>68605.822660000005</v>
-      </c>
-      <c r="E71" s="12">
-        <v>13008.518850000002</v>
-      </c>
-      <c r="F71" s="13">
-        <v>55597.303810000005</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" hidden="1">
-      <c r="B72" s="14">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="16">
-        <f t="shared" si="3"/>
-        <v>68729.068468999991</v>
-      </c>
-      <c r="E72" s="17">
-        <v>13397.07763</v>
-      </c>
-      <c r="F72" s="17">
-        <v>55331.990838999998</v>
       </c>
     </row>
     <row r="73" spans="2:6" hidden="1">
@@ -2053,17 +2054,17 @@
         <v>2019</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D73" s="11">
-        <f t="shared" si="3"/>
-        <v>63953.437825000008</v>
+        <f t="shared" si="4"/>
+        <v>68605.822660000005</v>
       </c>
       <c r="E73" s="12">
-        <v>11041.58344</v>
+        <v>13008.518850000002</v>
       </c>
       <c r="F73" s="13">
-        <v>52911.854385000006</v>
+        <v>55597.303810000005</v>
       </c>
     </row>
     <row r="74" spans="2:6" hidden="1">
@@ -2071,17 +2072,17 @@
         <v>2019</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D74" s="16">
-        <f t="shared" si="3"/>
-        <v>64842.325497000005</v>
+        <f t="shared" si="4"/>
+        <v>68729.068468999991</v>
       </c>
       <c r="E74" s="17">
-        <v>11467.57286</v>
+        <v>13397.07763</v>
       </c>
       <c r="F74" s="17">
-        <v>53374.752637000005</v>
+        <v>55331.990838999998</v>
       </c>
     </row>
     <row r="75" spans="2:6" hidden="1">
@@ -2089,17 +2090,17 @@
         <v>2019</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D75" s="11">
-        <f t="shared" si="3"/>
-        <v>65696.806677</v>
+        <f t="shared" si="4"/>
+        <v>63953.437825000008</v>
       </c>
       <c r="E75" s="12">
-        <v>11392.176509999999</v>
+        <v>11041.58344</v>
       </c>
       <c r="F75" s="13">
-        <v>54304.630167000003</v>
+        <v>52911.854385000006</v>
       </c>
     </row>
     <row r="76" spans="2:6" hidden="1">
@@ -2107,17 +2108,17 @@
         <v>2019</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D76" s="16">
-        <f t="shared" si="3"/>
-        <v>63546.111140000001</v>
+        <f t="shared" si="4"/>
+        <v>64842.325497000005</v>
       </c>
       <c r="E76" s="17">
-        <v>11094.79</v>
+        <v>11467.57286</v>
       </c>
       <c r="F76" s="17">
-        <v>52451.32114</v>
+        <v>53374.752637000005</v>
       </c>
     </row>
     <row r="77" spans="2:6" hidden="1">
@@ -2125,17 +2126,17 @@
         <v>2019</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D77" s="11">
-        <f t="shared" si="3"/>
-        <v>65954.17841600001</v>
+        <f t="shared" si="4"/>
+        <v>65696.806677</v>
       </c>
       <c r="E77" s="12">
-        <v>12257.484480000001</v>
+        <v>11392.176509999999</v>
       </c>
       <c r="F77" s="13">
-        <v>53696.693936000003</v>
+        <v>54304.630167000003</v>
       </c>
     </row>
     <row r="78" spans="2:6" hidden="1">
@@ -2143,17 +2144,17 @@
         <v>2019</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D78" s="16">
-        <f t="shared" si="3"/>
-        <v>66025.018232000002</v>
+        <f t="shared" si="4"/>
+        <v>63546.111140000001</v>
       </c>
       <c r="E78" s="17">
-        <v>12001.947099999999</v>
+        <v>11094.79</v>
       </c>
       <c r="F78" s="17">
-        <v>54023.071131999997</v>
+        <v>52451.32114</v>
       </c>
     </row>
     <row r="79" spans="2:6" hidden="1">
@@ -2161,17 +2162,17 @@
         <v>2019</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D79" s="11">
-        <f t="shared" si="3"/>
-        <v>72963.126033400011</v>
+        <f t="shared" si="4"/>
+        <v>65954.17841600001</v>
       </c>
       <c r="E79" s="12">
-        <v>12358.550210000001</v>
+        <v>12257.484480000001</v>
       </c>
       <c r="F79" s="13">
-        <v>60604.575823400002</v>
+        <v>53696.693936000003</v>
       </c>
     </row>
     <row r="80" spans="2:6" hidden="1">
@@ -2179,71 +2180,71 @@
         <v>2019</v>
       </c>
       <c r="C80" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="16">
+        <f t="shared" si="4"/>
+        <v>66025.018232000002</v>
+      </c>
+      <c r="E80" s="17">
+        <v>12001.947099999999</v>
+      </c>
+      <c r="F80" s="17">
+        <v>54023.071131999997</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" hidden="1">
+      <c r="B81" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="11">
+        <f t="shared" si="4"/>
+        <v>72963.126033400011</v>
+      </c>
+      <c r="E81" s="12">
+        <v>12358.550210000001</v>
+      </c>
+      <c r="F81" s="13">
+        <v>60604.575823400002</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" hidden="1">
+      <c r="B82" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C82" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="16">
-        <f t="shared" si="3"/>
+      <c r="D82" s="16">
+        <f t="shared" si="4"/>
         <v>62080.146123999999</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E82" s="17">
         <v>11336.3799</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F82" s="17">
         <v>50743.766223999999</v>
       </c>
     </row>
-    <row r="81" spans="2:6" hidden="1">
-      <c r="B81" s="18">
+    <row r="83" spans="2:6" hidden="1">
+      <c r="B83" s="18">
         <v>2019</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C83" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D81" s="20">
-        <f t="shared" ref="D81:D93" si="4">SUM(E81:F81)</f>
+      <c r="D83" s="20">
+        <f t="shared" ref="D83:D95" si="5">SUM(E83:F83)</f>
         <v>66069.786819700006</v>
       </c>
-      <c r="E81" s="21">
+      <c r="E83" s="21">
         <v>13827.258220000002</v>
       </c>
-      <c r="F81" s="22">
+      <c r="F83" s="22">
         <v>52242.528599700003</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" hidden="1">
-      <c r="B82" s="15">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="16">
-        <f t="shared" si="4"/>
-        <v>66933.167482000004</v>
-      </c>
-      <c r="E82" s="17">
-        <v>9081.5239999999994</v>
-      </c>
-      <c r="F82" s="17">
-        <v>57851.643481999999</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" hidden="1">
-      <c r="B83" s="10">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" s="11">
-        <f t="shared" si="4"/>
-        <v>71177.636041999998</v>
-      </c>
-      <c r="E83" s="12">
-        <v>10497.208000000001</v>
-      </c>
-      <c r="F83" s="13">
-        <v>60680.428042</v>
       </c>
     </row>
     <row r="84" spans="2:6" hidden="1">
@@ -2251,17 +2252,17 @@
         <v>2018</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D84" s="16">
-        <f t="shared" si="4"/>
-        <v>71661.010011999999</v>
+        <f t="shared" si="5"/>
+        <v>66933.167482000004</v>
       </c>
       <c r="E84" s="17">
-        <v>9991.6759999999995</v>
+        <v>9081.5239999999994</v>
       </c>
       <c r="F84" s="17">
-        <v>61669.334011999999</v>
+        <v>57851.643481999999</v>
       </c>
     </row>
     <row r="85" spans="2:6" hidden="1">
@@ -2269,17 +2270,17 @@
         <v>2018</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D85" s="11">
-        <f t="shared" si="4"/>
-        <v>66201.479049599991</v>
+        <f t="shared" si="5"/>
+        <v>71177.636041999998</v>
       </c>
       <c r="E85" s="12">
-        <v>8721.2330000000002</v>
+        <v>10497.208000000001</v>
       </c>
       <c r="F85" s="13">
-        <v>57480.246049599999</v>
+        <v>60680.428042</v>
       </c>
     </row>
     <row r="86" spans="2:6" hidden="1">
@@ -2287,17 +2288,17 @@
         <v>2018</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D86" s="16">
-        <f t="shared" si="4"/>
-        <v>65268.307869800003</v>
+        <f t="shared" si="5"/>
+        <v>71661.010011999999</v>
       </c>
       <c r="E86" s="17">
-        <v>9262.4320000000007</v>
+        <v>9991.6759999999995</v>
       </c>
       <c r="F86" s="17">
-        <v>56005.875869800002</v>
+        <v>61669.334011999999</v>
       </c>
     </row>
     <row r="87" spans="2:6" hidden="1">
@@ -2305,17 +2306,17 @@
         <v>2018</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D87" s="11">
-        <f t="shared" si="4"/>
-        <v>67408.032546999995</v>
+        <f t="shared" si="5"/>
+        <v>66201.479049599991</v>
       </c>
       <c r="E87" s="12">
-        <v>8453.6</v>
+        <v>8721.2330000000002</v>
       </c>
       <c r="F87" s="13">
-        <v>58954.432546999997</v>
+        <v>57480.246049599999</v>
       </c>
     </row>
     <row r="88" spans="2:6" hidden="1">
@@ -2323,17 +2324,17 @@
         <v>2018</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D88" s="16">
-        <f t="shared" si="4"/>
-        <v>69001.484601999997</v>
+        <f t="shared" si="5"/>
+        <v>65268.307869800003</v>
       </c>
       <c r="E88" s="17">
-        <v>9016.5510999999988</v>
+        <v>9262.4320000000007</v>
       </c>
       <c r="F88" s="17">
-        <v>59984.933502</v>
+        <v>56005.875869800002</v>
       </c>
     </row>
     <row r="89" spans="2:6" hidden="1">
@@ -2341,17 +2342,17 @@
         <v>2018</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D89" s="11">
-        <f t="shared" si="4"/>
-        <v>68248.467609999992</v>
+        <f t="shared" si="5"/>
+        <v>67408.032546999995</v>
       </c>
       <c r="E89" s="12">
-        <v>9692.3696600000003</v>
+        <v>8453.6</v>
       </c>
       <c r="F89" s="13">
-        <v>58556.097949999996</v>
+        <v>58954.432546999997</v>
       </c>
     </row>
     <row r="90" spans="2:6" hidden="1">
@@ -2359,17 +2360,17 @@
         <v>2018</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D90" s="16">
-        <f t="shared" si="4"/>
-        <v>71464.30909499999</v>
+        <f t="shared" si="5"/>
+        <v>69001.484601999997</v>
       </c>
       <c r="E90" s="17">
-        <v>9137.2187799999992</v>
+        <v>9016.5510999999988</v>
       </c>
       <c r="F90" s="17">
-        <v>62327.090314999994</v>
+        <v>59984.933502</v>
       </c>
     </row>
     <row r="91" spans="2:6" hidden="1">
@@ -2377,17 +2378,17 @@
         <v>2018</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D91" s="11">
-        <f t="shared" si="4"/>
-        <v>72436.418715000007</v>
+        <f t="shared" si="5"/>
+        <v>68248.467609999992</v>
       </c>
       <c r="E91" s="12">
-        <v>9317.3212800000001</v>
+        <v>9692.3696600000003</v>
       </c>
       <c r="F91" s="13">
-        <v>63119.097435000003</v>
+        <v>58556.097949999996</v>
       </c>
     </row>
     <row r="92" spans="2:6" hidden="1">
@@ -2395,17 +2396,17 @@
         <v>2018</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D92" s="16">
-        <f t="shared" si="4"/>
-        <v>60034.670899299999</v>
+        <f t="shared" si="5"/>
+        <v>71464.30909499999</v>
       </c>
       <c r="E92" s="17">
-        <v>8005.7809000000007</v>
+        <v>9137.2187799999992</v>
       </c>
       <c r="F92" s="17">
-        <v>52028.889999300001</v>
+        <v>62327.090314999994</v>
       </c>
     </row>
     <row r="93" spans="2:6" hidden="1">
@@ -2413,31 +2414,67 @@
         <v>2018</v>
       </c>
       <c r="C93" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="11">
+        <f t="shared" si="5"/>
+        <v>72436.418715000007</v>
+      </c>
+      <c r="E93" s="12">
+        <v>9317.3212800000001</v>
+      </c>
+      <c r="F93" s="13">
+        <v>63119.097435000003</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" hidden="1">
+      <c r="B94" s="15">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="16">
+        <f t="shared" si="5"/>
+        <v>60034.670899299999</v>
+      </c>
+      <c r="E94" s="17">
+        <v>8005.7809000000007</v>
+      </c>
+      <c r="F94" s="17">
+        <v>52028.889999300001</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" hidden="1">
+      <c r="B95" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D93" s="11">
-        <f t="shared" si="4"/>
+      <c r="D95" s="11">
+        <f t="shared" si="5"/>
         <v>59958.963042999996</v>
       </c>
-      <c r="E93" s="12">
+      <c r="E95" s="12">
         <v>8140.3959999999997</v>
       </c>
-      <c r="F93" s="13">
+      <c r="F95" s="13">
         <v>51818.567042999995</v>
       </c>
     </row>
-    <row r="94" spans="2:6">
-      <c r="B94" s="1" t="s">
+    <row r="96" spans="2:6">
+      <c r="B96" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="2:6">
-      <c r="B95" s="1" t="s">
+    <row r="97" spans="2:6">
+      <c r="B97" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:6">
-      <c r="F96" s="27"/>
+    <row r="98" spans="2:6">
+      <c r="F98" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Carga_Total_N_Aero.xlsx
+++ b/Carga_Total_N_Aero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709A980A-6ACB-4E29-A9DD-60A649A72B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83870D6D-083B-4160-AF71-7B8B492FBC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_30.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="22">
   <si>
     <t>Internacional</t>
   </si>
@@ -101,7 +101,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -542,8 +542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F95" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B5:F95" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F96" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B5:F96" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -787,7 +787,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B1:F98"/>
+  <dimension ref="B1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -844,1637 +844,1655 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="15">
+      <c r="B6" s="9">
         <v>2025</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11">
+        <f>SUM(E6:F6)</f>
+        <v>67490.219376671695</v>
+      </c>
+      <c r="E6" s="12">
+        <v>10805.039619999996</v>
+      </c>
+      <c r="F6" s="13">
+        <v>56685.1797566717</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="15">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="16">
-        <f>SUM(E6:F6)</f>
+      <c r="D7" s="16">
+        <f>SUM(E7:F7)</f>
         <v>66462.845157584423</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E7" s="17">
         <v>10030.901829999999</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F7" s="17">
         <v>56431.94332758442</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="9">
+    <row r="8" spans="2:6">
+      <c r="B8" s="9">
         <v>2025</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11">
-        <f>SUM(E7:F7)</f>
+      <c r="D8" s="11">
+        <f>SUM(E8:F8)</f>
         <v>66225.10957632956</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E8" s="12">
         <v>10746.452795019999</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F8" s="13">
         <v>55478.656781309568</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="15">
+    <row r="9" spans="2:6">
+      <c r="B9" s="15">
         <v>2025</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="16">
-        <f t="shared" ref="D8:D13" si="0">SUM(E8:F8)</f>
+      <c r="D9" s="16">
+        <f t="shared" ref="D9:D14" si="0">SUM(E9:F9)</f>
         <v>60440.968873084203</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="17">
         <v>10011.761319999998</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F9" s="17">
         <v>50429.207553084205</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="9">
+    <row r="10" spans="2:6">
+      <c r="B10" s="9">
         <v>2025</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
         <v>66899.188512835943</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E10" s="12">
         <v>9838.3982400000004</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>57060.79027283594</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="15">
+    <row r="11" spans="2:6">
+      <c r="B11" s="15">
         <v>2025</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D11" s="16">
         <f t="shared" si="0"/>
         <v>58549.759313595176</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E11" s="17">
         <v>9040.4374190100007</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F11" s="17">
         <v>49509.321894585177</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="18">
+    <row r="12" spans="2:6">
+      <c r="B12" s="18">
         <v>2025</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D12" s="20">
         <f t="shared" si="0"/>
         <v>56412.033907040895</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E12" s="21">
         <v>9481.3890400000037</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F12" s="22">
         <v>46930.644867040894</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="14">
+    <row r="13" spans="2:6">
+      <c r="B13" s="14">
         <v>2024</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D13" s="16">
         <f t="shared" si="0"/>
         <v>64250.428390157533</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E13" s="17">
         <v>10701.994849999997</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F13" s="17">
         <v>53548.433540157537</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="9">
+    <row r="14" spans="2:6">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <f t="shared" si="0"/>
         <v>67242.603703832137</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E14" s="12">
         <v>11494.171069999997</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>55748.432633832141</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="14">
+    <row r="15" spans="2:6">
+      <c r="B15" s="14">
         <v>2024</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="16">
-        <f t="shared" ref="D14" si="1">SUM(E14:F14)</f>
+      <c r="D15" s="16">
+        <f t="shared" ref="D15" si="1">SUM(E15:F15)</f>
         <v>69206.521745573584</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E15" s="17">
         <v>11457.6875</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F15" s="17">
         <v>57748.834245573584</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="9">
+    <row r="16" spans="2:6">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="11">
-        <f>SUM(E15:F15)</f>
+      <c r="D16" s="11">
+        <f>SUM(E16:F16)</f>
         <v>62030.163715460309</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E16" s="12">
         <v>9752.9897600000004</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>52277.173955460312</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="14">
+    <row r="17" spans="2:6">
+      <c r="B17" s="14">
         <v>2024</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="16">
-        <f t="shared" ref="D16:D50" si="2">SUM(E16:F16)</f>
+      <c r="D17" s="16">
+        <f t="shared" ref="D17:D51" si="2">SUM(E17:F17)</f>
         <v>65259.126878821015</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E17" s="17">
         <v>10656.19658</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F17" s="17">
         <v>54602.930298821011</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="9">
+    <row r="18" spans="2:6">
+      <c r="B18" s="9">
         <v>2024</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="11">
-        <f t="shared" ref="D17:D19" si="3">SUM(E17:F17)</f>
+      <c r="D18" s="11">
+        <f t="shared" ref="D18:D20" si="3">SUM(E18:F18)</f>
         <v>66121.667125742053</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E18" s="12">
         <v>10090.788336235837</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="13">
         <v>56030.878789506212</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="14">
+    <row r="19" spans="2:6">
+      <c r="B19" s="14">
         <v>2024</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D19" s="16">
         <f t="shared" si="3"/>
         <v>62938.58459658191</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E19" s="17">
         <v>9471.2998499999976</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F19" s="17">
         <v>53467.284746581914</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="9">
+    <row r="20" spans="2:6">
+      <c r="B20" s="9">
         <v>2024</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <f t="shared" si="3"/>
         <v>67406.691080706252</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E20" s="12">
         <v>10696.546900000001</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F20" s="13">
         <v>56710.144180706244</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="14">
+    <row r="21" spans="2:6">
+      <c r="B21" s="14">
         <v>2024</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D21" s="16">
         <f t="shared" si="2"/>
         <v>65792.956232409837</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E21" s="17">
         <v>9979.4764199999972</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F21" s="17">
         <v>55813.479812409838</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="9">
+    <row r="22" spans="2:6">
+      <c r="B22" s="9">
         <v>2024</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <f t="shared" si="2"/>
         <v>66758.094457414816</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E22" s="12">
         <v>9290.8170100000025</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>57467.277447414817</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="14">
+    <row r="23" spans="2:6">
+      <c r="B23" s="14">
         <v>2024</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D23" s="16">
         <f t="shared" si="2"/>
         <v>64256.670049296357</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E23" s="17">
         <v>9254.3676000000014</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F23" s="17">
         <v>55002.30244929636</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="18">
+    <row r="24" spans="2:6">
+      <c r="B24" s="18">
         <v>2024</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C24" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D24" s="20">
         <f t="shared" si="2"/>
         <v>63954.918249090239</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E24" s="21">
         <v>9707.3228199999994</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F24" s="22">
         <v>54247.595429090237</v>
       </c>
     </row>
-    <row r="24" spans="2:6" hidden="1">
-      <c r="B24" s="23">
+    <row r="25" spans="2:6" hidden="1">
+      <c r="B25" s="23">
         <v>2023</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C25" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D25" s="25">
         <f t="shared" si="2"/>
         <v>65636.227902030922</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E25" s="26">
         <v>10457.710060000001</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F25" s="26">
         <v>55178.517842030924</v>
       </c>
     </row>
-    <row r="25" spans="2:6" hidden="1">
-      <c r="B25" s="9">
+    <row r="26" spans="2:6" hidden="1">
+      <c r="B26" s="9">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <f t="shared" si="2"/>
         <v>66343.772248230161</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E26" s="12">
         <v>11049.623379999995</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>55294.148868230172</v>
       </c>
     </row>
-    <row r="26" spans="2:6" hidden="1">
-      <c r="B26" s="14">
+    <row r="27" spans="2:6" hidden="1">
+      <c r="B27" s="14">
         <v>2023</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D27" s="16">
         <f t="shared" si="2"/>
         <v>74538.440708327311</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E27" s="17">
         <v>11064.185199999994</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F27" s="17">
         <v>63474.255508327318</v>
       </c>
     </row>
-    <row r="27" spans="2:6" hidden="1">
-      <c r="B27" s="9">
+    <row r="28" spans="2:6" hidden="1">
+      <c r="B28" s="9">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <f t="shared" si="2"/>
         <v>62577.19108720139</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E28" s="12">
         <v>9698.2422200000001</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>52878.94886720139</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1">
-      <c r="B28" s="14">
+    <row r="29" spans="2:6" hidden="1">
+      <c r="B29" s="14">
         <v>2023</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D29" s="16">
         <f t="shared" si="2"/>
         <v>67812.791455821265</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E29" s="17">
         <v>10523.073319999998</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F29" s="17">
         <v>57289.718135821262</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1">
-      <c r="B29" s="9">
+    <row r="30" spans="2:6" hidden="1">
+      <c r="B30" s="9">
         <v>2023</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <f t="shared" si="2"/>
         <v>67712.269710793204</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E30" s="12">
         <v>9845.1506699999973</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="13">
         <v>57867.119040793208</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1">
-      <c r="B30" s="14">
+    <row r="31" spans="2:6" hidden="1">
+      <c r="B31" s="14">
         <v>2023</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D31" s="16">
         <f t="shared" si="2"/>
         <v>66844.753326239559</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E31" s="17">
         <v>10335.844959999999</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F31" s="17">
         <v>56508.908366239557</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1">
-      <c r="B31" s="9">
+    <row r="32" spans="2:6" hidden="1">
+      <c r="B32" s="9">
         <v>2023</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="11">
         <f t="shared" si="2"/>
         <v>66163.140046463639</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E32" s="12">
         <v>10572.075449999998</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F32" s="13">
         <v>55591.064596463635</v>
       </c>
     </row>
-    <row r="32" spans="2:6" hidden="1">
-      <c r="B32" s="14">
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="14">
         <v>2023</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D33" s="16">
         <f t="shared" si="2"/>
         <v>62926.446933830361</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E33" s="17">
         <v>9376.9209200000005</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F33" s="17">
         <v>53549.526013830357</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1">
-      <c r="B33" s="9">
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="9">
         <v>2023</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <f t="shared" si="2"/>
         <v>70380.670155785672</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E34" s="12">
         <v>10595.588189999999</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="13">
         <v>59785.08196578567</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1">
-      <c r="B34" s="14">
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35" s="14">
         <v>2023</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D35" s="16">
         <f t="shared" si="2"/>
         <v>61289.109018179544</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E35" s="17">
         <v>8878.0714700000008</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F35" s="17">
         <v>52411.037548179542</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1">
-      <c r="B35" s="18">
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36" s="18">
         <v>2023</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C36" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D36" s="20">
         <f t="shared" si="2"/>
         <v>60647.248166616067</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E36" s="21">
         <v>9596.1618600000002</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F36" s="22">
         <v>51051.086306616067</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1">
-      <c r="B36" s="23">
+    <row r="37" spans="2:6" hidden="1">
+      <c r="B37" s="23">
         <v>2022</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C37" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D37" s="25">
         <f t="shared" si="2"/>
         <v>68588.044349950811</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E37" s="26">
         <v>11506.01224</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F37" s="26">
         <v>57082.032109950815</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1">
-      <c r="B37" s="9">
+    <row r="38" spans="2:6" hidden="1">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <f t="shared" si="2"/>
         <v>68464.795097486145</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E38" s="12">
         <v>11633.829369999999</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="13">
         <v>56830.965727486146</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1">
-      <c r="B38" s="14">
+    <row r="39" spans="2:6" hidden="1">
+      <c r="B39" s="14">
         <v>2022</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C39" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D39" s="16">
         <f t="shared" si="2"/>
         <v>70337.920445471551</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E39" s="17">
         <v>10845.919520000005</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F39" s="17">
         <v>59492.000925471548</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1">
-      <c r="B39" s="9">
+    <row r="40" spans="2:6" hidden="1">
+      <c r="B40" s="9">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <f t="shared" si="2"/>
         <v>63717.495873095577</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E40" s="12">
         <v>10054.112030000002</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>53663.383843095573</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1">
-      <c r="B40" s="14">
+    <row r="41" spans="2:6" hidden="1">
+      <c r="B41" s="14">
         <v>2022</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D41" s="16">
         <f t="shared" si="2"/>
         <v>65644.980710849399</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E41" s="17">
         <v>10458.872009999997</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F41" s="17">
         <v>55186.1087008494</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1">
-      <c r="B41" s="9">
+    <row r="42" spans="2:6" hidden="1">
+      <c r="B42" s="9">
         <v>2022</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="11">
         <f t="shared" si="2"/>
         <v>71001.646432407404</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E42" s="12">
         <v>10578.0892</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="13">
         <v>60423.557232407409</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1">
-      <c r="B42" s="14">
+    <row r="43" spans="2:6" hidden="1">
+      <c r="B43" s="14">
         <v>2022</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D43" s="16">
         <f t="shared" si="2"/>
         <v>73576.613353201523</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E43" s="17">
         <v>12418.258889999999</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F43" s="17">
         <v>61158.354463201526</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1">
-      <c r="B43" s="9">
+    <row r="44" spans="2:6" hidden="1">
+      <c r="B44" s="9">
         <v>2022</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="11">
         <f t="shared" si="2"/>
         <v>70478.224170624977</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E44" s="12">
         <v>10687.703999999998</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F44" s="13">
         <v>59790.520170624986</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1">
-      <c r="B44" s="14">
+    <row r="45" spans="2:6" hidden="1">
+      <c r="B45" s="14">
         <v>2022</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D45" s="16">
         <f t="shared" si="2"/>
         <v>65395.389936100008</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E45" s="17">
         <v>10009.792879999999</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F45" s="17">
         <v>55385.597056100007</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1">
-      <c r="B45" s="9">
+    <row r="46" spans="2:6" hidden="1">
+      <c r="B46" s="9">
         <v>2022</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <f t="shared" si="2"/>
         <v>70663.687067199993</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E46" s="12">
         <v>10790.40236</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="13">
         <v>59873.2847072</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1">
-      <c r="B46" s="14">
+    <row r="47" spans="2:6" hidden="1">
+      <c r="B47" s="14">
         <v>2022</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C47" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D47" s="16">
         <f t="shared" si="2"/>
         <v>62248.796398300008</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E47" s="17">
         <v>9503.8195899999992</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F47" s="17">
         <v>52744.976808300009</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1">
-      <c r="B47" s="18">
+    <row r="48" spans="2:6" hidden="1">
+      <c r="B48" s="18">
         <v>2022</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C48" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D48" s="20">
         <f t="shared" si="2"/>
         <v>58480.2683493</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E48" s="21">
         <v>9164.2659699999986</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F48" s="22">
         <v>49316.0023793</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1">
-      <c r="B48" s="23">
+    <row r="49" spans="2:6" hidden="1">
+      <c r="B49" s="23">
         <v>2021</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C49" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D49" s="25">
         <f t="shared" si="2"/>
         <v>71058.534132700006</v>
       </c>
-      <c r="E48" s="26">
+      <c r="E49" s="26">
         <v>11787.100349999999</v>
       </c>
-      <c r="F48" s="26">
+      <c r="F49" s="26">
         <v>59271.433782700005</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1">
-      <c r="B49" s="9">
+    <row r="50" spans="2:6" hidden="1">
+      <c r="B50" s="9">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <f t="shared" si="2"/>
         <v>70276.799918899997</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E50" s="12">
         <v>11002.488009999999</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <v>59274.311908899996</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1">
-      <c r="B50" s="14">
+    <row r="51" spans="2:6" hidden="1">
+      <c r="B51" s="14">
         <v>2021</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C51" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D51" s="16">
         <f t="shared" si="2"/>
         <v>71581.534583699991</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E51" s="17">
         <v>10533.75974</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F51" s="17">
         <v>61047.774843699997</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1">
-      <c r="B51" s="9">
+    <row r="52" spans="2:6" hidden="1">
+      <c r="B52" s="9">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="11">
-        <f t="shared" ref="D51:D82" si="4">SUM(E51:F51)</f>
+      <c r="D52" s="11">
+        <f t="shared" ref="D52:D83" si="4">SUM(E52:F52)</f>
         <v>63210.818573499993</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E52" s="12">
         <v>9205.0079700000006</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>54005.810603499995</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1">
-      <c r="B52" s="14">
+    <row r="53" spans="2:6" hidden="1">
+      <c r="B53" s="14">
         <v>2021</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C53" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D53" s="16">
         <f t="shared" si="4"/>
         <v>64225.819261800003</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E53" s="17">
         <v>9288.4902899999997</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F53" s="17">
         <v>54937.328971800001</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1">
-      <c r="B53" s="9">
+    <row r="54" spans="2:6" hidden="1">
+      <c r="B54" s="9">
         <v>2021</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="11">
         <f t="shared" si="4"/>
         <v>68599.738738</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E54" s="12">
         <v>9818.9590200000002</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="13">
         <v>58780.779718000005</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1">
-      <c r="B54" s="14">
+    <row r="55" spans="2:6" hidden="1">
+      <c r="B55" s="14">
         <v>2021</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D55" s="16">
         <f t="shared" si="4"/>
         <v>64729.816312399991</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E55" s="17">
         <v>9122.9778799999985</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F55" s="17">
         <v>55606.838432399993</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1">
-      <c r="B55" s="9">
+    <row r="56" spans="2:6" hidden="1">
+      <c r="B56" s="9">
         <v>2021</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <f t="shared" si="4"/>
         <v>65852.654150000002</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E56" s="12">
         <v>8949.1877700000005</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F56" s="13">
         <v>56903.466379999998</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1">
-      <c r="B56" s="14">
+    <row r="57" spans="2:6" hidden="1">
+      <c r="B57" s="14">
         <v>2021</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D57" s="16">
         <f t="shared" si="4"/>
         <v>63906.943998100003</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E57" s="17">
         <v>8684.6848300000001</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F57" s="17">
         <v>55222.259168100005</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1">
-      <c r="B57" s="9">
+    <row r="58" spans="2:6" hidden="1">
+      <c r="B58" s="9">
         <v>2021</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <f t="shared" si="4"/>
         <v>70158.308097000001</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E58" s="12">
         <v>9170.0568799999983</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F58" s="13">
         <v>60988.251216999997</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1">
-      <c r="B58" s="14">
+    <row r="59" spans="2:6" hidden="1">
+      <c r="B59" s="14">
         <v>2021</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D59" s="16">
         <f t="shared" si="4"/>
         <v>60491.315076000006</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E59" s="17">
         <v>7767.4261999999999</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F59" s="17">
         <v>52723.888876000005</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1">
-      <c r="B59" s="18">
+    <row r="60" spans="2:6" hidden="1">
+      <c r="B60" s="18">
         <v>2021</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C60" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D60" s="20">
         <f t="shared" si="4"/>
         <v>63725.913205999997</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E60" s="21">
         <v>8464.5160599999999</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F60" s="22">
         <v>55261.397145999996</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1">
-      <c r="B60" s="23">
+    <row r="61" spans="2:6" hidden="1">
+      <c r="B61" s="23">
         <v>2020</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C61" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="25">
+      <c r="D61" s="25">
         <f t="shared" si="4"/>
         <v>66303.668197999999</v>
       </c>
-      <c r="E60" s="26">
+      <c r="E61" s="26">
         <v>10783.384609999999</v>
       </c>
-      <c r="F60" s="26">
+      <c r="F61" s="26">
         <v>55520.283587999998</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1">
-      <c r="B61" s="9">
+    <row r="62" spans="2:6" hidden="1">
+      <c r="B62" s="9">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <f t="shared" si="4"/>
         <v>67964.463443000001</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E62" s="12">
         <v>10277.794900000001</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F62" s="13">
         <v>57686.668543</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1">
-      <c r="B62" s="14">
+    <row r="63" spans="2:6" hidden="1">
+      <c r="B63" s="14">
         <v>2020</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C63" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D63" s="16">
         <f t="shared" si="4"/>
         <v>66309.962777399996</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E63" s="17">
         <v>9671.3324499999999</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F63" s="17">
         <v>56638.630327399995</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1">
-      <c r="B63" s="9">
+    <row r="64" spans="2:6" hidden="1">
+      <c r="B64" s="9">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <f t="shared" si="4"/>
         <v>57113.372982199995</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E64" s="12">
         <v>9190.6065299999991</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>47922.766452199998</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1">
-      <c r="B64" s="14">
+    <row r="65" spans="2:6" hidden="1">
+      <c r="B65" s="14">
         <v>2020</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C65" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D65" s="16">
         <f t="shared" si="4"/>
         <v>52149.208218500004</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E65" s="17">
         <v>7626.2473300000001</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F65" s="17">
         <v>44522.960888500005</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1">
-      <c r="B65" s="9">
+    <row r="66" spans="2:6" hidden="1">
+      <c r="B66" s="9">
         <v>2020</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="11">
         <f t="shared" si="4"/>
         <v>46691.5235245</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E66" s="12">
         <v>6651.94434</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F66" s="13">
         <v>40039.579184499999</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1">
-      <c r="B66" s="14">
+    <row r="67" spans="2:6" hidden="1">
+      <c r="B67" s="14">
         <v>2020</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C67" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D67" s="16">
         <f t="shared" si="4"/>
         <v>42608.422072199995</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E67" s="17">
         <v>5692.9747600000001</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F67" s="17">
         <v>36915.447312199998</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1">
-      <c r="B67" s="9">
+    <row r="68" spans="2:6" hidden="1">
+      <c r="B68" s="9">
         <v>2020</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <f t="shared" si="4"/>
         <v>38705.075583899998</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E68" s="12">
         <v>4788.3910099999994</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F68" s="13">
         <v>33916.684573899998</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1">
-      <c r="B68" s="14">
+    <row r="69" spans="2:6" hidden="1">
+      <c r="B69" s="14">
         <v>2020</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D69" s="16">
         <f t="shared" si="4"/>
         <v>33589.608145099999</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E69" s="17">
         <v>4465.3602699999992</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F69" s="17">
         <v>29124.247875100002</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1">
-      <c r="B69" s="9">
+    <row r="70" spans="2:6" hidden="1">
+      <c r="B70" s="9">
         <v>2020</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <f t="shared" si="4"/>
         <v>55854.879077099999</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E70" s="12">
         <v>7632.2904900000003</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F70" s="13">
         <v>48222.588587099999</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1">
-      <c r="B70" s="14">
+    <row r="71" spans="2:6" hidden="1">
+      <c r="B71" s="14">
         <v>2020</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D71" s="16">
         <f t="shared" si="4"/>
         <v>55217.324218999995</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E71" s="17">
         <v>8133.2827100000013</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F71" s="17">
         <v>47084.041508999995</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1">
-      <c r="B71" s="18">
+    <row r="72" spans="2:6" hidden="1">
+      <c r="B72" s="18">
         <v>2020</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C72" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D72" s="20">
         <f t="shared" si="4"/>
         <v>58590.469882999991</v>
       </c>
-      <c r="E71" s="21">
+      <c r="E72" s="21">
         <v>9265.3395099999998</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F72" s="22">
         <v>49325.130372999993</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1">
-      <c r="B72" s="23">
+    <row r="73" spans="2:6" hidden="1">
+      <c r="B73" s="23">
         <v>2019</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C73" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="25">
+      <c r="D73" s="25">
         <f t="shared" si="4"/>
         <v>66261.243409000002</v>
       </c>
-      <c r="E72" s="26">
+      <c r="E73" s="26">
         <v>12436.845440000001</v>
       </c>
-      <c r="F72" s="26">
+      <c r="F73" s="26">
         <v>53824.397969000005</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1">
-      <c r="B73" s="9">
+    <row r="74" spans="2:6" hidden="1">
+      <c r="B74" s="9">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <f t="shared" si="4"/>
         <v>68605.822660000005</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E74" s="12">
         <v>13008.518850000002</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F74" s="13">
         <v>55597.303810000005</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1">
-      <c r="B74" s="14">
+    <row r="75" spans="2:6" hidden="1">
+      <c r="B75" s="14">
         <v>2019</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C75" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D75" s="16">
         <f t="shared" si="4"/>
         <v>68729.068468999991</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E75" s="17">
         <v>13397.07763</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F75" s="17">
         <v>55331.990838999998</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1">
-      <c r="B75" s="9">
+    <row r="76" spans="2:6" hidden="1">
+      <c r="B76" s="9">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <f t="shared" si="4"/>
         <v>63953.437825000008</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E76" s="12">
         <v>11041.58344</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="13">
         <v>52911.854385000006</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1">
-      <c r="B76" s="14">
+    <row r="77" spans="2:6" hidden="1">
+      <c r="B77" s="14">
         <v>2019</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C77" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D77" s="16">
         <f t="shared" si="4"/>
         <v>64842.325497000005</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E77" s="17">
         <v>11467.57286</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F77" s="17">
         <v>53374.752637000005</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1">
-      <c r="B77" s="9">
+    <row r="78" spans="2:6" hidden="1">
+      <c r="B78" s="9">
         <v>2019</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <f t="shared" si="4"/>
         <v>65696.806677</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E78" s="12">
         <v>11392.176509999999</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F78" s="13">
         <v>54304.630167000003</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1">
-      <c r="B78" s="14">
+    <row r="79" spans="2:6" hidden="1">
+      <c r="B79" s="14">
         <v>2019</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C79" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D79" s="16">
         <f t="shared" si="4"/>
         <v>63546.111140000001</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E79" s="17">
         <v>11094.79</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F79" s="17">
         <v>52451.32114</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1">
-      <c r="B79" s="9">
+    <row r="80" spans="2:6" hidden="1">
+      <c r="B80" s="9">
         <v>2019</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <f t="shared" si="4"/>
         <v>65954.17841600001</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E80" s="12">
         <v>12257.484480000001</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F80" s="13">
         <v>53696.693936000003</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1">
-      <c r="B80" s="14">
+    <row r="81" spans="2:6" hidden="1">
+      <c r="B81" s="14">
         <v>2019</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C81" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D81" s="16">
         <f t="shared" si="4"/>
         <v>66025.018232000002</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E81" s="17">
         <v>12001.947099999999</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F81" s="17">
         <v>54023.071131999997</v>
       </c>
     </row>
-    <row r="81" spans="2:6" hidden="1">
-      <c r="B81" s="9">
+    <row r="82" spans="2:6" hidden="1">
+      <c r="B82" s="9">
         <v>2019</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <f t="shared" si="4"/>
         <v>72963.126033400011</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E82" s="12">
         <v>12358.550210000001</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F82" s="13">
         <v>60604.575823400002</v>
       </c>
     </row>
-    <row r="82" spans="2:6" hidden="1">
-      <c r="B82" s="14">
+    <row r="83" spans="2:6" hidden="1">
+      <c r="B83" s="14">
         <v>2019</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C83" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D83" s="16">
         <f t="shared" si="4"/>
         <v>62080.146123999999</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E83" s="17">
         <v>11336.3799</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F83" s="17">
         <v>50743.766223999999</v>
       </c>
     </row>
-    <row r="83" spans="2:6" hidden="1">
-      <c r="B83" s="18">
+    <row r="84" spans="2:6" hidden="1">
+      <c r="B84" s="18">
         <v>2019</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C84" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="20">
-        <f t="shared" ref="D83:D95" si="5">SUM(E83:F83)</f>
+      <c r="D84" s="20">
+        <f t="shared" ref="D84:D96" si="5">SUM(E84:F84)</f>
         <v>66069.786819700006</v>
       </c>
-      <c r="E83" s="21">
+      <c r="E84" s="21">
         <v>13827.258220000002</v>
       </c>
-      <c r="F83" s="22">
+      <c r="F84" s="22">
         <v>52242.528599700003</v>
       </c>
     </row>
-    <row r="84" spans="2:6" hidden="1">
-      <c r="B84" s="15">
+    <row r="85" spans="2:6" hidden="1">
+      <c r="B85" s="15">
         <v>2018</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C85" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D85" s="16">
         <f t="shared" si="5"/>
         <v>66933.167482000004</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E85" s="17">
         <v>9081.5239999999994</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F85" s="17">
         <v>57851.643481999999</v>
       </c>
     </row>
-    <row r="85" spans="2:6" hidden="1">
-      <c r="B85" s="10">
+    <row r="86" spans="2:6" hidden="1">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <f t="shared" si="5"/>
         <v>71177.636041999998</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E86" s="12">
         <v>10497.208000000001</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F86" s="13">
         <v>60680.428042</v>
       </c>
     </row>
-    <row r="86" spans="2:6" hidden="1">
-      <c r="B86" s="15">
+    <row r="87" spans="2:6" hidden="1">
+      <c r="B87" s="15">
         <v>2018</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C87" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="16">
+      <c r="D87" s="16">
         <f t="shared" si="5"/>
         <v>71661.010011999999</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E87" s="17">
         <v>9991.6759999999995</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F87" s="17">
         <v>61669.334011999999</v>
       </c>
     </row>
-    <row r="87" spans="2:6" hidden="1">
-      <c r="B87" s="10">
+    <row r="88" spans="2:6" hidden="1">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <f t="shared" si="5"/>
         <v>66201.479049599991</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E88" s="12">
         <v>8721.2330000000002</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F88" s="13">
         <v>57480.246049599999</v>
       </c>
     </row>
-    <row r="88" spans="2:6" hidden="1">
-      <c r="B88" s="15">
+    <row r="89" spans="2:6" hidden="1">
+      <c r="B89" s="15">
         <v>2018</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C89" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D89" s="16">
         <f t="shared" si="5"/>
         <v>65268.307869800003</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E89" s="17">
         <v>9262.4320000000007</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F89" s="17">
         <v>56005.875869800002</v>
       </c>
     </row>
-    <row r="89" spans="2:6" hidden="1">
-      <c r="B89" s="10">
+    <row r="90" spans="2:6" hidden="1">
+      <c r="B90" s="10">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="11">
         <f t="shared" si="5"/>
         <v>67408.032546999995</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E90" s="12">
         <v>8453.6</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F90" s="13">
         <v>58954.432546999997</v>
       </c>
     </row>
-    <row r="90" spans="2:6" hidden="1">
-      <c r="B90" s="15">
+    <row r="91" spans="2:6" hidden="1">
+      <c r="B91" s="15">
         <v>2018</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C91" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="16">
+      <c r="D91" s="16">
         <f t="shared" si="5"/>
         <v>69001.484601999997</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E91" s="17">
         <v>9016.5510999999988</v>
       </c>
-      <c r="F90" s="17">
+      <c r="F91" s="17">
         <v>59984.933502</v>
       </c>
     </row>
-    <row r="91" spans="2:6" hidden="1">
-      <c r="B91" s="10">
+    <row r="92" spans="2:6" hidden="1">
+      <c r="B92" s="10">
         <v>2018</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D92" s="11">
         <f t="shared" si="5"/>
         <v>68248.467609999992</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E92" s="12">
         <v>9692.3696600000003</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F92" s="13">
         <v>58556.097949999996</v>
       </c>
     </row>
-    <row r="92" spans="2:6" hidden="1">
-      <c r="B92" s="15">
+    <row r="93" spans="2:6" hidden="1">
+      <c r="B93" s="15">
         <v>2018</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C93" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D92" s="16">
+      <c r="D93" s="16">
         <f t="shared" si="5"/>
         <v>71464.30909499999</v>
       </c>
-      <c r="E92" s="17">
+      <c r="E93" s="17">
         <v>9137.2187799999992</v>
       </c>
-      <c r="F92" s="17">
+      <c r="F93" s="17">
         <v>62327.090314999994</v>
       </c>
     </row>
-    <row r="93" spans="2:6" hidden="1">
-      <c r="B93" s="10">
+    <row r="94" spans="2:6" hidden="1">
+      <c r="B94" s="10">
         <v>2018</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C94" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D93" s="11">
+      <c r="D94" s="11">
         <f t="shared" si="5"/>
         <v>72436.418715000007</v>
       </c>
-      <c r="E93" s="12">
+      <c r="E94" s="12">
         <v>9317.3212800000001</v>
       </c>
-      <c r="F93" s="13">
+      <c r="F94" s="13">
         <v>63119.097435000003</v>
       </c>
     </row>
-    <row r="94" spans="2:6" hidden="1">
-      <c r="B94" s="15">
+    <row r="95" spans="2:6" hidden="1">
+      <c r="B95" s="15">
         <v>2018</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C95" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D94" s="16">
+      <c r="D95" s="16">
         <f t="shared" si="5"/>
         <v>60034.670899299999</v>
       </c>
-      <c r="E94" s="17">
+      <c r="E95" s="17">
         <v>8005.7809000000007</v>
       </c>
-      <c r="F94" s="17">
+      <c r="F95" s="17">
         <v>52028.889999300001</v>
       </c>
     </row>
-    <row r="95" spans="2:6" hidden="1">
-      <c r="B95" s="10">
+    <row r="96" spans="2:6" hidden="1">
+      <c r="B96" s="10">
         <v>2018</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C96" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="11">
+      <c r="D96" s="11">
         <f t="shared" si="5"/>
         <v>59958.963042999996</v>
       </c>
-      <c r="E95" s="12">
+      <c r="E96" s="12">
         <v>8140.3959999999997</v>
       </c>
-      <c r="F95" s="13">
+      <c r="F96" s="13">
         <v>51818.567042999995</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6">
-      <c r="B96" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="97" spans="2:6">
       <c r="B97" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="2:6">
-      <c r="F98" s="27"/>
+    <row r="99" spans="2:6">
+      <c r="F99" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Carga_Total_N_Aero.xlsx
+++ b/Carga_Total_N_Aero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83870D6D-083B-4160-AF71-7B8B492FBC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD26C06-4DF0-4EA6-8F12-74E59CD2257E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="22">
   <si>
     <t>Internacional</t>
   </si>
@@ -101,7 +101,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -542,8 +542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F96" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B5:F96" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F97" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B5:F97" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -787,7 +787,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B1:F99"/>
+  <dimension ref="B1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -844,1655 +844,1673 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="9">
+      <c r="B6" s="15">
         <v>2025</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="16">
+        <f>SUM(E6:F6)</f>
+        <v>65665.284734615445</v>
+      </c>
+      <c r="E6" s="17">
+        <v>10283.049600000002</v>
+      </c>
+      <c r="F6" s="17">
+        <v>55382.235134615439</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11">
-        <f>SUM(E6:F6)</f>
+      <c r="D7" s="11">
+        <f>SUM(E7:F7)</f>
         <v>67490.219376671695</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E7" s="12">
         <v>10805.039619999996</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="13">
         <v>56685.1797566717</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="15">
+    <row r="8" spans="2:6">
+      <c r="B8" s="15">
         <v>2025</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="16">
-        <f>SUM(E7:F7)</f>
+      <c r="D8" s="16">
+        <f>SUM(E8:F8)</f>
         <v>66462.845157584423</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E8" s="17">
         <v>10030.901829999999</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F8" s="17">
         <v>56431.94332758442</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="9">
+    <row r="9" spans="2:6">
+      <c r="B9" s="9">
         <v>2025</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11">
-        <f>SUM(E8:F8)</f>
+      <c r="D9" s="11">
+        <f>SUM(E9:F9)</f>
         <v>66225.10957632956</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E9" s="12">
         <v>10746.452795019999</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="13">
         <v>55478.656781309568</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="15">
+    <row r="10" spans="2:6">
+      <c r="B10" s="15">
         <v>2025</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16">
-        <f t="shared" ref="D9:D14" si="0">SUM(E9:F9)</f>
+      <c r="D10" s="16">
+        <f t="shared" ref="D10:D15" si="0">SUM(E10:F10)</f>
         <v>60440.968873084203</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E10" s="17">
         <v>10011.761319999998</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F10" s="17">
         <v>50429.207553084205</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="9">
+    <row r="11" spans="2:6">
+      <c r="B11" s="9">
         <v>2025</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <f t="shared" si="0"/>
         <v>66899.188512835943</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E11" s="12">
         <v>9838.3982400000004</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>57060.79027283594</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="15">
+    <row r="12" spans="2:6">
+      <c r="B12" s="15">
         <v>2025</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D12" s="16">
         <f t="shared" si="0"/>
         <v>58549.759313595176</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E12" s="17">
         <v>9040.4374190100007</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F12" s="17">
         <v>49509.321894585177</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="18">
+    <row r="13" spans="2:6">
+      <c r="B13" s="18">
         <v>2025</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D13" s="20">
         <f t="shared" si="0"/>
         <v>56412.033907040895</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E13" s="21">
         <v>9481.3890400000037</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F13" s="22">
         <v>46930.644867040894</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="14">
+    <row r="14" spans="2:6">
+      <c r="B14" s="14">
         <v>2024</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D14" s="16">
         <f t="shared" si="0"/>
         <v>64250.428390157533</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E14" s="17">
         <v>10701.994849999997</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F14" s="17">
         <v>53548.433540157537</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="9">
+    <row r="15" spans="2:6">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <f t="shared" si="0"/>
         <v>67242.603703832137</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E15" s="12">
         <v>11494.171069999997</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="13">
         <v>55748.432633832141</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="14">
+    <row r="16" spans="2:6">
+      <c r="B16" s="14">
         <v>2024</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="16">
-        <f t="shared" ref="D15" si="1">SUM(E15:F15)</f>
+      <c r="D16" s="16">
+        <f t="shared" ref="D16" si="1">SUM(E16:F16)</f>
         <v>69206.521745573584</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E16" s="17">
         <v>11457.6875</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F16" s="17">
         <v>57748.834245573584</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="9">
+    <row r="17" spans="2:6">
+      <c r="B17" s="9">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="11">
-        <f>SUM(E16:F16)</f>
+      <c r="D17" s="11">
+        <f>SUM(E17:F17)</f>
         <v>62030.163715460309</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E17" s="12">
         <v>9752.9897600000004</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>52277.173955460312</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="14">
+    <row r="18" spans="2:6">
+      <c r="B18" s="14">
         <v>2024</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="16">
-        <f t="shared" ref="D17:D51" si="2">SUM(E17:F17)</f>
+      <c r="D18" s="16">
+        <f t="shared" ref="D18:D52" si="2">SUM(E18:F18)</f>
         <v>65259.126878821015</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E18" s="17">
         <v>10656.19658</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F18" s="17">
         <v>54602.930298821011</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="9">
+    <row r="19" spans="2:6">
+      <c r="B19" s="9">
         <v>2024</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="11">
-        <f t="shared" ref="D18:D20" si="3">SUM(E18:F18)</f>
+      <c r="D19" s="11">
+        <f t="shared" ref="D19:D21" si="3">SUM(E19:F19)</f>
         <v>66121.667125742053</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E19" s="12">
         <v>10090.788336235837</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="13">
         <v>56030.878789506212</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="14">
+    <row r="20" spans="2:6">
+      <c r="B20" s="14">
         <v>2024</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D20" s="16">
         <f t="shared" si="3"/>
         <v>62938.58459658191</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E20" s="17">
         <v>9471.2998499999976</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F20" s="17">
         <v>53467.284746581914</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="9">
+    <row r="21" spans="2:6">
+      <c r="B21" s="9">
         <v>2024</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <f t="shared" si="3"/>
         <v>67406.691080706252</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E21" s="12">
         <v>10696.546900000001</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="13">
         <v>56710.144180706244</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="14">
+    <row r="22" spans="2:6">
+      <c r="B22" s="14">
         <v>2024</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C22" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D22" s="16">
         <f t="shared" si="2"/>
         <v>65792.956232409837</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E22" s="17">
         <v>9979.4764199999972</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F22" s="17">
         <v>55813.479812409838</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="9">
+    <row r="23" spans="2:6">
+      <c r="B23" s="9">
         <v>2024</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <f t="shared" si="2"/>
         <v>66758.094457414816</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E23" s="12">
         <v>9290.8170100000025</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>57467.277447414817</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="14">
+    <row r="24" spans="2:6">
+      <c r="B24" s="14">
         <v>2024</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D24" s="16">
         <f t="shared" si="2"/>
         <v>64256.670049296357</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E24" s="17">
         <v>9254.3676000000014</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F24" s="17">
         <v>55002.30244929636</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="18">
+    <row r="25" spans="2:6">
+      <c r="B25" s="18">
         <v>2024</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D25" s="20">
         <f t="shared" si="2"/>
         <v>63954.918249090239</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E25" s="21">
         <v>9707.3228199999994</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F25" s="22">
         <v>54247.595429090237</v>
       </c>
     </row>
-    <row r="25" spans="2:6" hidden="1">
-      <c r="B25" s="23">
+    <row r="26" spans="2:6" hidden="1">
+      <c r="B26" s="23">
         <v>2023</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C26" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D26" s="25">
         <f t="shared" si="2"/>
         <v>65636.227902030922</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E26" s="26">
         <v>10457.710060000001</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F26" s="26">
         <v>55178.517842030924</v>
       </c>
     </row>
-    <row r="26" spans="2:6" hidden="1">
-      <c r="B26" s="9">
+    <row r="27" spans="2:6" hidden="1">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <f t="shared" si="2"/>
         <v>66343.772248230161</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E27" s="12">
         <v>11049.623379999995</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>55294.148868230172</v>
       </c>
     </row>
-    <row r="27" spans="2:6" hidden="1">
-      <c r="B27" s="14">
+    <row r="28" spans="2:6" hidden="1">
+      <c r="B28" s="14">
         <v>2023</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D28" s="16">
         <f t="shared" si="2"/>
         <v>74538.440708327311</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E28" s="17">
         <v>11064.185199999994</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F28" s="17">
         <v>63474.255508327318</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1">
-      <c r="B28" s="9">
+    <row r="29" spans="2:6" hidden="1">
+      <c r="B29" s="9">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <f t="shared" si="2"/>
         <v>62577.19108720139</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E29" s="12">
         <v>9698.2422200000001</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>52878.94886720139</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1">
-      <c r="B29" s="14">
+    <row r="30" spans="2:6" hidden="1">
+      <c r="B30" s="14">
         <v>2023</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D30" s="16">
         <f t="shared" si="2"/>
         <v>67812.791455821265</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E30" s="17">
         <v>10523.073319999998</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F30" s="17">
         <v>57289.718135821262</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1">
-      <c r="B30" s="9">
+    <row r="31" spans="2:6" hidden="1">
+      <c r="B31" s="9">
         <v>2023</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <f t="shared" si="2"/>
         <v>67712.269710793204</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E31" s="12">
         <v>9845.1506699999973</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="13">
         <v>57867.119040793208</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1">
-      <c r="B31" s="14">
+    <row r="32" spans="2:6" hidden="1">
+      <c r="B32" s="14">
         <v>2023</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C32" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D32" s="16">
         <f t="shared" si="2"/>
         <v>66844.753326239559</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E32" s="17">
         <v>10335.844959999999</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F32" s="17">
         <v>56508.908366239557</v>
       </c>
     </row>
-    <row r="32" spans="2:6" hidden="1">
-      <c r="B32" s="9">
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="9">
         <v>2023</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <f t="shared" si="2"/>
         <v>66163.140046463639</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E33" s="12">
         <v>10572.075449999998</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F33" s="13">
         <v>55591.064596463635</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1">
-      <c r="B33" s="14">
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="14">
         <v>2023</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C34" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D34" s="16">
         <f t="shared" si="2"/>
         <v>62926.446933830361</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E34" s="17">
         <v>9376.9209200000005</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F34" s="17">
         <v>53549.526013830357</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1">
-      <c r="B34" s="9">
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35" s="9">
         <v>2023</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <f t="shared" si="2"/>
         <v>70380.670155785672</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E35" s="12">
         <v>10595.588189999999</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>59785.08196578567</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1">
-      <c r="B35" s="14">
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36" s="14">
         <v>2023</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C36" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D36" s="16">
         <f t="shared" si="2"/>
         <v>61289.109018179544</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E36" s="17">
         <v>8878.0714700000008</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F36" s="17">
         <v>52411.037548179542</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1">
-      <c r="B36" s="18">
+    <row r="37" spans="2:6" hidden="1">
+      <c r="B37" s="18">
         <v>2023</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D37" s="20">
         <f t="shared" si="2"/>
         <v>60647.248166616067</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E37" s="21">
         <v>9596.1618600000002</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F37" s="22">
         <v>51051.086306616067</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1">
-      <c r="B37" s="23">
+    <row r="38" spans="2:6" hidden="1">
+      <c r="B38" s="23">
         <v>2022</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D38" s="25">
         <f t="shared" si="2"/>
         <v>68588.044349950811</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E38" s="26">
         <v>11506.01224</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F38" s="26">
         <v>57082.032109950815</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1">
-      <c r="B38" s="9">
+    <row r="39" spans="2:6" hidden="1">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <f t="shared" si="2"/>
         <v>68464.795097486145</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E39" s="12">
         <v>11633.829369999999</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="13">
         <v>56830.965727486146</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1">
-      <c r="B39" s="14">
+    <row r="40" spans="2:6" hidden="1">
+      <c r="B40" s="14">
         <v>2022</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C40" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D40" s="16">
         <f t="shared" si="2"/>
         <v>70337.920445471551</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E40" s="17">
         <v>10845.919520000005</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F40" s="17">
         <v>59492.000925471548</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1">
-      <c r="B40" s="9">
+    <row r="41" spans="2:6" hidden="1">
+      <c r="B41" s="9">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <f t="shared" si="2"/>
         <v>63717.495873095577</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E41" s="12">
         <v>10054.112030000002</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>53663.383843095573</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1">
-      <c r="B41" s="14">
+    <row r="42" spans="2:6" hidden="1">
+      <c r="B42" s="14">
         <v>2022</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D42" s="16">
         <f t="shared" si="2"/>
         <v>65644.980710849399</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E42" s="17">
         <v>10458.872009999997</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F42" s="17">
         <v>55186.1087008494</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1">
-      <c r="B42" s="9">
+    <row r="43" spans="2:6" hidden="1">
+      <c r="B43" s="9">
         <v>2022</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <f t="shared" si="2"/>
         <v>71001.646432407404</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E43" s="12">
         <v>10578.0892</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F43" s="13">
         <v>60423.557232407409</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1">
-      <c r="B43" s="14">
+    <row r="44" spans="2:6" hidden="1">
+      <c r="B44" s="14">
         <v>2022</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D44" s="16">
         <f t="shared" si="2"/>
         <v>73576.613353201523</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E44" s="17">
         <v>12418.258889999999</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F44" s="17">
         <v>61158.354463201526</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1">
-      <c r="B44" s="9">
+    <row r="45" spans="2:6" hidden="1">
+      <c r="B45" s="9">
         <v>2022</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <f t="shared" si="2"/>
         <v>70478.224170624977</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E45" s="12">
         <v>10687.703999999998</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="13">
         <v>59790.520170624986</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1">
-      <c r="B45" s="14">
+    <row r="46" spans="2:6" hidden="1">
+      <c r="B46" s="14">
         <v>2022</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C46" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D46" s="16">
         <f t="shared" si="2"/>
         <v>65395.389936100008</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E46" s="17">
         <v>10009.792879999999</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F46" s="17">
         <v>55385.597056100007</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1">
-      <c r="B46" s="9">
+    <row r="47" spans="2:6" hidden="1">
+      <c r="B47" s="9">
         <v>2022</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <f t="shared" si="2"/>
         <v>70663.687067199993</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E47" s="12">
         <v>10790.40236</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>59873.2847072</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1">
-      <c r="B47" s="14">
+    <row r="48" spans="2:6" hidden="1">
+      <c r="B48" s="14">
         <v>2022</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C48" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D48" s="16">
         <f t="shared" si="2"/>
         <v>62248.796398300008</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E48" s="17">
         <v>9503.8195899999992</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F48" s="17">
         <v>52744.976808300009</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1">
-      <c r="B48" s="18">
+    <row r="49" spans="2:6" hidden="1">
+      <c r="B49" s="18">
         <v>2022</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C49" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D49" s="20">
         <f t="shared" si="2"/>
         <v>58480.2683493</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E49" s="21">
         <v>9164.2659699999986</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F49" s="22">
         <v>49316.0023793</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1">
-      <c r="B49" s="23">
+    <row r="50" spans="2:6" hidden="1">
+      <c r="B50" s="23">
         <v>2021</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C50" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D50" s="25">
         <f t="shared" si="2"/>
         <v>71058.534132700006</v>
       </c>
-      <c r="E49" s="26">
+      <c r="E50" s="26">
         <v>11787.100349999999</v>
       </c>
-      <c r="F49" s="26">
+      <c r="F50" s="26">
         <v>59271.433782700005</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1">
-      <c r="B50" s="9">
+    <row r="51" spans="2:6" hidden="1">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <f t="shared" si="2"/>
         <v>70276.799918899997</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E51" s="12">
         <v>11002.488009999999</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="13">
         <v>59274.311908899996</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1">
-      <c r="B51" s="14">
+    <row r="52" spans="2:6" hidden="1">
+      <c r="B52" s="14">
         <v>2021</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C52" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D52" s="16">
         <f t="shared" si="2"/>
         <v>71581.534583699991</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E52" s="17">
         <v>10533.75974</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F52" s="17">
         <v>61047.774843699997</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1">
-      <c r="B52" s="9">
+    <row r="53" spans="2:6" hidden="1">
+      <c r="B53" s="9">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="11">
-        <f t="shared" ref="D52:D83" si="4">SUM(E52:F52)</f>
+      <c r="D53" s="11">
+        <f t="shared" ref="D53:D84" si="4">SUM(E53:F53)</f>
         <v>63210.818573499993</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E53" s="12">
         <v>9205.0079700000006</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <v>54005.810603499995</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1">
-      <c r="B53" s="14">
+    <row r="54" spans="2:6" hidden="1">
+      <c r="B54" s="14">
         <v>2021</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C54" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D54" s="16">
         <f t="shared" si="4"/>
         <v>64225.819261800003</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E54" s="17">
         <v>9288.4902899999997</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F54" s="17">
         <v>54937.328971800001</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1">
-      <c r="B54" s="9">
+    <row r="55" spans="2:6" hidden="1">
+      <c r="B55" s="9">
         <v>2021</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <f t="shared" si="4"/>
         <v>68599.738738</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E55" s="12">
         <v>9818.9590200000002</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="13">
         <v>58780.779718000005</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1">
-      <c r="B55" s="14">
+    <row r="56" spans="2:6" hidden="1">
+      <c r="B56" s="14">
         <v>2021</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C56" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D56" s="16">
         <f t="shared" si="4"/>
         <v>64729.816312399991</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E56" s="17">
         <v>9122.9778799999985</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F56" s="17">
         <v>55606.838432399993</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1">
-      <c r="B56" s="9">
+    <row r="57" spans="2:6" hidden="1">
+      <c r="B57" s="9">
         <v>2021</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <f t="shared" si="4"/>
         <v>65852.654150000002</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E57" s="12">
         <v>8949.1877700000005</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F57" s="13">
         <v>56903.466379999998</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1">
-      <c r="B57" s="14">
+    <row r="58" spans="2:6" hidden="1">
+      <c r="B58" s="14">
         <v>2021</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C58" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D58" s="16">
         <f t="shared" si="4"/>
         <v>63906.943998100003</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E58" s="17">
         <v>8684.6848300000001</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F58" s="17">
         <v>55222.259168100005</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1">
-      <c r="B58" s="9">
+    <row r="59" spans="2:6" hidden="1">
+      <c r="B59" s="9">
         <v>2021</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <f t="shared" si="4"/>
         <v>70158.308097000001</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E59" s="12">
         <v>9170.0568799999983</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>60988.251216999997</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1">
-      <c r="B59" s="14">
+    <row r="60" spans="2:6" hidden="1">
+      <c r="B60" s="14">
         <v>2021</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C60" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D60" s="16">
         <f t="shared" si="4"/>
         <v>60491.315076000006</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E60" s="17">
         <v>7767.4261999999999</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F60" s="17">
         <v>52723.888876000005</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1">
-      <c r="B60" s="18">
+    <row r="61" spans="2:6" hidden="1">
+      <c r="B61" s="18">
         <v>2021</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C61" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D61" s="20">
         <f t="shared" si="4"/>
         <v>63725.913205999997</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E61" s="21">
         <v>8464.5160599999999</v>
       </c>
-      <c r="F60" s="22">
+      <c r="F61" s="22">
         <v>55261.397145999996</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1">
-      <c r="B61" s="23">
+    <row r="62" spans="2:6" hidden="1">
+      <c r="B62" s="23">
         <v>2020</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C62" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D62" s="25">
         <f t="shared" si="4"/>
         <v>66303.668197999999</v>
       </c>
-      <c r="E61" s="26">
+      <c r="E62" s="26">
         <v>10783.384609999999</v>
       </c>
-      <c r="F61" s="26">
+      <c r="F62" s="26">
         <v>55520.283587999998</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1">
-      <c r="B62" s="9">
+    <row r="63" spans="2:6" hidden="1">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <f t="shared" si="4"/>
         <v>67964.463443000001</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E63" s="12">
         <v>10277.794900000001</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="13">
         <v>57686.668543</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1">
-      <c r="B63" s="14">
+    <row r="64" spans="2:6" hidden="1">
+      <c r="B64" s="14">
         <v>2020</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C64" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D64" s="16">
         <f t="shared" si="4"/>
         <v>66309.962777399996</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E64" s="17">
         <v>9671.3324499999999</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F64" s="17">
         <v>56638.630327399995</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1">
-      <c r="B64" s="9">
+    <row r="65" spans="2:6" hidden="1">
+      <c r="B65" s="9">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <f t="shared" si="4"/>
         <v>57113.372982199995</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E65" s="12">
         <v>9190.6065299999991</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="13">
         <v>47922.766452199998</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1">
-      <c r="B65" s="14">
+    <row r="66" spans="2:6" hidden="1">
+      <c r="B66" s="14">
         <v>2020</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C66" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D66" s="16">
         <f t="shared" si="4"/>
         <v>52149.208218500004</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E66" s="17">
         <v>7626.2473300000001</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F66" s="17">
         <v>44522.960888500005</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1">
-      <c r="B66" s="9">
+    <row r="67" spans="2:6" hidden="1">
+      <c r="B67" s="9">
         <v>2020</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <f t="shared" si="4"/>
         <v>46691.5235245</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E67" s="12">
         <v>6651.94434</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F67" s="13">
         <v>40039.579184499999</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1">
-      <c r="B67" s="14">
+    <row r="68" spans="2:6" hidden="1">
+      <c r="B68" s="14">
         <v>2020</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C68" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D68" s="16">
         <f t="shared" si="4"/>
         <v>42608.422072199995</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E68" s="17">
         <v>5692.9747600000001</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F68" s="17">
         <v>36915.447312199998</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1">
-      <c r="B68" s="9">
+    <row r="69" spans="2:6" hidden="1">
+      <c r="B69" s="9">
         <v>2020</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <f t="shared" si="4"/>
         <v>38705.075583899998</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E69" s="12">
         <v>4788.3910099999994</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F69" s="13">
         <v>33916.684573899998</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1">
-      <c r="B69" s="14">
+    <row r="70" spans="2:6" hidden="1">
+      <c r="B70" s="14">
         <v>2020</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C70" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D70" s="16">
         <f t="shared" si="4"/>
         <v>33589.608145099999</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E70" s="17">
         <v>4465.3602699999992</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F70" s="17">
         <v>29124.247875100002</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1">
-      <c r="B70" s="9">
+    <row r="71" spans="2:6" hidden="1">
+      <c r="B71" s="9">
         <v>2020</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <f t="shared" si="4"/>
         <v>55854.879077099999</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E71" s="12">
         <v>7632.2904900000003</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="13">
         <v>48222.588587099999</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1">
-      <c r="B71" s="14">
+    <row r="72" spans="2:6" hidden="1">
+      <c r="B72" s="14">
         <v>2020</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D72" s="16">
         <f t="shared" si="4"/>
         <v>55217.324218999995</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E72" s="17">
         <v>8133.2827100000013</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F72" s="17">
         <v>47084.041508999995</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1">
-      <c r="B72" s="18">
+    <row r="73" spans="2:6" hidden="1">
+      <c r="B73" s="18">
         <v>2020</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C73" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D73" s="20">
         <f t="shared" si="4"/>
         <v>58590.469882999991</v>
       </c>
-      <c r="E72" s="21">
+      <c r="E73" s="21">
         <v>9265.3395099999998</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F73" s="22">
         <v>49325.130372999993</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1">
-      <c r="B73" s="23">
+    <row r="74" spans="2:6" hidden="1">
+      <c r="B74" s="23">
         <v>2019</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C74" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="25">
+      <c r="D74" s="25">
         <f t="shared" si="4"/>
         <v>66261.243409000002</v>
       </c>
-      <c r="E73" s="26">
+      <c r="E74" s="26">
         <v>12436.845440000001</v>
       </c>
-      <c r="F73" s="26">
+      <c r="F74" s="26">
         <v>53824.397969000005</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1">
-      <c r="B74" s="9">
+    <row r="75" spans="2:6" hidden="1">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <f t="shared" si="4"/>
         <v>68605.822660000005</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E75" s="12">
         <v>13008.518850000002</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F75" s="13">
         <v>55597.303810000005</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1">
-      <c r="B75" s="14">
+    <row r="76" spans="2:6" hidden="1">
+      <c r="B76" s="14">
         <v>2019</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C76" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D76" s="16">
         <f t="shared" si="4"/>
         <v>68729.068468999991</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E76" s="17">
         <v>13397.07763</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F76" s="17">
         <v>55331.990838999998</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1">
-      <c r="B76" s="9">
+    <row r="77" spans="2:6" hidden="1">
+      <c r="B77" s="9">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <f t="shared" si="4"/>
         <v>63953.437825000008</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E77" s="12">
         <v>11041.58344</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F77" s="13">
         <v>52911.854385000006</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1">
-      <c r="B77" s="14">
+    <row r="78" spans="2:6" hidden="1">
+      <c r="B78" s="14">
         <v>2019</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C78" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D78" s="16">
         <f t="shared" si="4"/>
         <v>64842.325497000005</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E78" s="17">
         <v>11467.57286</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F78" s="17">
         <v>53374.752637000005</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1">
-      <c r="B78" s="9">
+    <row r="79" spans="2:6" hidden="1">
+      <c r="B79" s="9">
         <v>2019</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <f t="shared" si="4"/>
         <v>65696.806677</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E79" s="12">
         <v>11392.176509999999</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F79" s="13">
         <v>54304.630167000003</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1">
-      <c r="B79" s="14">
+    <row r="80" spans="2:6" hidden="1">
+      <c r="B80" s="14">
         <v>2019</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C80" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D80" s="16">
         <f t="shared" si="4"/>
         <v>63546.111140000001</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E80" s="17">
         <v>11094.79</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F80" s="17">
         <v>52451.32114</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1">
-      <c r="B80" s="9">
+    <row r="81" spans="2:6" hidden="1">
+      <c r="B81" s="9">
         <v>2019</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <f t="shared" si="4"/>
         <v>65954.17841600001</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E81" s="12">
         <v>12257.484480000001</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F81" s="13">
         <v>53696.693936000003</v>
       </c>
     </row>
-    <row r="81" spans="2:6" hidden="1">
-      <c r="B81" s="14">
+    <row r="82" spans="2:6" hidden="1">
+      <c r="B82" s="14">
         <v>2019</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C82" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D82" s="16">
         <f t="shared" si="4"/>
         <v>66025.018232000002</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E82" s="17">
         <v>12001.947099999999</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F82" s="17">
         <v>54023.071131999997</v>
       </c>
     </row>
-    <row r="82" spans="2:6" hidden="1">
-      <c r="B82" s="9">
+    <row r="83" spans="2:6" hidden="1">
+      <c r="B83" s="9">
         <v>2019</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <f t="shared" si="4"/>
         <v>72963.126033400011</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E83" s="12">
         <v>12358.550210000001</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F83" s="13">
         <v>60604.575823400002</v>
       </c>
     </row>
-    <row r="83" spans="2:6" hidden="1">
-      <c r="B83" s="14">
+    <row r="84" spans="2:6" hidden="1">
+      <c r="B84" s="14">
         <v>2019</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C84" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D84" s="16">
         <f t="shared" si="4"/>
         <v>62080.146123999999</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E84" s="17">
         <v>11336.3799</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F84" s="17">
         <v>50743.766223999999</v>
       </c>
     </row>
-    <row r="84" spans="2:6" hidden="1">
-      <c r="B84" s="18">
+    <row r="85" spans="2:6" hidden="1">
+      <c r="B85" s="18">
         <v>2019</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C85" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="20">
-        <f t="shared" ref="D84:D96" si="5">SUM(E84:F84)</f>
+      <c r="D85" s="20">
+        <f t="shared" ref="D85:D97" si="5">SUM(E85:F85)</f>
         <v>66069.786819700006</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E85" s="21">
         <v>13827.258220000002</v>
       </c>
-      <c r="F84" s="22">
+      <c r="F85" s="22">
         <v>52242.528599700003</v>
       </c>
     </row>
-    <row r="85" spans="2:6" hidden="1">
-      <c r="B85" s="15">
+    <row r="86" spans="2:6" hidden="1">
+      <c r="B86" s="15">
         <v>2018</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C86" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D86" s="16">
         <f t="shared" si="5"/>
         <v>66933.167482000004</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E86" s="17">
         <v>9081.5239999999994</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F86" s="17">
         <v>57851.643481999999</v>
       </c>
     </row>
-    <row r="86" spans="2:6" hidden="1">
-      <c r="B86" s="10">
+    <row r="87" spans="2:6" hidden="1">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <f t="shared" si="5"/>
         <v>71177.636041999998</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E87" s="12">
         <v>10497.208000000001</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F87" s="13">
         <v>60680.428042</v>
       </c>
     </row>
-    <row r="87" spans="2:6" hidden="1">
-      <c r="B87" s="15">
+    <row r="88" spans="2:6" hidden="1">
+      <c r="B88" s="15">
         <v>2018</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C88" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D88" s="16">
         <f t="shared" si="5"/>
         <v>71661.010011999999</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E88" s="17">
         <v>9991.6759999999995</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F88" s="17">
         <v>61669.334011999999</v>
       </c>
     </row>
-    <row r="88" spans="2:6" hidden="1">
-      <c r="B88" s="10">
+    <row r="89" spans="2:6" hidden="1">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <f t="shared" si="5"/>
         <v>66201.479049599991</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E89" s="12">
         <v>8721.2330000000002</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F89" s="13">
         <v>57480.246049599999</v>
       </c>
     </row>
-    <row r="89" spans="2:6" hidden="1">
-      <c r="B89" s="15">
+    <row r="90" spans="2:6" hidden="1">
+      <c r="B90" s="15">
         <v>2018</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C90" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D90" s="16">
         <f t="shared" si="5"/>
         <v>65268.307869800003</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E90" s="17">
         <v>9262.4320000000007</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F90" s="17">
         <v>56005.875869800002</v>
       </c>
     </row>
-    <row r="90" spans="2:6" hidden="1">
-      <c r="B90" s="10">
+    <row r="91" spans="2:6" hidden="1">
+      <c r="B91" s="10">
         <v>2018</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D91" s="11">
         <f t="shared" si="5"/>
         <v>67408.032546999995</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E91" s="12">
         <v>8453.6</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F91" s="13">
         <v>58954.432546999997</v>
       </c>
     </row>
-    <row r="91" spans="2:6" hidden="1">
-      <c r="B91" s="15">
+    <row r="92" spans="2:6" hidden="1">
+      <c r="B92" s="15">
         <v>2018</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C92" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="16">
+      <c r="D92" s="16">
         <f t="shared" si="5"/>
         <v>69001.484601999997</v>
       </c>
-      <c r="E91" s="17">
+      <c r="E92" s="17">
         <v>9016.5510999999988</v>
       </c>
-      <c r="F91" s="17">
+      <c r="F92" s="17">
         <v>59984.933502</v>
       </c>
     </row>
-    <row r="92" spans="2:6" hidden="1">
-      <c r="B92" s="10">
+    <row r="93" spans="2:6" hidden="1">
+      <c r="B93" s="10">
         <v>2018</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C93" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D93" s="11">
         <f t="shared" si="5"/>
         <v>68248.467609999992</v>
       </c>
-      <c r="E92" s="12">
+      <c r="E93" s="12">
         <v>9692.3696600000003</v>
       </c>
-      <c r="F92" s="13">
+      <c r="F93" s="13">
         <v>58556.097949999996</v>
       </c>
     </row>
-    <row r="93" spans="2:6" hidden="1">
-      <c r="B93" s="15">
+    <row r="94" spans="2:6" hidden="1">
+      <c r="B94" s="15">
         <v>2018</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C94" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D93" s="16">
+      <c r="D94" s="16">
         <f t="shared" si="5"/>
         <v>71464.30909499999</v>
       </c>
-      <c r="E93" s="17">
+      <c r="E94" s="17">
         <v>9137.2187799999992</v>
       </c>
-      <c r="F93" s="17">
+      <c r="F94" s="17">
         <v>62327.090314999994</v>
       </c>
     </row>
-    <row r="94" spans="2:6" hidden="1">
-      <c r="B94" s="10">
+    <row r="95" spans="2:6" hidden="1">
+      <c r="B95" s="10">
         <v>2018</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C95" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="11">
+      <c r="D95" s="11">
         <f t="shared" si="5"/>
         <v>72436.418715000007</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E95" s="12">
         <v>9317.3212800000001</v>
       </c>
-      <c r="F94" s="13">
+      <c r="F95" s="13">
         <v>63119.097435000003</v>
       </c>
     </row>
-    <row r="95" spans="2:6" hidden="1">
-      <c r="B95" s="15">
+    <row r="96" spans="2:6" hidden="1">
+      <c r="B96" s="15">
         <v>2018</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C96" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D95" s="16">
+      <c r="D96" s="16">
         <f t="shared" si="5"/>
         <v>60034.670899299999</v>
       </c>
-      <c r="E95" s="17">
+      <c r="E96" s="17">
         <v>8005.7809000000007</v>
       </c>
-      <c r="F95" s="17">
+      <c r="F96" s="17">
         <v>52028.889999300001</v>
       </c>
     </row>
-    <row r="96" spans="2:6" hidden="1">
-      <c r="B96" s="10">
+    <row r="97" spans="2:6" hidden="1">
+      <c r="B97" s="10">
         <v>2018</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C97" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D96" s="11">
+      <c r="D97" s="11">
         <f t="shared" si="5"/>
         <v>59958.963042999996</v>
       </c>
-      <c r="E96" s="12">
+      <c r="E97" s="12">
         <v>8140.3959999999997</v>
       </c>
-      <c r="F96" s="13">
+      <c r="F97" s="13">
         <v>51818.567042999995</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6">
-      <c r="B97" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="98" spans="2:6">
       <c r="B98" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="2:6">
-      <c r="F99" s="27"/>
+    <row r="100" spans="2:6">
+      <c r="F100" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
